--- a/src/test/resources/TestData/output/SmartScrappers_Team17_PCOS.xlsx
+++ b/src/test/resources/TestData/output/SmartScrappers_Team17_PCOS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="880">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>4 mins</t>
+  </si>
+  <si>
+    <t>For minty couscous
+To make minty couscous, clean and wash the couscous thoroughly.
+Combine the couscous and milk in a deep non-stick pan, mix well and cook on a medium flame for 3 to 4 minutes or till it is tender. Keep aside to cool slightly.
+Combine all the ingredients, including the cooked couscous, in a deep bowl and mix gently.
+Refrigerate for at least half an hour.
+Serve the minty couscous chilled.</t>
   </si>
   <si>
     <t xml:space="preserve">Energy 134 cal
@@ -110,6 +118,16 @@
   </si>
   <si>
     <t>23 mins</t>
+  </si>
+  <si>
+    <t>For masala chawli
+To make masala chawli, first prepare the mint paste by putting in a mixer, mint leaves, ginger, green chillies, lemon juice and 2 tbsp water. Grind to a smooth paste.
+Combine the soaked chawli, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Do not discard the water. Keep aside.
+Heat the coconut oil or oil in a deep non-stick pan, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the fresh tomato pulp, the dried fenugreek leaves, turmeric powder, a little salt, cooked chawli along with the water, mint paste and mix well.
+Cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Serve masala chawli hot with bajra roti or roti.</t>
   </si>
   <si>
     <t xml:space="preserve">Energy 122 cal
@@ -146,6 +164,13 @@
     <t>12 mins</t>
   </si>
   <si>
+    <t>For cabbage masala
+To make cabbage masala, heat the oil in a deep non-stick kadhai. Add the cumin seeds, mustard seeds and curry leaves and cook on medium heat for a few seconds.
+Add onions, green chillies, adrak and cook on medium heat for 2 to 3 minutes.
+Add cabbage, green peas, tomatoes, turmeric powder, salt and cover and cook for 8 to 10 minutes, stirring occasionally.
+Serve cabbage masala hot garnished with coriander.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energy 74 cal
 Protein 3.2 g
 Carbohydrates 9.3 g
@@ -173,6 +198,14 @@
   </si>
   <si>
     <t>1 mins</t>
+  </si>
+  <si>
+    <t>For onion tomato koshimbir
+To make onion tomato koshimbir, combine the onions, tomatoes, coriander and salt in a deep bowl and mix well. Keep aside.
+Heat the oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the asafoetida, green chillies and sauté on a medium flame for a few seconds.
+Pour the tempering over the tomato-onion mixture and mix well.
+Serve the onion tomato koshimbir immediately.</t>
   </si>
   <si>
     <t xml:space="preserve">Energy 42 cal
@@ -198,6 +231,13 @@
 2 tbsp quick cooking rolled oats
 2 tbsp chopped coriander (dhania)
 </t>
+  </si>
+  <si>
+    <t>For healthy garlic oats and vegetable soup
+To make healthy garlic oats and vegetable soup, heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the mixed vegetables, 3 cups of water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the oats and coriander, mix well and cook on a medium flame for 4 to 6 minutes.
+Serve the healthy garlic oats and vegetable soup hot.</t>
   </si>
   <si>
     <t xml:space="preserve">Energy 43 cal
@@ -241,6 +281,17 @@
     <t>17 mins</t>
   </si>
   <si>
+    <t>For baingan methi ki sabzi
+To make baingan methi sabzi first prepare the roasted and ground masala powder
+Heat the oil in a non-stick kadhai and add the mustard seeds.
+When the seeds crackle, add the onions, garlic, ginger and sauté on medium heat for 2 minutes till onions are translucent.
+Add the brinjals, fenugreek leaves , tomatoes and cook on medium heat for 5 minutes.
+Add turmeric powder, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Add the prepared masala powder and dried mango powder, mix well and cook on a medium flame for another 1 to 2 minutes, while stirring occasionally.
+Add the lemon juice and mix well.
+Serve baingan methi sabzi hot.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energy 96 cal
 Protein 4.3 g
 Carbohydrates 10.4 g
@@ -264,6 +315,14 @@
 salt to taste
 2 tsp oil for greasing and cooking
 </t>
+  </si>
+  <si>
+    <t>For baingan bhaja
+To make baingan bhaja, combine the chilli powder, turmeric powder, lemon juice, besan, salt and 2 tbsp of water in a deep bowl and mix well.
+Add the baingan slices and mix well. Keep aside.
+Heat a non-stick tava (griddle), grease it with ½ tsp of oil, arrange half the baingan slices and cook using ½ tsp of oil on both the sides till golden brown in colour.
+Repeat step 3 to make 1 more batch.
+Serve the baingan bhaja immediately.</t>
   </si>
   <si>
     <t xml:space="preserve">Energy 43 cal
@@ -295,6 +354,15 @@
 </t>
   </si>
   <si>
+    <t>For methi bajra paratha
+To make methi bajra paratha, combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 6 equal portions.
+Roll one portion into a 100 mm. (4”) diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook it, using ¼ tsp of ghee, till brown spots appear on both the sides.
+Repeat steps 3 and 4 to make 5 more methi bajra parathas.
+Serve the methi bajra parathas hot with fresh curds.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energy 56 cal
 Protein 1.5 g
 Carbohydrates 7.9 g
@@ -314,6 +382,14 @@
 salt to taste
 1/4 tsp turmeric powder (haldi)
 </t>
+  </si>
+  <si>
+    <t>For moong sprouts
+To make healthy mung beans sprouts, combine the moong and enough water in a deep bowl, cover with a lid and keep aside to soak for 6 hours.
+Drain completely and tie them in a muslin cloth. Keep aside in a warm place to sprout for 10 to 12 hours.
+Combine the moong sprouts, 1¼ cups of water, salt and turmeric powder in a deep non-stick pan and mix well.
+Cover with a lid and cook on a medium flame for 15 minutes, while stirring occasionally.
+Use the healthy mung beans sprouts as required.</t>
   </si>
   <si>
     <t xml:space="preserve">Energy 256 cal
@@ -360,9 +436,4861 @@
     <t>25 mins</t>
   </si>
   <si>
+    <t>For the roti
+Combine all the ingredients and knead to a soft dough adding enough water. Keep aside for ½ hour.
+Divide the dough into 6 equal portions and roll out each portion into 150 mm. (6") diameter roti.
+Cook each roti lightly on both sides on a tava (griddle) and keep aside.
+For the filling
+Heat the oil in a pan, add the onions and sauté till they turn translucent.
+Add the mixed vegetables, green chillies, coriander and salt and sauté for another minute.
+Divide into 6 equal portions and keep aside.
+For the spicy tahini paste
+Roast the sesame seeds and chana dal separately on a tava (griddle). Grind them together in a mixer to a fine powder.
+Remove the powder in a bowl, add all the remaining ingredients and mix well.
+Keep refrigerated for atleast an hour.
+How to proceed
+Place one roti on a clean dry surface.
+Put an even layer of lettuce on it.
+Spread a thin layer of the spicy tahini paste on the lettuce and then a portion of the filling.
+Spread a little chilli-garlic paste on top of the filling and roll up tightly.
+Repeat with the remaining ingredients to make 5 more wraps. Serve immediately.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energy 305 cal
 Protein 10.5 g
 Carbohydrates 45.6 g
+</t>
+  </si>
+  <si>
+    <t>22312</t>
+  </si>
+  <si>
+    <t>one meal soup recipe | healthy Indian dal vegetable soup | low salt yellow dal vegetable soup |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/one-meal-soup-healthy-indian-dal-vegetable-soup-22312r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup yellow moong dal (split yellow gram) , washed and drained
+2 tsp oil
+1 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped ginger (adrak)
+1/4 tsp green chilli paste
+1/2 cup finely chopped onions
+1 1/2 cups blanched chopped mixed vegetables
+salt and to taste
+1 tbsp finely chopped dill leaves
+2 tsp lemon juice
+</t>
+  </si>
+  <si>
+    <t>For one meal soup
+To make one meal soup, in a pressure cooker combine moong dal along with 1½ cups of water and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep pan, add the garlic, ginger, green chilli paste and onions and sauté on a medium flame for 2 minutes.
+Add the blanched mixed vegetables and sauté on medium flame for 1 minute.
+Add the moong dal mixture, salt and pepper to taste along with 1½ cups of water.
+Mix well and cook on medium flame for 3 to 4 minutes.
+Garnish with the dill leaves and lemon juice and mix well.
+Serve the one meal soup hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 102 cal
+Protein 4.9 g
+Carbohydrates 14.2 g
+</t>
+  </si>
+  <si>
+    <t>35288</t>
+  </si>
+  <si>
+    <t>oats moong dal tikki recipe | moong dal tikki with oats | healthy oats moong dal tikki |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-moong-dal-tikki-35288r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup yellow moong dal (split yellow gram)
+1/2 cup quick cooking rolled oats
+2 tbsp fresh curd (dahi)
+3 tbsp grated onions
+1/2 tsp finely chopped green chillies
+2 tsp chaat masala
+2 tsp chilli powder
+1/4 tsp garam masala
+1/4 tsp turmeric powder (haldi)
+1 tsp ginger-garlic (adrak-lehsun) paste
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+2 tsp oil for greasing and cooking
+healthy green chutney
+</t>
+  </si>
+  <si>
+    <t>For oats moong dal tikki
+To make oats moong dal tikki, clean, wash and boil the yellow moong dal in 1 cup of water in a deep pan till the dal is soft and cooked and all the water has evaporated.
+Drain and blend the dal in a mixer to a coarse paste.
+Transfer the paste into a bowl, add all the remaining ingredients and mix well.
+Divide the mixture into 12 equal portions and shape each portion into a 63 mm. (2½”) round flat tikki.
+Lightly grease a non-stick tava (griddle) with ½ tsp of oil.
+Cook each oats moong dal tikki, using 1/8 tsp of oil, till they turn golden brown in colour from both the sides. Evenly cooked from both the sides.
+Serve the oats moong dal tikki immediately with healthy green chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 54 cal
+Protein 2.7 g
+Carbohydrates 7.7 g
+</t>
+  </si>
+  <si>
+    <t>3394</t>
+  </si>
+  <si>
+    <t>fresh turmeric and ginger pickle recipe | kachi haldi ka achar | haldi adrak ka achar | Indian style ginger turmeric pickle |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fresh-turmeric-and-ginger-pickle-3394r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup peeled and sliced tender ginger (adrak)
+1/4 cup peeled and sliced fresh turmeric (amba halad)
+2 tbsp lemon juice
+1 tsp salt
+</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>For fresh turmeric and ginger pickle
+To make the fresh turmeric and ginger pickle, combine all the ingredients in a deep bowl and mix well.
+Transfer it to an air-tight glass jar, close the lid and set it aside in a cool, dry place for 4 to 5 hours for the flavours to blend well.
+Serve or store the fresh turmeric and ginger pickle refrigerated in the same glass jar. It stays fresh upto 6 to 8 months when refrigerated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 34 cal
+Protein 0.6 g
+Carbohydrates 6.7 g
+</t>
+  </si>
+  <si>
+    <t>42374</t>
+  </si>
+  <si>
+    <t>how to make skimmed milk recipe | how to make skim milk from whole milk | homemade skimmed milk | how to make low fat milk at home</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-make-homemade-skimmed-milk-42374r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 1/2 cups full-fat milk
+</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>For skimmed milk
+To make skimmed milk, boil the milk in a deep non-stick pan, which will take 8 to 10 minutes.
+Cool for atleast 2 to 3 hours.
+Put it in the refrigerator for atleast 10 to 12 hours.
+Remove the cream from the top.
+Repeat steps 1 to 4 two more times to get the skimmed milk. Use as required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 351 cal
+Protein 12.9 g
+Carbohydrates 15 g
+</t>
+  </si>
+  <si>
+    <t>6224</t>
+  </si>
+  <si>
+    <t>carrot, spinach and parsley juice recipe | Indian carrot parsley juice | spinach carrot celery juice for detox |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-spinach-and-parsley-vegetabe-juice-6224r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cups carrot cubes , peeled
+1/4 cup roughly chopped spinach (palak)
+1/4 cup roughly chopped parsley stems with leaves
+2 tbsp roughly chopped celery (ajmoda) sticks
+1 tbsp lemon juice
+12 ice-cubes
+</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Carrot, spinach and parsley juice in vitamix
+To make carrot, spinach and parsley juice in vitamix, combine the carrots, spinach, parsley, celery, lemon juice and 2½ cups of water and ice cubes in a high quality blender jar (like vitamix) and blend well till smooth and frothy.
+Serve immediately.
+Carrot, spinach and parsley juice in juicer
+Add the carrot cubes, chopped spinach, chopped parsley and chopped celery sticks a few at a time in the juicer.
+Add lemon juice and mix well.
+Add 3 ice-cubes in each of the 4 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve carrot, spinach and parsley juice immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 28 cal
+Protein 0.7 g
+Carbohydrates 5.9 g
+</t>
+  </si>
+  <si>
+    <t>5535</t>
+  </si>
+  <si>
+    <t>garlic vegetable soup recipe | easy healthy clear vegetable soup | mix vegetable garlic soup | mix vegetable soup for weight loss |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/garlic-vegetable-soup---healthy-heart-5535r</t>
+  </si>
+  <si>
+    <t>For garlic vegetable soup
+To make garlic vegetable soup, heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the mixed vegetables, 3 cups of water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the oats and coriander, mix well and cook on a medium flame for another 1 minute.
+Serve the garlic vegetable soup hot.</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>Maharashtrian patal bhaji recipe | palak ki patal bhaji | healthy patal bhaji |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/maharashtrian-patal-bhaji-paatal-bhaji-770r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 1/2 cups chopped colocassia leaves (arbi ke patte)
+1/4 cup chana dal (split bengal gram) , washed and drained
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+2 tsp tamarind (imli) pulp
+1 tbsp chopped jaggery (gur)
+2 tbsp roasted and coarsely crushed peanuts
+salt to taste
+2 tbsp grated coconut
+1 1/2 tsp roughly chopped green chillies
+1/4 cup chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>21 mins</t>
+  </si>
+  <si>
+    <t>Combine the chana dal, colocassia leaves and 1½ cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a non-stick kadhai, add the mustard seeds, cumin seeds, asafoetida and sauté on a medium flame for a few seconds.
+Add the prepared paste and sauté on a medium flame for 2 minutes.
+Add the chana dal-colocassia leaves mixture, tamarind pulp, jaggery, peanuts and salt, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 164 cal
+Protein 5.6 g
+Carbohydrates 16.1 g
+</t>
+  </si>
+  <si>
+    <t>41753</t>
+  </si>
+  <si>
+    <t>ginger cinnamon tea recipe | healthy ginger tea for cold | detox ginger cinnamon tea | immune booster ginger cinnamon honey tea |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/ginger-cinnamon-tea-41753r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 tbsp ginger (adrak) roundels
+1 small stick cinnamon (dalchini)
+1 tsp honey , optional
+</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>For ginger cinnamon tea
+To make ginger cinnamon tea, combine the ginger, cinnamon and 2 cups of water in a non-stick saucepan. Mix well, cover with a lid and cook on a medium flame for 8 minutes.
+Strain the mixture.
+Add the honey and mix well.
+Serve the ginger cinnamon tea warm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 5 cal
+Protein 0 g
+Carbohydrates 1.4 g
+</t>
+  </si>
+  <si>
+    <t>3892</t>
+  </si>
+  <si>
+    <t>bajra roti recipe | bajre ki roti | healthy pearl millet roti | Rajasthani bajra roti | Sajje Roti |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-roti-3892r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups bajra (black millet) flour
+1/4 cup whole wheat flour (gehun ka atta)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+4 tsp ghee for smearing
+white butter
+</t>
+  </si>
+  <si>
+    <t>For bajra roti
+Combine the bajra flour, whole wheat flour and salt in a deep bowl and knead into a soft dough using approx. ¾ cup of warm water.
+Divide the dough into 8 equal portions.
+Roll out a portion of the dough into a 150 mm. (6") diameter thick roti using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle), place the roti over it and cook it for a few seconds or till a few bristles appear on top.
+Turn over the roti and cook the other side for a few more seconds.
+Lift the roti with a pair of flat tongs and roast over an open flame till brown spots appear on both the sides.
+Smear 1/2 tsp ghee on top.
+Repeat steps 3 to 7 to make 7 more bajra rotis.
+Serve bajra roti | bajre ki roti | healthy pearl millet roti | rajasthani bajra roti immediately with white butter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 123 cal
+Protein 3.3 g
+Carbohydrates 19.1 g
+</t>
+  </si>
+  <si>
+    <t>35094</t>
+  </si>
+  <si>
+    <t>multiseed mukhwas | multi seed mukhwas | 4 seed healthy mukhwas | how to make multiseed mukhwas |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/multiseed-mukhwas--omega-3-fatty-acids-and-fibre-rich-recipe--35094r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup flax seeds
+1/4 cup black sesame seeds (kala til)
+1/4 cup white sesame seeds (til)
+1/4 cup fennel seeds (saunf)
+1 tbsp lemon juice
+1/2 tsp salt
+1/2 tsp powdered sugar
+</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a bowl, add the lemon juice and salt and mix well. Cover and keep aside for 1 hour.
+Dry roast it on a broad non-stick pan for 2 to 3 minutes till it starts giving a good aroma.
+Cool slightly, add the sugar and mix well.
+Cool completely and store in an air-tight container.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 43 cal
+Protein 1.4 g
+Carbohydrates 2.4 g
+</t>
+  </si>
+  <si>
+    <t>36139</t>
+  </si>
+  <si>
+    <t>walnut and cherry tomato salad recipe | 10 minute tomato walnut salad | healthy Indian cherry tomato salad with walnuts |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/walnut-and-cherry-tomato-salad-quick-cherry-tomato-salad-36139r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups cherry tomatoes , cut into halves
+1/4 cup roughly chopped walnuts (akhrot)
+1/4 cup chopped capsicum
+1/2 cup basil leaves , torn into pieces
+2 tsp roasted sesame seeds (til)
+2 tsp olive oil
+2 tsp honey
+1 tsp lemon juice
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For walnut and cherry tomato salad
+To make walnut and cherry tomato salad, combine the cherry tomatoes, walnuts, capsicum, basil leaves and sesame seeds in a bowl.
+Add the dressing and toss well.
+Serve the walnut and cherry tomato salad immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 113 cal
+Protein 2.3 g
+Carbohydrates 7.5 g
+</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>anti aging breakfast platter recipe | healthy breakfast platter idea | vegetarian Indian breakfast platter for healthy skin | healthy breakfast board |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 tbsp sprouted moong (whole green gram)
+1/4 cup low fat paneer (cottage cheese) cubes
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp rock salt (sendha namak)
+6 oranges segments
+1/2 cup watermelon (tarbuj) balls
+1/4 cup green grapes
+2 dates (khajur)
+4 walnuts (akhrot)
+5 almonds (badam)
+</t>
+  </si>
+  <si>
+    <t>For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 324 cal
+Protein 15 g
+Carbohydrates 46.1 g
+</t>
+  </si>
+  <si>
+    <t>41719</t>
+  </si>
+  <si>
+    <t>Kokum and Chia Seed Drink</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/kokum-and-chia-seed-drink-41719r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup semi dried kokum
+1 1/2 tsp chia seeds or falooda seeds (subza)
+2 tbsp powdered sugar
+</t>
+  </si>
+  <si>
+    <t>Combine the chia seeds and ¼ cup water in a small bowl, mix well and keep aside for 30 minutes.
+Combine the semi-dried kokum and ½ cup of water in a deep bowl, mix well and keep aside for 30 minutes.
+Blend the soaked kokum in a mixer along with the kokum water and blend till smooth.
+Transfer the kokum mixture and 2½ cups of cold water in a deep bowl and mix well.
+Strain the mixture using a strainer.
+Add the powdered sugar and the chia seeds and mix well.
+Pour equal quantities of the drink into 4 individual glasses.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 31 cal
+Protein 0.3 g
+Carbohydrates 6 g
+</t>
+  </si>
+  <si>
+    <t>42265</t>
+  </si>
+  <si>
+    <t>quinoa upma recipe | vegetable quinoa upma | veg Indian upma | how to make quinoa upma |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-veg-upma-vegan-breakfast-42265r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup quinoa , washed and drained
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1 tsp finely chopped green chillies
+1/2 tsp finely chopped ginger (adrak)
+4 curry leaves (kadi patta)
+2 tbsp raw peanuts
+1/2 cup finely chopped onions
+1/2 cup green peas
+1/4 cup finely chopped carrot
+1/4 tsp chilli powder
+salt to taste
+1/4 cup finely chopped coriander (dhania)
+1 tsp lemon juice
+</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>For quinoa veg upma
+To make quinoa veg upma, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the green chillies, ginger and curry leaves and sauté on a medium flame for a few seconds.
+Add the peanuts and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 2 minutes.
+Add the green peas and carrot and sauté on a medium flame for 2 minutes.
+Add the quinoa and sauté on a medium flame for 1 minute.
+Add the chilli powder, salt and 2¼ cups of hot water, mix well cover with a lid and cook on a medium flame for 20 to 22 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and lemon juice and mix well.
+Serve the quinoa veg upma immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 150 cal
+Protein 5.3 g
+Carbohydrates 22.8 g
+</t>
+  </si>
+  <si>
+    <t>7468</t>
+  </si>
+  <si>
+    <t>Fenugreek and Mushroom Brown Rice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fenugreek-and-mushroom-brown-rice-7468r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups finely chopped fenugreek (methi) leaves
+1 cup sliced mushrooms (khumbh)
+1 cup brown rice
+2 tsp oil
+2 tsp finely chopped green chillies
+1 tsp finely chopped ginger (adrak)
+1 tbsp finely chopped garlic (lehsun)
+1 cup finely chopped onions
+1/2 cup finely chopped tomatoes
+1/2 cup brinjal (baingan / eggplant) cubes
+1/2 cup surti papdi seeds (fresh vaal seeds)
+1/2 tsp chilli powder
+salt to taste
+2 tbsp finely chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>Heat the oil in a pressure cooker, add the green chillies, ginger, garlic, and onions and sauté on a medium flame for 2 minutes.
+Add the fenugreek leaves, mushrooms, tomatoes, brinjals, surti papadi seeds,and chilli powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the brown rice, 2¼ cups of hot water and salt, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 151 cal
+Protein 3.9 g
+Carbohydrates 27.6 g
+</t>
+  </si>
+  <si>
+    <t>41707</t>
+  </si>
+  <si>
+    <t>honey lemon water recipe | lemon honey water | madh ka paani | Indian honey lemon water |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/honey-lemon-water-for-weight-loss-41707r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 tsp lemon juice
+1 tsp honey , optional
+2 cups warm water
+</t>
+  </si>
+  <si>
+    <t>For honey lemon water
+To make honey lemon water, combine all ingredients in a deep bowl and mix well.
+Pour equal quantities of the drink into 2 individual glasses.
+Serve the honey lemon water immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 16 cal
+Protein 0.1 g
+Carbohydrates 4 g
+</t>
+  </si>
+  <si>
+    <t>38028</t>
+  </si>
+  <si>
+    <t>chana dal and cabbage tikki recipe | healthy cabbage chana dal cutlet | non fried tikki Indian snack | chana dal cabbage tikki for weight and diabetes |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chana-dal-and-cabbage-tikki-38028r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup soaked and drained chana dal (split bengal gram)
+1/2 cup finely chopped cabbage
+1 tbsp roughly chopped green chillies
+2 tbsp finely chopped mint leaves (phudina)
+a pinch of turmeric powder (haldi)
+1 1/2 tsp cumin seeds (jeera) powder
+2 tbsp low fat curds (dahi)
+salt to taste
+1/4 cup besan (bengal gram flour)
+1 3/4 tsp oil for cooking
+</t>
+  </si>
+  <si>
+    <t>For chana dal and cabbage tikki
+To make chana dal and cabbage tikki, combine the chana dal, green chillies and 2 tbsp of water in a mixer and blend to a coarse paste.
+Transfer the paste into a deep bowl, add all the remaining ingredients and mix well.
+Divide the mixture into 6 equal portions and keep aside.
+Heat a non-stick tava (griddle) and grease it using ¼ tsp of oil.
+Shape a portion of the mixture into a 63 mm (2½ “) flat round tikki and immediately cook it on the tava (griddle) on a slow flame, using ¼ tsp oil, till it turns golden brown in colour from both the sides.
+Repeat the step 5 to make 5 more tikkis.
+Serve the chana dal and cabbage tikki immediately.
+Handy tip:
+Make the mixture for the tikkis just before cooking them and shape them one by one and directly cook them on a tava (griddle) and also do not shape the tikkis in advance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 104 cal
+Protein 5.2 g
+Carbohydrates 14.6 g
+</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>Usal ( Healthy Subzi)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/usal--healthy-subzi-6420r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup mixed sprouts (moong , chana , matki etc.)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/2 cup chopped onions
+1 cup chopped tomatoes
+3 tbsp readymade dry garlic chutney
+1/2 tsp turmeric powder (haldi)
+salt to taste
+1/4 cup finely chopped onions
+2 tbsp finely chopped coriander (dhania)
+lemon wedges
+</t>
+  </si>
+  <si>
+    <t>Heat the oil in a pressure cooker and add the cumin seeds and asafoetida.
+When the cumin seeds crackle, add the onions and sauté on a medium flame for 1 minute.
+Add the tomatoes and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the dry garlic chutney, mix well and cook on a medium flame for 1 minute, while stirring once in between.
+Add the mixed sprouts, turmeric powder, salt and 1½ cups of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Garnish with onions and coriander and serve hot with lemon wedges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 98 cal
+Protein 3.2 g
+Carbohydrates 10.4 g
+</t>
+  </si>
+  <si>
+    <t>39749</t>
+  </si>
+  <si>
+    <t>jowar upma recipe | vegetable jowar upma | homemade jowar rava upma | jowar atta upma |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-upma-39749r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup jowar (white millet) flour
+2 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+1/4 tsp asafoetida (hing)
+5 to 6 curry leaves (kadi patta)
+1/2 cup finely chopped onions
+1/2 cup semolina (rava / sooji)
+1/2 cup boiled green peas
+2 tsp green chilli paste
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+1 1/2 tbsp lemon juice
+</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick pan, add the mustard seeds and urad dal.
+When the mustard seeds crackle, add the asafoetida and curry leaves and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 1 minute.
+Add the semolina and sauté on a medium flame for another 2 minutes.
+Add the jowar flour and sauté on a medium flame for 2 more minutes.
+Add the green peas, green chilli paste, coriander and salt and mix well.
+Add 3 cups of hot water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring continuously.
+Add the lemon juice and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 206 cal
+Protein 6.3 g
+Carbohydrates 37.8 g
+</t>
+  </si>
+  <si>
+    <t>22308</t>
+  </si>
+  <si>
+    <t>poha nachni handvo recipe | nachni handvo | snacks for hypertension | Indian snack for high blood pressure |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/poha-nachni-handvo-22308r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup thick beaten rice (jada poha) , washed and drained
+1/2 cup ragi (nachni / red millet) flour
+1/2 cup curd (dahi)
+1/2 cup grated bottle gourd (doodhi / lauki)
+1/2 cup grated carrot
+1/4 cup boiled green peas
+2 tsp ginger-green chilli paste
+1 tsp sugar
+1/8 tsp turmeric powder (haldi)
+1/8 tsp chilli powder
+1/4 tsp salt
+1 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+2 tsp sesame seeds (til)
+1/8 tsp asafoetida (hing)
+1 tsp oil for greasing
+</t>
+  </si>
+  <si>
+    <t>60 mins</t>
+  </si>
+  <si>
+    <t>Combine the curds and 1½ cups of water in a deep bowl and whisk well.
+Add the poha, mix well and keep aside for 20 minutes.
+Add the bottle gourd, carrot, green peas, ginger-green chilli paste, sugar, turmeric powder, chilli powder and salt and mix well. Keep aside.
+Heat the oil in a small non-stick pan, add the mustard seeds, sesame seeds and asafoetida and sauté on a medium flame for 30 seconds.
+Add this tempering to the poha- curd-vegetable mixture and mix well.
+Add the nachni flour and mix well.
+Divide the batter into 6 equal portions.
+Heat a 100 mm. (4”) diameter non-stick pan and grease it with ¼ tsp of oil. Pour a portion of the batter on it and spread it evenly, cover with a lid and cook on a medium flame for 10 to 12 minutes or till both the sides turn golden brown in colour.
+Repeat step 8 to make 5 more handvos.
+Cut each handvo into 4 equal portions and serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 125 cal
+Protein 2.9 g
+Carbohydrates 20.1 g
+</t>
+  </si>
+  <si>
+    <t>42385</t>
+  </si>
+  <si>
+    <t>dal rasam recipe | tur dal rasam | paruppu rasam | South Indian toovar dal rasam |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/dal-rasam-south-indian-toovar-dal-rasam-42385r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup toovar (arhar) dal , washed and drained
+1/2 tsp turmeric powder (haldi)
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+2 whole dry kashmiri red chillies , broken into pieces
+10 curry leaves (kadi patta)
+1/4 tsp asafoetida (hing)
+1/4 cup chopped tomatoes
+1/2 cup tamarind (imli) water
+salt to taste
+2 tbsp finely chopped coriander (dhania)
+3 whole dry kashmiri red chillies , broken into pieces
+1/4 tsp fenugreek (methi) seeds
+1/2 tsp black peppercorns (kalimirch)
+1 tsp cumin seeds (jeera)
+2 tsp coriander (dhania) seeds
+10 curry leaves (kadi patta)
+steamed rice (chawal)
+</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>For the rasam powder
+Heat a small non-stick pan and dry roast all the ingredients on a medium flame for 2 minutes.
+Transfer the mixture into a plate and cool completely.
+Once cooled blend in a mixer till smooth. Keep aside.
+How to proceed
+Combine the toovar dal, turmeric powder and 1½ cups of water in a pressure cooker and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Whisk the dal well. Keep aside.
+Heat the oil in a deep non-stick pan, add the mustard seeds and urad dal and sauté on a medium flame for 1 minute.
+Add the kashmiri dry red chillies, curry leaves and asafoetida and sauté on a medium flame for a few seconds.
+Add the tomatoes and prepared rasam powder and sauté on a medium flame for 1 minute.
+Add the cooked whisked dal, tamarind water, salt and 2 cups of water, mix well and cook on a medium flame for 6 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and mix well.
+Serve hot with steamed rice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 115 cal
+Protein 5.2 g
+Carbohydrates 17.5 g
+</t>
+  </si>
+  <si>
+    <t>33249</t>
+  </si>
+  <si>
+    <t>masoor dal with spinach recipe | protein rich dal | dal palak |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masoor-dal-with-spinach-protein-rich-recipes-33249r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup masoor (split red lentil) dal
+1 cup chopped spinach (palak)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/2cup finely chopped onion
+1/2 tsp turmeric powder (haldi)
+2 tsp dried mango powder (amchur)
+1/2 cup finely chopped tomatoes
+salt to taste
+3/4 tsp chilli powder
+1 tbsp roughly chopped garlic (lehsun)
+1 tsp roughly ginger (adrak)
+1 tbsp roughly chopped green chillies
+</t>
+  </si>
+  <si>
+    <t>For masoor dal with spinach
+To make masoor dal with spinach, pour 1½ cups of water in a pressure cooker, add the masoor dal, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a kadhai, add the cumin seeds, mix well and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 2 to 3 minutes.
+Add the cooked masoor dal, spinach, turmeric powder, dry mango powder, prepared garlic- ginger-green chilli paste, tomatoes and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add 1 cup of water and chilli powder, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve masoor dal with spinach hot with rotis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 186 cal
+Protein 10.2 g
+Carbohydrates 24 g
+</t>
+  </si>
+  <si>
+    <t>7440</t>
+  </si>
+  <si>
+    <t>oats and vegetable broth recipe | vegetable oats soup | Indian vegetable soup with oats | healthy oats soup |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-and-vegetable-broth-7440r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup quick cooking rolled oats
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped capsicum
+2 tbsp finely chopped cauliflower
+2 tbsp finely chopped carrot
+2 tbsp finely chopped cabbage
+2 tsp oil
+1/4 cup finely chopped onions
+2 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped green chillies
+salt and to taste
+2 tbsp finely chopped coriander (dhania)
+1/4 cup finely chopped parsley
+2 tsp lemon juice
+</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>For oats and vegetable broth
+To make oats and vegetable broth, heat the oil in a deep non-stick pan, add the onions, garlic and green chillies and sauté on a medium flame for 1 minute.
+Add all the vegetables and sauté on a medium flame for another 2 minutes.
+Add the oats and sauté on a medium flame for 1 more minute.
+Add 3 cups of hot water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander and parsley, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the lemon juice and mix well.
+Serve the oats and vegetable broth immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 90 cal
+Protein 2.4 g
+Carbohydrates 12.7 g
+</t>
+  </si>
+  <si>
+    <t>41017</t>
+  </si>
+  <si>
+    <t>spinach dosa recipe | palak dosa | keerai dosai | spinach dosa for pregnancy and kids |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spinach-dosa-41017r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup spinach (palak) puree , refer handy tip
+1/4 cup urad dal (split black lentils)
+1/2 tsp fenugreek (methi) seeds
+1 cup whole wheat flour (gehun ka atta)
+salt to taste
+2 tsp oil for cooking
+sambhar
+coconut chutney
+</t>
+  </si>
+  <si>
+    <t>Combine the urad dal and fenugreek seeds along with enough water in a deep bowl and soak for 2 hours. Drain well.
+Blend in a mixer using ½ cup of water till smooth.
+Transfer the urad dal-fenugreek seeds mixture into a deep bowl, add the spinach purée, whole wheat flour, salt and approx. 1 cup of water and mix very well.
+Heat a non-stick tava (griddle), sprinkle a little water on it and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the dosa turns light brown in colour from both the sides.
+Repeat steps 4 to 6 to make 7 more dosas.
+Serve immediately with sambhar and coconut chutney.
+Handy tip:
+Approx. 2½ cups of chopped spinach when blanched, drained and blended in a mixer gives ½ cup of spinach purée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 94 cal
+Protein 3.9 g
+Carbohydrates 16.2 g
+</t>
+  </si>
+  <si>
+    <t>38991</t>
+  </si>
+  <si>
+    <t>Moong Dal and Spinach Idli</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-and-spinach-idli-38991r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup yellow moong dal (split yellow gram) , soaked for 3 hours and drained
+3/4 cup blanched and roughly chopped spinach
+3 green chillies , roughly chopped
+1 tbsp fresh low-fat curds
+salt to taste
+1/2 tsp fruit salt
+1/4 tsp oil for greasing
+sambhar
+healthy coconut chutney
+</t>
+  </si>
+  <si>
+    <t>Combine the yellow moong dal , spinach and green chillies and blend in a mixer to a smooth paste without using any water.
+Transfer the mixture into a bowl, add the curds and salt and mix well.
+Just before steaming, add the fruit salt to the batter and pour 2 tsp water over it.
+When the bubbles form, mix gently.
+Grease the idli moulds using oil, put spoonfuls of the batter into idli moulds and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
+Cool slightly, demould and serve immediately with sambhar and healthy coconut chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 26 cal
+Protein 1.8 g
+Carbohydrates 4.2 g
+</t>
+  </si>
+  <si>
+    <t>38986</t>
+  </si>
+  <si>
+    <t>Zucchini and Carrot Pancake</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/zucchini-and-carrot-pancake-38986r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 cup thickly grated zucchini
+1/4 cup thickly grated carrot
+1/2 cup rice flour (chawal ka atta)
+1/4 cup besan (bengal gram flour)
+2 tbsp finely chopped coriander (dhania)
+1 tsp finely chopped green chillies
+salt to taste
+2 tsp oil for greasing and cooking
+</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with approx. ½ cup of water in a deep bowl and mix well to make a batter of pouring consistency.
+Grease a non-stick tava (griddle) using ½ tsp of oil, pour one ladleful of the batter on it and spread it to form 75 mm. (3”) diameter thick circle.
+Cook it, using ¼ tsp of oil, till it turns crisp and golden brown in colour from both sides.
+Repeat with the remaining batter to make 5 more pancakes.
+Serve immediately.
+Handy tip :
+The quantity of water may vary depending on the quality of besan and semolina used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 86 cal
+Protein 2.3 g
+Carbohydrates 14.1 g
+</t>
+  </si>
+  <si>
+    <t>22144</t>
+  </si>
+  <si>
+    <t>Brinjal Rice ( Zero Oil Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brinjal-rice---zero-oil-recipe--22144r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cloves (laung / lavang)
+50 mm (2") piece cinnamon (dalchini)
+1 tsp coriander (dhania) seeds
+1 tsp cumin seeds (jeera)
+1 tsp caraway seeds (shahjeera)
+2 tbsp sesame seeds (til)
+1/2 tsp fenugreek (methi) seeds
+2 slit green chillies
+5 to 6 curry leaves (kadi patta)
+1/4 tsp asafoetida (hing)
+1 1/2 cups sliced brinjals (baingan / eggplant)
+1 1/4 cups brown rice , soaked for 10 minutes and drained
+1/2 tsp mustard seeds ( rai / sarson)
+1/2 tsp cumin seeds (jeera)
+2 cardamoms (elaichi)
+12 of cinnamon (dalchini)
+2 cloves (laung / lavang)
+1/2 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+salt to taste
+2 tbsp chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>16 mins</t>
+  </si>
+  <si>
+    <t>For the powder
+Heat a broad non-stick pan, add all the ingredients and dry roast on a medium flame for 1 minute. Keep aside and allow it to cool completely.
+Transfer the mixture to the mixer and blend it to a smooth powder. Keep aside.
+How to proceed
+Combine all the ingredients and the prepared powder alongwith 2½ cups of hot water in a pressure cooker and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 236 cal
+Protein 5.6 g
+Carbohydrates 44.6 g
+</t>
+  </si>
+  <si>
+    <t>3503</t>
+  </si>
+  <si>
+    <t>Carrot Methi Subzi ( Delicious Diabetic Recipe)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-methi-subzi--delicious-diabetic-recipe-3503r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups carrot cubes
+2 cups finely chopped fenugreek (methi) leaves
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+3/4 cup finely chopped onions
+1 tsp finely chopped green chillies
+1 tsp finely chopped garlic (lehsun)
+1/4 tsp turmeric powder (haldi)
+2 tsp coriander (dhania) powder
+salt to taste
+parathas
+rotis
+</t>
+  </si>
+  <si>
+    <t>For carrot methi subzi
+To make carrot methi subzi, heat the oil in a non-stick kadhai and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 minute.
+Add the green chillies and garlic, mix well and sauté on a medium flame for 30 seconds.
+Add the fenugreek leaves, turmeric powder,coriander powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the carrots, salt and 1 cup of water, mix well and cover and cook for 7 to 8 minutes, while stirring occasionally.
+Serve the carrot methi subzi hot with whole wheat parathas or rotis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 55 cal
+Protein 1.2 g
+Carbohydrates 6.6 g
+</t>
+  </si>
+  <si>
+    <t>7437</t>
+  </si>
+  <si>
+    <t>oats roasted capsicum soup recipe | roasted bell pepper soup | Indian style red capsicum soup | healthy red capsicum soup |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-and-roasted-capsicum-soup-7437r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 tbsp roasted quick cooking rolled oats
+2 medium red capsicum
+2 cups roughly chopped tomatoes
+2 bayleaves (tejpatta)
+1 garlic (lehsun) clove
+1 tsp dry red chilli flakes (paprika)
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>18 mins</t>
+  </si>
+  <si>
+    <t>For oats and roasted capsicum soup
+To make oats and roasted capsicum soup, pierce each red capsicum with a fork and roast them over an open flame till they turn black.
+Cool, wash them and remove the skin, stem and seeds and chop them. Keep aside.
+Combine the tomatoes, bayleaves and garlic along with 2½ cups of water in a deep non-stick kadhai and cook on a medium flame for 10 minutes, while stirring occasionally or till the tomatoes turn soft. Discard the bayleaves.
+Remove from the flame and allow it to cool completely. Once cooled, combine the capsicum and tomatoes and blend in a mixer till smooth.
+Transfer the mixture into a deep non-stick pan, add the chilli flakes, salt and ½ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the roasted oats, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve the oats and roasted capsicum soup immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 61 cal
+Protein 2.9 g
+Carbohydrates 10.7 g
+</t>
+  </si>
+  <si>
+    <t>22219</t>
+  </si>
+  <si>
+    <t>cauliflower and bajra roti recipe | bajra gobi paratha | healthy veg paratha with spring onions |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-and-bajra-roti-bajra-gobi-paratha-22219r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup bajra (black millet) flour
+3/4 cup grated cauliflower
+1 1/2 tbsp finely chopped spring onions whites
+1 1/2 tbsp finely chopped spring onion greens
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp ginger-green chilli paste
+1/2 tsp grated garlic (lehsun)
+salt to taste
+bajra (black millet) flour for rolling
+1 3/4 tsp oil for greasing and cooking
+</t>
+  </si>
+  <si>
+    <t>For cauliflower and bajra roti
+To make cauliflower and bajra roti, combine all the ingredients and knead into a soft-smooth dough, using enough water.
+Divide the dough into 6 equal portions.
+Roll out one portion of the dough into a circle of 100 mm. (4") diameter.
+Heat a non-stick tava (griddle) using 1/4 tsp of oil.
+Place the roti on it and cook it, using 1/4 tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more parathas.
+Serve the cauliflower and bajra roti immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 46 cal
+Protein 1.2 g
+Carbohydrates 6 g
+</t>
+  </si>
+  <si>
+    <t>42771</t>
+  </si>
+  <si>
+    <t>toor dal fry recipe | restaurant style toor dal fry | toor dal fry with rice | toor dal tadka |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/dal-fry-with-toor-dal-42771r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 cup toovar (arhar) dal , washed and drained
+1/4 cup masoor (split red lentil) dal , washed , soaked for 2 hours and drained
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tbsp ghee
+1/2 tsp mustard seeds ( rai / sarson)
+1/2 tsp nigella seeds (kalonji)
+1/2 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1 tsp grated ginger (adrak)
+1 tsp grated garlic (lehsun)
+2 green chillies , finely chopped
+1 whole dry kashmiri red chilli
+6 curry leaves (kadi patta)
+1/2 cup finely chopped tomatoes
+1/2 tsp red chilli powder
+2 pinches asafoetida (hing)
+1 tsp dried fenugreek leaves (kasuri methi)
+1/4 to 1/2 tsp garam masala
+salt to taste
+2 tbsp finely chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>Dal fry with toor dal
+To make dal fry with toor dal, combine the dals, 2½ cups of water, turmeric powder, and salt in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid and keep aside.
+Heat the ghee in a deep non-stick kadhai, add the mustard seeds, nigella seeds, cumin seeds and onions. Mix well and saute for 2-3 minutes.
+Add the grated ginger, garlic and green chilles and aute for 1-2 minutes.
+Add the kashmiri red chilli, curry leaves and and sauté on a medium flame for 2-3 minutes.
+Add the tomatoes and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add chiili powder and a pinch of hing. Mx well and cook for about 1 minute.
+Add the cooked dal mixture and ¼ cup of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the garam masala, mix well and cook for 1-2 minutes.
+Serve the dal fry with toor dal immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 207 cal
+Protein 9.7 g
+Carbohydrates 26 g
+</t>
+  </si>
+  <si>
+    <t>40709</t>
+  </si>
+  <si>
+    <t>mini oats bhakri pizza recipe | healthy oats pizza | oats flour pizza no eggs | Indian style bhakri pizza |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mini-oats-bhakri-pizza-40709r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 large tomatoes
+1 tsp olive oil
+1 tsp finely chopped garlic (lehsun)
+1/2 cup finely chopped onions
+1/2 tsp dried oregano
+1 tsp dry red chilli flakes (paprika)
+1/2 tbsp tomato ketchup
+1 tsp chilli powder
+salt to taste
+3/4 cup whole wheat flour (gehun ka atta)
+1/2 cup quick cooking rolled oats
+1 tsp oil
+salt to taste
+3/4 cup finely chopped coloured capsicum
+1/2 cup blanched small broccoli florets
+1/2 tsp dried oregano
+1/2 tsp dry red chilli flakes (paprika)
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For the pizza sauce
+Make criss-cross on the base of the tomatoes and place them in boiling water for 2 to 3 minutes or till the skin begins to peel.
+Drain the tomatoes, cool slightly, peel, deseed and roughly chop them and blend in a mixer to a smooth pulp. Keep aside.
+Heat the olive oil in a broad non-stick pan, add the garlic and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the prepared tomato pulp, oregano, chilli flakes, tomato ketchup, chilli powder and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally. Keep aside.
+For the bhakri
+Combine all the ingredients in a deep bowl and knead into a stiff dough using enough water.
+Divide the dough into 8 equal portions.
+Roll a portion of the dough into a 87 mm. (3½”) diameter circle.
+Heat a non-stick tava (griddle) and cook the bhakri on a slow flame till pink spots appear on both the sides.
+Continue cooking the bhakri on a slow flame, while pressing with a folded muslin cloth or a khakhra press, till it turns crisp and brown from both the sides. Keep aside.
+How to proceed
+Divide the vegetable topping into 8 equal portions. Keep aside.
+Just before serving, place a bhakri on a clean, dry surface, spread approx. 1½ tbsp of pizza sauce evenly over it and spread a portion of the topping evenly over it.
+Repeat step 2 to make 7 more bhakri pizzas.
+Bake in a pre-heated oven at 200ºc (400ºf) for 15 minutes.
+Serve the mini oats bhakri pizza immediately.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 92 cal
+Protein 3.3 g
+Carbohydrates 16 g
+</t>
+  </si>
+  <si>
+    <t>7442</t>
+  </si>
+  <si>
+    <t>cabbage carrot and lettuce salad recipe | simple and easy cabbage lettuce salad | healthy cabbage carrot salad for weight loss | Indian cabbage carrot salad benefits |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-carrot-and-lettuce-salad-7442r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup shredded cabbage
+1 cup coarsely grated carrot
+1/2 cup shredded lettuce
+1/2 cup orange segments
+1/4 cup chopped coriander (dhania)
+1/2 tsp black salt (sanchal)
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For cabbage, carrot and lettuce salad
+To make cabbage, carrot and lettuce salad, combine all the ingredients together in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 29 cal
+Protein 1 g
+Carbohydrates 6 g
+</t>
+  </si>
+  <si>
+    <t>42412</t>
+  </si>
+  <si>
+    <t>masala makhana recipe | spicy masala makhana | healthy makhana |masala phool makhana | roasted makhana in 10 minutes</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-makhana-recipe-healthy-lotus-seed-snack-42412r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cups lotus seeds (makhana)
+1 tbsp oil
+1/2 tsp chilli powder
+1/2 tsp cumin seeds (jeera) powder
+1 tsp chaat masala
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For masala makhana
+To make masala makhana, heat a deep non-stick pan, add the makhanas and dry roast them on a medium flame for 4 to 5 minutes.
+Transfer the makhanas in the deep bowl and keep aside.
+Put the oil in the same pan, add red chilli powder, cumin seeds powder, chaat masala and salt and mix well.
+Switch on the flame, add the roasted makhanas, mix well and sauté it on a medium flame for 2 to 3 minutes.
+Serve the masala makhana immediately or cool it completely and store it in an airtight container. Use as required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 128 cal
+Protein 3.8 g
+Carbohydrates 16.1 g
+</t>
+  </si>
+  <si>
+    <t>5596</t>
+  </si>
+  <si>
+    <t>date walnut balls recipe | khajur akhrot balls | 3 ingredient vegan date nut balls | sugar free date nut balls |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/date-and-walnut-balls-5596r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup finely chopped black seedless dates
+2 tbsp finely chopped walnuts (akhrot)
+1/4 tsp cardamom (elaichi) powder
+</t>
+  </si>
+  <si>
+    <t>For date and walnut balls
+To make date and walnut balls, combine all the ingredients in a deep bowl and mix well till the mixture binds well like a dough.
+Divide the mixture into 8 portions and shape each portion into a round ball.
+Serve the date and walnut balls immediately or store refrigerated in an air-tight container and serve it within 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 42 cal
+Protein 0.7 g
+Carbohydrates 4.2 g
+</t>
+  </si>
+  <si>
+    <t>38987</t>
+  </si>
+  <si>
+    <t>oats upma | oats upma with vegetables |healthy Indian oats upma | quick oats upma |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-upma---breakfast-recipes-38987r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups quick cooking rolled oats
+3 tsp olive oil or oil
+1 tsp turmeric powder (haldi)
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+5 to 6 curry leaves (kadi patta)
+1 whole dry kashmiri red chilli , broken into pieces
+2 green chillies , slit
+1/2 cup finely chopped onions
+1/4 cup finely chopped carrot
+1/4 cup green peas
+1 tsp sugar , optional
+salt to taste
+2 tbsp finely chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>For oats upma
+To make oats upma, heat 1 tsp of olive oil in a non-stick pan, add the oats and ½ tsp of turmeric powder and sauté on a medium flame for 3 to 4 minutes or till it turns light brown in colour, stirring occasionally. Keep aside.
+Heat the remaining 2 tsp of olive oil in a broad non-stick pan and add the mustard seeds.
+When the seeds crackle, add the urad dal, curry leaves, red chillies and green chillies and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 1 minute or till the onions turn translucent.
+Add the carrots and green peas and sauté on a medium flame for 2 minutes.
+Add the oats mixture, sugar, salt and remaining ½ tsp of turmeric powder, mix well and cook on a medium flame for 1 minute, stirring continuously.
+Add 1½ cups of hot water, cover and cook on a slow flame for 2 minutes, stirring occasionally.
+Serve the oats upma immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 207 cal
+Protein 7.4 g
+Carbohydrates 30.6 g
+</t>
+  </si>
+  <si>
+    <t>22446</t>
+  </si>
+  <si>
+    <t>chawli masoor dal recipe | amaranth leaves dal with lentil | Indian chaulai dal |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-chawli-masoor-dal-indian-chaulai-dal-22446r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup chopped green chawli (amaranth) leaves
+1/2 cup masoor (split red lentil) dal , washed and drained
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tsp ghee
+1 tsp cumin seeds (jeera)
+1 tsp lemon juice
+1 tbsp coriander (dhania) seeds
+1/2 tbsp cumin seeds (jeera)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+2 whole dry kashmiri red chillies , broken into pieces
+</t>
+  </si>
+  <si>
+    <t>For chawli masoor dal
+To make healthy chawli masoor dal, combine the masoor dal, turmeric powder, salt and 1½ cups of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the ghee in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add the chawli leaves, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the cooked masoor dal, prepared paste, a little salt and 3/4 cup of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Switch off the flame, add the lemon juice and mix well.
+Serve the healthy chawli masoor dal hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 125 cal
+Protein 6.9 g
+Carbohydrates 16.2 g
+</t>
+  </si>
+  <si>
+    <t>4665</t>
+  </si>
+  <si>
+    <t>Rice and Moong Dal Idli</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rice-and-moong-dal-idli-4665r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup rice (chawal)
+1/2 cup green moong dal (split green gram)
+1/4 cup urad dal (split black lentils)
+1/4 tsp fenugreek (methi) seeds
+salt to taste
+sambhar
+chutney
+</t>
+  </si>
+  <si>
+    <t>For rice and moong dal idli
+To make rice and moong dal idli, soak the rice and green moong dal in a deep bowl with enough water for 2 hours.
+Soak the urad dal and fenugreek seeds in a deep bowl with enough water for 2 hours.
+Drain the rice and green moong dal mixture and blend in a mixer using approx. ½ cup of water till smooth.
+Drain the urad dal-fenugreek seeds in a mixer using approx. 5 tbsp of water till smooth.
+Transfer both the mixtures into a deep bowl, add the salt and mix very well.
+Cover with a lid and keep aside to ferment for 8 hours. Once fermented mix it very well.
+Put a little batter into each greased idli mould and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
+Cool the rice and moong dal idli slightly, demould and serve immediately with sambhar and chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 52 cal
+Protein 2.8 g
+Carbohydrates 9.9 g
+</t>
+  </si>
+  <si>
+    <t>32997</t>
+  </si>
+  <si>
+    <t>paneer tamatar paratha recipe | healthy tomato paneer paratha | stuffed tomato paratha |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-tamatar-paratha-32997r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1/2 cups whole wheat flour (gehun ka atta)
+salt to taste
+1 1/2 tsp oil for kneading and cooking
+whole wheat flour (gehun ka atta) for rolling
+1/2 cup crumbled low fat paneer (cottage cheese)
+3/4 cup deseeded and chopped tomatoes
+1/4 cup chopped yellow capsicum
+1 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For the chapatis
+Combine all the ingredients in a deep bowl and knead into a semi-soft dough using enough water.
+Cover the dough with a lid and keep aside for 15 minutes.
+Knead again using ¼ tsp oil till smooth.
+How to proceed
+To make paneer tamatar paratha, divide the stuffing into 10 equal portions and keep aside.
+Divide the dough into 10 equal portions.
+Roll a portion of the dough into a 150 mm. (6”) diameter circle using a little wheat flour for rolling. Spread a portion of the stuffing on half of the circle and fold it over to make a semi-circle.
+Heat a non-stick tava (griddle) and cook the paratha, using ¼ tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 3 and 4 to make 9 more parathas.
+Serve the paneer tamatar paratha immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 80 cal
+Protein 2.8 g
+Carbohydrates 15.1 g
+</t>
+  </si>
+  <si>
+    <t>22575</t>
+  </si>
+  <si>
+    <t>tahini dip recipe | Indian style tahini sauce | how to make tahini | tahini yoghurt dip |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tahini-dip-lebanese-tahini-sauce-22575r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup thick fresh curd (dahi) , whisked
+2 tbsp sesame seeds (til)
+2 tsp lemon juice
+2 tbsp olive oil
+1 tsp roughly chopped garlic (lehsun)
+salt to taste
+pita bread
+lavash
+</t>
+  </si>
+  <si>
+    <t>For the tahini paste
+Roast the sesame seeds in a non-stick tava (griddle) on a medium flame for a few seconds.
+Allow it to cool completely, transfer to a bowl and add the olive oil, lemon juice, garlic and salt.
+Blend to a coarse paste. Keep aside.
+How to proceed to make tahini dip
+To make tahini dip, combine the curds and the prepared tahini paste in a bowl and mix well using a whisk.
+Serve the tahini dip chilled with pita bread or lavash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 46 cal
+Protein 0.9 g
+Carbohydrates 1.4 g
+</t>
+  </si>
+  <si>
+    <t>39024</t>
+  </si>
+  <si>
+    <t>healthy strawberry honey milkshake recipe | strawberry milkshake with almond milk | healthy fresh strawberry milkshake |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-strawberry-milkshake-indian-strawberry-milkshake-with-almond-milk-39024r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup chopped strawberries
+2 cups chilled almond milk
+1 tsp honey
+1/4 cup finely chopped strawberries
+</t>
+  </si>
+  <si>
+    <t>For healthy strawberry milkshake
+To make healthy strawberry milkshake, combine all the ingredients in a mixer and blend it till smooth.
+Pour equal quantities of the milkshake into 3 individual glasses.
+Garnish the healthy strawberry milkshake with strawberries and serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 54 cal
+Protein 1.2 g
+Carbohydrates 8 g
+</t>
+  </si>
+  <si>
+    <t>31058</t>
+  </si>
+  <si>
+    <t>sprouts pancake recipe | sprouts chilla | sprouts and vegetables chilla | healthy Indian pancakes |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-pancakes-31058r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup sprouted moong (whole green gram)
+2 tbsp grated carrot
+1/4 cup finely chopped spinach (palak)
+1/4 cup finely chopped fenugreek (methi)
+2 tbsp besan (bengal gram flour)
+1/2 tsp turmeric powder (haldi)
+1/4 tsp cumin seeds (jeera)
+1 1/2 tsp ginger-green chilli paste
+salt to taste
+2 1/4 tsp oil
+</t>
+  </si>
+  <si>
+    <t>For sprouts pancakes
+To make sprouts pancakes, combine the moong sprouts and ½ cup of water and blend in a mixer to a smooth paste.
+Transfer the paste into a bowl and add the carrots, spinach fenugreek, besan, turmeric powder, cumin seeds, ginger-green chilli paste, salt and 1 tsp oil and mix well till no lumps remain.
+Add 2 tbsp of water and mix well.
+Heat a non-stick tava (griddle) and grease it using ¼ tsp of oil.
+Pour a ladleful of batter and spread it evenly to make a 150 mm (6”) diameter circle and cook using ¼ tsp of oil, till it is golden brown in colour from both the sides.
+Repeat with the remaining batter to make 3 more pancakes.
+Serve the sprouts pancakes hot with green chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 110 cal
+Protein 5.6 g
+Carbohydrates 14.2 g
+</t>
+  </si>
+  <si>
+    <t>32849</t>
+  </si>
+  <si>
+    <t>Cabbage Foogath</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-foogath-32849r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 cup shredded cabbage
+1 1/2 tbsp coconut oil or any other refined oil
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+4 to 5 curry leaves (kadi patta)
+2 green chillies , slit
+1/2 cup boiled green peas
+1 tsp grated ginger (adrak)
+salt to taste
+1/4 cup freshly grated coconut
+</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>For cabbage foogath
+To make cabbage foogath, heat the oil in a kadhai or a deep non-stick pan and add the mustard seeds.
+When the seeds crackle, add the urad dal, curry leaves and green chillies and sauté on a medium flame for a few seconds, while stirring continuously.
+Add the cabbage, green peas, ginger and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring once or twice in between.
+Add the coconut, mix gently and cook on a slow flame, while stirring continuously for another 1 to 2 minutes.
+Serve the cabbage foogathhot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 129 cal
+Protein 2.4 g
+Carbohydrates 5.8 g
+</t>
+  </si>
+  <si>
+    <t>35090</t>
+  </si>
+  <si>
+    <t>nachni sesame khakhra recipe | nachni til khakhra | homemade ragi khakhra | healthy tasty nachni khakhra |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nachni-sesame-khakhra--iron-and-calcium-rich-recipe--35090r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup ragi (nachni / red millet) flour
+1/2 cup whole wheat flour (gehun ka atta)
+2 tbsp roasted sesame seeds (til)
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+salt to taste
+2 1/4 tsp oil for kneading and cooking
+whole wheat flour (gehun ka atta) for rolling
+</t>
+  </si>
+  <si>
+    <t>Combine all ingredients in a bowl and knead into a firm dough, using enough warm water. Keep aside for 10 minutes.
+Knead again using ¼ tsp of oil and divide it into 8 equal portions.
+Roll out each portion into a 150 mm. (6”) diameter thin circle, using a little wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook each khakhra on a slow flame using ¼ tsp of oil till pink spots appear on both the sides.
+Continue cooking the khakhra on a slow flame, while pressing with a folded muslin cloth till it turns crisp and brown on both the sides.
+Serve immediately or store in an air-tight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 84 cal
+Protein 2.1 g
+Carbohydrates 13 g
+</t>
+  </si>
+  <si>
+    <t>7457</t>
+  </si>
+  <si>
+    <t>nutritious thalipeeth recipe | healthy multigrain thalipeeth | jowar bajra thalipeeth | thalipeeth for diabetes |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nutritious-thalipeeth-7457r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 tbsp bajra (black millet) flour
+3 tbsp jowar (white millet) flour
+3 tbsp whole wheat flour (gehun ka atta)
+3 tbsp besan (bengal gram flour)
+3/4 cup shredded cabbage
+1/4 cup chopped onions
+1/2 tsp finely chopped green chillies
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+2 tbsp chopped coriander (dhania)
+salt to taste
+1 1/2 tsp oil for greasing and cooking
+</t>
+  </si>
+  <si>
+    <t>For nutritious thalipeeth
+To nutritious thalipeeth, combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 6 equal portions and keep aside.
+Heat a non-stick tava (griddle) and grease it lightly using one eight tsp of oil.
+Wet your fingers, place a portion of the dough on a hot tava (griddle) and pat it with the help of fingers to make a 100 mm (4”) diameter circle.
+Cook on both the sides, using one eight tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more nutritious thalipeeth.
+Serve the nutritious thalipeeth immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 88 cal
+Protein 3.2 g
+Carbohydrates 14.1 g
+</t>
+  </si>
+  <si>
+    <t>39015</t>
+  </si>
+  <si>
+    <t>carrot melon orange juice recipe | detox cantaloupe carrot orange juice | immunity boosting cantaloupe carrot juice | kharbuja gajar santre ka juice |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-melon-orange-juice-kharbuja-gajar-santre-ka-juice-39015r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 1/2 cups chilled and roughly chopped muskmelon (kharbooja)
+1 cup chilled and roughly chopped orange
+1 cup chilled carrot juliennes
+1 tsp lemon juice
+1 tsp sugar , optional
+8 ice-cubes
+</t>
+  </si>
+  <si>
+    <t>For carrot melon orange juice
+To make carrot melon orange juice, add the muskmelon, orange and carrots a few at a time in a hopper.
+Add the lemon juice and sugar to the juice and mix well.
+Pour equal quantities of the juice into 4 individual glasses.
+Serve the carrot melon orange juice, immediately topped with 2 ice-cubes in each glass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 49 cal
+Protein 0.8 g
+Carbohydrates 10.6 g
+</t>
+  </si>
+  <si>
+    <t>36411</t>
+  </si>
+  <si>
+    <t>healthy moong chaat recipe | moong sprouts chaat | sprouted moong chaat | sprouts chaat for weight loss |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-moong-chaat-36411r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup sprouted moong (whole green gram)
+1 tsp oil
+1/4 tsp mustard seeds ( rai / sarson)
+1/4 tsp cumin seeds (jeera)
+a few curry leaves (kadi patta)
+1/4 cup finely chopped onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1/2 tsp chilli powder
+a pinch of turmeric powder (haldi)
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1/4 cup chopped tomatoes
+salt to taste
+4 tbsp fresh whisked curds (dahi)
+salt to taste
+2 tbsp finely chopped onions
+2 tbsp chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+2 pinches chilli powder
+</t>
+  </si>
+  <si>
+    <t>For healthy moong chaat
+To make healthy moong chaat , heat the oil in a broad non-stick pan and add the mustard seeds and cumin seeds.
+When the seeds crackle, add the curry leaves and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the ginger-garlic paste, chilli powder, turmeric powder, coriander-cumin seeds powder, tomatoes, sprouted moong, ¼ cup of water and salt, mix well and cook on a medium flame for 4 to 5 minutes or till the moong is partially cooked, while stirring occasionally.
+Remove from the flame and allow it to cool slightly. Divide the sprouted mixture into two equal portions.
+Place one portion of the sprouted moong mixture in a bowl, pour 2 tbsp of fresh curds and sprinkle a little salt, 1 tbsp of onions, 1 tbsp of tomatoes, 1 tbsp of coriander and a pinch of chilli powder over it.
+Repeat step 5 to make 1 more serving.
+Serve the healthy moong chaat immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 140 cal
+Protein 7.9 g
+Carbohydrates 20.4 g
+</t>
+  </si>
+  <si>
+    <t>5695</t>
+  </si>
+  <si>
+    <t>jowar methi roti recipe | jowar methi paratha healthy breakfast | masala methi jowar roti | jowar methi roti for weight loss</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-methi-roti-healthy-jowar-methi-paratha-5695r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup jowar (white millet) flour
+1 cup finely chopped fenugreek (methi) leaves
+1/2 cup finely chopped onions
+1/4 cup finely chopped coriander (dhania)
+1 tsp chopped green chillies
+1 tbsp black sesame seeds (kala til)
+salt to taste
+jowar (white millet) flour for rolling
+1 1/2 tsp oil for cooking
+</t>
+  </si>
+  <si>
+    <t>For jowar methi roti
+To make jowar methi roti recipe, combine all the ingredients in a bowl and knead into a soft dough using enough warm water. Cover with a lid and keep aside for 10 minutes.
+Divide the dough into 6 equal portions and roll out each portion into a 125 mm. (5") diameter circle using a little jowar flour for rolling. You may feel this rolling is little difficult but with time and practice you will surely get it.
+Heat a non-stick tava (griddle) and cook each roti, using ¼ tsp of oil, till it turns golden brown in colour from both the sides.
+Serve the jowar methi roti recipe immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 87 cal
+Protein 2.4 g
+Carbohydrates 13.8 g
+</t>
+  </si>
+  <si>
+    <t>38475</t>
+  </si>
+  <si>
+    <t>oats idli recipe | instant oats idli | healthy oats idli for diabetics | how to make oats idli |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-idli-38475r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup quick-cooking rolled oats
+1/4 cup urad dal (split black lentils)
+2 tbsp curd (dahi)
+1 tsp ginger-green chilli paste
+salt to taste
+1 tsp fruit salt
+1/2 tsp oil for greasing
+sambhar
+</t>
+  </si>
+  <si>
+    <t>For oats idli
+To make oats idli, combine the oats and urad dal and blend in a mixer to a smooth powder.
+Add 1 cups of water, curd, ginger- green chilli paste and salt and mix well to make a batter of pouring consistency.
+Cover and keep aside to rest for 1 hour.
+Mix the batter well, add the fruit salt and 2 tsp of water and mix it gently.
+Grease the idli moulds using oil and put spoonfuls of batter into them.
+Steam in an idli steamer for 10 to 12 minutes or till they are cooked.
+Demould the oats idlis and serve idli immediately with sambhar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 30 cal
+Protein 1.6 g
+Carbohydrates 5 g
+</t>
+  </si>
+  <si>
+    <t>22453</t>
+  </si>
+  <si>
+    <t>palak urad dal sabzi recipe | urad dal with spinach | healthy urad dal palak sukha sabzi |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/urad-dal-and-palak-sabzi-22453r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup urad dal (split black lentils) , soaked for 1 hour and drained
+1 cup finely chopped spinach (palak)
+salt to taste
+1/4 tsp turmeric powder (haldi)
+1 tbsp oil
+1/2 tsp caraway seeds (shahjeera)
+1/2 cup finely chopped onions
+1/2 cup finely chopped tomatoes
+2 tsp finely chopped green chillies
+1/2 tsp chilli powder
+2 tsp lemon juice
+</t>
+  </si>
+  <si>
+    <t>For urad dal and palak sabzi
+To make urad dal and palak sabzi, combine the urad dal with approx. 1 cup of water, salt and turmeric powder in a deep non-stick kadhai, mix well and cook on a medium flame for 10 to 12 minutes, till the dal is cooked and soft. Keep aside.
+Heat the oil in a broad non-stick pan, add the caraway seeds and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 1 minute.
+Add the tomatoes, green chillies and chilli powder, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the spinach and 1 tbsp of water, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the cooked urad dal and lemon juice, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve the urad dal and palak sabzi hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 289 cal
+Protein 14.1 g
+Carbohydrates 38.5 g
+</t>
+  </si>
+  <si>
+    <t>42718</t>
+  </si>
+  <si>
+    <t>Mysore Barley Dosa</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mysore-barley-dosa-42718r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup barley (jau)
+1/2 cup urad dal (split black lentils)
+1/2 tbsp fenugreek (methi) seeds
+salt to taste
+1 tbsp oil
+2 tbsp chana dal (split bengal gram)
+1/2 tbsp urad dal (split black lentils)
+3 to 4 whole dry kashmiri red chillies , broken into pieces
+1 tsp chilli powder
+2 tsp tamarind (imli) pulp
+1/2 tsp black peppercorns (kalimirch)
+1 tsp chopped jaggery (gur)
+1/3 cup freshly grated coconut
+salt to taste
+6 tsp ghee for cooking
+</t>
+  </si>
+  <si>
+    <t>52 mins</t>
+  </si>
+  <si>
+    <t>For the mysore chutney
+Heat the oil in a broad pan, add the chana dal and urad dal and sauté on a medium flame for a few seconds or till they turn golden brown in colour.
+Add the red chillies and sauté on a medium flame for 2 minutes.
+Add the chilli powder, tamarind pulp, peppercorns, jaggery and coconut, mix well and sauté on a medium flame for a minute. Keep aside.
+When cool, add the salt and blend in a mixer to a smooth paste, adding water as required.
+How to proceed to make the mysore barley dosa
+To make mysore barely dosa, wash and soak the barley, urad dal and fenugreek seeds in enough water in a deep bowl for at least 6 hours.
+Drain and blend in a mixer till smooth using approx. 1¼ cup of water.
+Transfer the mixture into a deep bowl, cover it with a lid and allow it to ferment in a warm place for at least 10 to 12 hours.
+Add the salt and mix well.
+Heat a non-stick tava (griddle) and sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 225 mm. (9”) diameter circle.
+Smear ½ tsp of ghee and 1 tbsp of the mysore chutney evenly over the dosa using a spatula over it and cook on a medium flame till the dosa turns golden brown in colour and crisp.
+Fold over to make a semi-circle or roll.
+Repeat with the remaining batter to make 11 more mysore barely dosa.
+Serve the mysore barely dosa immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 129 cal
+Protein 4.2 g
+Carbohydrates 16.2 g
+</t>
+  </si>
+  <si>
+    <t>22212</t>
+  </si>
+  <si>
+    <t>moong dal suva sabzi recipe | zero oil sabzi | moong dal tomato shepu sabzi</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-and-suva-sabzi-22212r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1/2 cups chopped dill leaves
+1/2 cup yellow moong dal (split yellow gram) , soaked for 1 hour and drained
+1 tsp cumin seeds (jeera)
+1 tsp finely chopped green chillies
+2 tsp finely chopped garlic (lehsun)
+1/4 tsp turmeric powder (haldi)
+1/4 tsp chilli powder
+salt to taste
+1/2 cup chopped tomatoes
+</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>For moong dal and suva sabzi
+To make moong dal and suva sabzi, heat a broad non-stick pan on a medium flame and when hot, add the cumin seeds and dry roast on a medium flame for a few seconds.
+Add the green chillies and garlic and dry roast on a medium flame for 30 seconds.
+Add the moong dal and sauté on a medium flame for 1 minute.
+Add the turmeric powder, chilli powder, salt and 1 cup of water and mix well. Cover it with a lid and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the dill leaves and mix well. Cover with the lid and cook on a medium flame for another 5 minutes, while stirring occasionally.
+Add the tomatoes and ½ cup of water, mix well and cook on a medium flame for 2 more minutes, while stirring occasionally.
+Serve the moong dal and suva sabzi immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 73 cal
+Protein 5.1 g
+Carbohydrates 12.5 g
+</t>
+  </si>
+  <si>
+    <t>38989</t>
+  </si>
+  <si>
+    <t>nachni pancake recipe | ragi pancake | healthy nachni uttapam | quick healthy snack |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nachni-pancake-ragi-pancake-healthy-nachni-uttapam-38989r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup ragi (nachni / red millet) flour
+1 tbsp semolina (rava / sooji)
+1 tbsp besan (bengal gram flour)
+1/4 cup finely chopped onions
+2 tbsp finely chopped coriander (dhania)
+1 1/2 tsp finely chopped green chillies
+salt to taste
+1/4 tsp fruit salt
+2 1/2 tsp oil for greasing and cooking
+healthy coconut chutney
+</t>
+  </si>
+  <si>
+    <t>For nachni pancake
+To make nachni pancake, combine all the ingredients, except the fruit salt, along with 3/4th cup of water in a deep bowl and mix well.
+Just before making the pancakes, sprinkle the fruit salt and 2 tsp of water over the batter.
+When the bubbles form, mix gently.
+Grease a non-stick mini uttapa pan with ½ tsp of oil.
+Pour 2 tbsp of the batter in each uttapa mould and spread it lightly.
+Cook, using 1 tsp of oil, till they turn brown in colour from both sides.
+Repeat steps 4 and 5 to make more mini pancakes.
+Serve the nachni pancakes immediately with healthy coconut chutney.
+Variation: nachni dosa
+At step no 1 add approx. ½ cup of extra water and proceed to make dosas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 38 cal
+Protein 0.9 g
+Carbohydrates 6.2 g
+</t>
+  </si>
+  <si>
+    <t>40748</t>
+  </si>
+  <si>
+    <t>Zucchini, Bell Pepper and Sprouted Moong Salad</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/zucchini-bell-pepper-and-sprouted-moong-salad-40748r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup finely chopped zucchini (unpeeled)
+1/4 cup finely chopped red capsicum
+1/4 cup finely chopped yellow capsicum
+1/4 cup finely chopped green capsicum
+2 cups parboiled sprouted moong (whole green gram)
+3/4 cup chopped apple (unpeeled and deseeded)
+1 tbsp olive oil
+2 tsp lemon juice
+salt and to taste
+</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and toss well. Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 161 cal
+Protein 8 g
+Carbohydrates 22.6 g
+</t>
+  </si>
+  <si>
+    <t>1694</t>
+  </si>
+  <si>
+    <t>ragi dosa recipe | nachni dosa | finger millet dosa | healthy ragi dosa |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nachni-dosa-1694r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups ragi (nachni / red millet) flour
+1/2 cup urad dal (split black lentils)
+1 tsp fenugreek (methi) seeds
+salt to taste
+oil for cooking
+sambhar
+coconut chutney
+mysore chutney
+</t>
+  </si>
+  <si>
+    <t>For nachni dosa
+Combine the urad dal, fenugreek seeds and enough water in a deep bowl, cover with a lid and keep aside to soak for 2 hours.
+Drain well and blend in a mixer to a smooth paste using approx. ¾ cup of water.
+Transfer the mixture into a deep bowl, add the ragi flour, salt and approx. 1¼ cups of water, mix very well using a whisk. Cover with a lid and keep aside to ferment in a warm place for 12 hours.
+Once fermented, mix very well again.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 225 mm. (9”) diameter thin circle.
+Smear a little oil over it and along the edges and cook on a high flame till the dosa turns brown in colour and crisp form both the sides.
+Fold over to make a semi-circle or a roll.
+Repeat with the remaining batter to make 14 more nachni dosas.
+Serve the nachni dosa immediately with sambhar, coconut chutney and mysore chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 133 cal
+Protein 3.2 g
+Carbohydrates 18.1 g
+</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>methi khakhra recipe | whole wheat methi khakhra | Gujarati methi khakhra | fenugreek flat bread |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/whole-wheat-methi-khakhra-822r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups whole wheat flour (gehun ka atta)
+3/4 cup chopped fenugreek (methi) leaves
+1 tbsp sesame seeds (til)
+1/4 tsp turmeric powder (haldi)
+1/4 tsp chilli powder
+salt to taste
+2 tsp oil
+whole wheat flour (gehun ka atta) for rolling
+</t>
+  </si>
+  <si>
+    <t>45 mins</t>
+  </si>
+  <si>
+    <t>For whole wheat methi khakhra
+To make whole wheat methi khakhra, combine all the ingredientsin a deep bowl and knead into a semi-seft dough using enough water.
+Divide the dough into 16 equal portions.
+Roll out a portion of the dough into a 175 mm. (7") diameter thin circle, using a little whole wheat flour for rolling.
+Heat a concave non-stick tava (griddle) and cook the khakhra on a slow flame till pink spots appear on both the sides.
+Continue cooking the whole wheat methi khakhra on a slow flame, while pressing with a whole wheat methi khakhra press or a folded muslin cloth, till it turns crisp and golden brown spots appear on both the sides.
+Cool and serve or store the whole wheat methi khakhras in an air-tight container.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 65 cal
+Protein 2.1 g
+Carbohydrates 12 g
+</t>
+  </si>
+  <si>
+    <t>4631</t>
+  </si>
+  <si>
+    <t>masoor dal and paneer soup recipe | masoor dal soup for weight loss | healthy dal paneer soup |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masoor-dal-and-paneer-soup-4631r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup masoor (split red lentil) dal , washed and drained
+1/4 cup low fat paneer (cottage cheese) cubes
+2 tsp oil
+1/2 cup sliced onions
+1/2 tsp crushed garlic (lehsun)
+1/4 tsp chilli powder
+3/4 cup chopped tomatoes
+salt to taste
+2 tsp lemon juice
+</t>
+  </si>
+  <si>
+    <t>For masoor dal and paneer soup
+To make masoor dal and paneer soup, heat 1 tsp of oil in a pressure cooker, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the garlic and chilli powder and sauté on a medium flame for a few seconds.
+Add the masoor dal, tomatoes and 2½ cups of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Cool slightly and blend in a mixer to a smooth purée.
+Transfer the purée into a deep non-stick pan, add the salt and mix well.
+Bring to a boil and simmer for 2 minutes.
+Meanwhile, heat the remaining 1 tsp of oil in a small broad pan.
+Add the paneer cubes and saute on a medium flame for 1 minute.
+Add the sauteed paneer cubes and lemon juice to the soup and mix gently.
+Serve the masoor dal and paneer soup immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 89 cal
+Protein 4.9 g
+Carbohydrates 11.1 g
+</t>
+  </si>
+  <si>
+    <t>41565</t>
+  </si>
+  <si>
+    <t>Matki Sabzi</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/matki-sabzi-41565r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cups boiled sprouted matki (moath beans)
+2 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1 1/2 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+2 tsp coriander (dhania) powder
+salt to taste
+1 tsp sugar
+2 tbsp finely chopped coriander (dhania)
+1 tsp lemon juice
+phulkas
+</t>
+  </si>
+  <si>
+    <t>For matki sabzi
+To make matki sabzi, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for few seconds.
+Add the matki, chilli powder, turmeric powder, coriander powder, salt and sugar, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander and mix well.
+Switch off the flame, add the lemon juice and mix well.
+Serve the matki sabzi hot with phulkas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 205 cal
+Protein 12.6 g
+Carbohydrates 31.7 g
+</t>
+  </si>
+  <si>
+    <t>39646</t>
+  </si>
+  <si>
+    <t>bajra whole moong and green pea khichdi recipe | whole moong bajra and green pea khichdi | healthy green pea bajra and whole moong khichdi |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-whole-moong-and-green-pea-khichdi-39646r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup bajra (black millet) , soaked for 5 hours and drained
+1/4 cup moong (whole green gram)
+1/2 cup green peas
+2 tsp oil
+1 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+1/2 cup finely chopped onions
+1 cup chopped tomatoes
+1 tsp garlic (lehsun) paste
+1/2 tsp ginger (adrak) paste
+1/2 tsp green chilli paste
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>27 mins</t>
+  </si>
+  <si>
+    <t>For bajra, whole moong and green pea khichdi
+To make bajra whole moong and green pea khichdi, soak the bajra and moong separately in enough watwer in a deep bowl for 5 hours and drain well.
+Combine the bajra, moong, green peas, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 5 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add and the asafoetida onions and sauté on a medium flame for 1 minute.
+Add the tomatoes, garlic paste, ginger paste, green chilli paste, turmeric powder, chilli powder and salt, mix well and cook on a medium flame for 2 to 3 minutes, mash using a potato masher, white stirring occasionally.
+Add the cooked bajra-moong dal- green pea mixture and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the bajra whole moong and green pea khichdi hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 142 cal
+Protein 6.6 g
+Carbohydrates 21.4 g
+</t>
+  </si>
+  <si>
+    <t>35092</t>
+  </si>
+  <si>
+    <t>aliv paratha recipe | halim vegetable paratha | healthy garden cress paneer paratha |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aliv-paratha-halim-vegetable-paratha-35092r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup whole wheat flour (gehun ka atta)
+1 1/2 tbsp garden cress seeds powder , refer handy tip
+salt to taste
+1 tsp oil
+1/2 cup finely chopped red capsicum
+1/2 cup finely chopped yellow capsicum
+1/2 cup finely chopped carrot
+1/2 cup finely chopped spring onions whites
+1/4 cup finely chopped coriander (dhania)
+1/2 cup crumbled low fat paneer (cottage cheese)
+1 tsp chilli powder
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+2 1/2 tsp oil for cooking
+</t>
+  </si>
+  <si>
+    <t>For the dough
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough water. Keep aside.
+For the stuffing
+Heat the oil in a broad non-stick pan, add the mixed vegetables and sauté on a high flame for 2 minutes.
+Add the coriander, paneer, chilli powder and salt and mix well.
+Cool slightly and divide the stuffing into 10 equal portions. Keep aside.
+How to proceed
+Divide the dough into 10 equal portions.
+Roll a portion of the dough into a 125 mm. (5”) diameter thin circle using wheat flour for rolling.
+Put ¼ cup of the stuffing on one half of the roti and fold to make a semi-circle.
+Seal the edges so the stuffing does not spill out.
+Heat a non-stick tava (griddle) and cook the paratha, using ¼ tsp oil, till it turns golden brown in colour from both the sides.
+Repeat steps 2 to 5 to make 9 more parathas.
+Serve immediately.
+Handy tip:
+Blend 1 tbsp of garden cress seeds in a mixer to get 1½ tbsp of garden cress seeds powder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 96 cal
+Protein 3.3 g
+Carbohydrates 12 g
+</t>
+  </si>
+  <si>
+    <t>5613</t>
+  </si>
+  <si>
+    <t>Avocado Salad ( Recipe for Shiny Hair)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-salad--recipe-for-shiny-hair-5613r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup roughly chopped avocado
+1/2 cup sliced capsicum
+1/2 cup tomato strips , deseeded
+1 cup sliced and blanched baby corn
+1/2 cup cucumber strips
+2 tsp honey
+3/4 tbsp lemon juice
+2 tsp finely chopped mint leaves (phudina)
+salt and freshly ground black pepper (kalimirch) to taste
+</t>
+  </si>
+  <si>
+    <t>For avocado salad
+Combine the all the ingredients in a deep bowl and mix well.
+Add the dressing and toss well.
+Serve the avocado salad immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 95 cal
+Protein 1.6 g
+Carbohydrates 13.3 g
+</t>
+  </si>
+  <si>
+    <t>3546</t>
+  </si>
+  <si>
+    <t>high fibre chillas | healthy chillas | buckwheat and oats Indian pancake | no fermentation chilla |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/high-fibre-chillas-buckwheat-oats-indian-pancake-3546r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup buckwheat (kuttu or kutti no daro)
+1/4 cup low fat curds (dahi)
+1/4 cup quick cooking rolled oats
+1 1/2 tsp ginger-green chilli paste
+1/2 cup grated carrot
+1/2 cup chopped spring onions whites and greens
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+1 tsp peanut oil for greasing
+1 tsp peanut oil for cooking
+low calorie green chutney
+</t>
+  </si>
+  <si>
+    <t>For high fibre chillas
+To make high fibre chillascombine the buckwheat, curds and ½ cup of water in a deep bowl and mix well. Cover with a lid and keep aside for 2 hours.
+Blend the mixture to a smooth paste using no water.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and ¼ cup of water and mix well.
+Grease a non-stick tava (griddle) with ¼ tsp of oil and pour a ladleful of the batter and spread it evenly to make a 125 mm. (5”) diameter thin circle and cook on a medium flame using ¼ tsp of oil till both the sides are golden brown in colour.
+Repeat with the remaining batter to make 3 more high fibre chillas.
+Serve the high fibre chillas immediately with low calorie green chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 109 cal
+Protein 3.3 g
+Carbohydrates 16.6 g
+</t>
+  </si>
+  <si>
+    <t>40159</t>
+  </si>
+  <si>
+    <t>4 flour dosa recipe | mixed flour dosa | jowar bajra ragi and whole wheat flour dosa | healthy four flour dosa |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/4-flour-dosa-mixed-flour-dosa-40159r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup urad dal (split black lentils)
+1 tsp fenugreek (methi) seeds
+1/2 cup bajra (black millet) flour
+1/2 cup jowar (white millet) flour
+1/2 cup ragi (nachni / red millet) flour
+1/2 cup whole wheat flour (gehun ka atta)
+salt to taste
+3 tsp oil for cooking
+sambhar
+</t>
+  </si>
+  <si>
+    <t>For 4 flour dosa
+To make 4 flour dosa, combine the urad dal and fenugreek seeds in a deep bowl and soak it for 2 hours in enough water.
+Drain well and blend in a mixer till smooth using approx. ¾ cup of water.
+Transfer the mixture into a deep bowl, add the bajra flour, jowar flour, nachni flour, whole wheat flour, salt and approx. 1¾ cups of water and mix very well using a whisk. Cover with a lid and keep aside to ferment overnight.
+Next day, mix very well again.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 200 mm. (8”) diameter thin circle.
+Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the 4 flour dosa turns brown in colour and crisp from both the sides.
+Fold the 4 flour dosa over to make a semi-circle or a roll.
+Repeat with the remaining batter to make 11 more 4 flour dosas.
+Serve the 4 flour dosa immediately with sambhar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 108 cal
+Protein 4.1 g
+Carbohydrates 19.1 g
+</t>
+  </si>
+  <si>
+    <t>6232</t>
+  </si>
+  <si>
+    <t>Melon Magic, Muskmelon and Orange Juice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/melon-magic-muskmelon-and-orange-juice-6232r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups muskmelon (kharbooja) cubes (deseeded)
+8 big orange segments (deseeded)
+1/2 tsp black salt (sanchal)
+crushed ice for serving
+2 cups muskmelon (kharbooja) cubes
+8 big orange segments (deseeded)
+1/2 tsp black salt (sanchal)
+crushed ice for serving
+</t>
+  </si>
+  <si>
+    <t>Hopper method
+Add the muskmelon cubes and orange segments a few at a time in the hopper.
+Add the black salt and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.
+Juicer method
+Combine the muskmelon cubes and orange segments and blend in a juicer till smooth.
+Strain the juice using a strainer.
+Add the black salt and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 97 cal
+Protein 1.6 g
+Carbohydrates 21 g
+</t>
+  </si>
+  <si>
+    <t>42325</t>
+  </si>
+  <si>
+    <t>Cauliflower Greens, Methi and Palak Healthy Subzi</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-greens-methi-and-palak-healthy-subzi-42325r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup finely chopped cauliflower greens
+1/2 cup finely chopped fenugreek (methi) leaves
+1/2 cup finely chopped spinach (palak)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup finely chopped tomatoes
+1/2 tsp chilli powder
+1/2 tsp coriander (dhania) powder
+1/4 tsp turmeric powder (haldi)
+1/2 tsp garam masala
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add the onions and ginger-garlic paste and sauté on a medium flame for 2 minutes.
+Add the tomatoes, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the chilli powder, coriander powder, turmeric powder, garam masala, salt and 2 tbsp of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the greens and ½ cup of water, mix well, cover with a lid and cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 57 cal
+Protein 1.4 g
+Carbohydrates 4.6 g
+</t>
+  </si>
+  <si>
+    <t>40994</t>
+  </si>
+  <si>
+    <t>multi flour idli recipe | healthy multigrain idli | millet flour idli | Indian multigrain idli batter |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/multi-flour-idli-healthy-multi-grain-idli-40994r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup urad dal (split black lentils)
+1 tsp fenugreek (methi) seeds
+1/2 cup bajra (black millet) flour
+1/2 cup jowar (white millet) flour
+1/2 cup ragi (nachni / red millet) flour
+1/2 cup whole wheat flour (gehun ka atta)
+salt to taste
+1 tsp fruit salt
+sambhar
+</t>
+  </si>
+  <si>
+    <t>35 mins</t>
+  </si>
+  <si>
+    <t>For multi flour idli
+To make multi flour idli, combine the urad dal and fenugreek seeds in a deep bowl and soak it in enough water for 2 hours.
+Drain well and blend in a mixer till smooth using approx. ¾ cup of water.
+Transfer the mixture into a deep bowl, add the bajra flour, jowar flour, ragi flour, whole wheat flour, salt and approx. 1¾ cups of water and mix very well using a whisk. Cover with a lid and keep aside to ferment overnight.
+After fermentation, mix the batter well once again.
+Just before steaming, add fruit salt and 1 tbsp of water and mix gently.
+Pour spoonfuls of the batter into greased idli moulds.
+Steam in an idli steamer for 10 minutes or till they are cooked.
+Repeat with the remaining batter to make more idlis.
+Serve the multi flour idli immediately with sambhar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 33 cal
+Protein 1.4 g
+Carbohydrates 6.6 g
+</t>
+  </si>
+  <si>
+    <t>42634</t>
+  </si>
+  <si>
+    <t>Suva Palak Methi Subzi</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/suva-palak-methi-subzi-42634r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 cup chopped dill leaves
+2 cups chopped spinach (palak)
+1 cup finely chopped fenugreek (methi) leaves
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1/4 cup chana dal (split bengal gram)
+1/2 tsp ginger (adrak) paste
+1 tsp garlic (lehsun) paste
+1/2 tsp green chilli paste
+1/2 cup finely chopped tomatoes
+1/4 tsp turmeric powder (haldi)
+1/2 tsp coriander (dhania) powder
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>Combine the chana dal with enough hot water and soak for 2 hours. Drain and keep aside.
+Heat the oil in a deep non-stick pan, add the cumin seeds, mustard seeds and asafoetida and sauté on a medium flame for 30 seconds.
+Add the dill leaves, spinach and fenugreek and mix well. Cover with a lid and cook on a medium flame for 4 minutes, while stirring occasionally.
+Add the chana dal, ginger paste, garlic paste, green chilli paste and ¾ cup of water and mix well. Cover with a lid and cook on a medium flame for 12 minutes, while stirring occasionally.
+Add the tomatoes, turmeric powder, coriander powder and salt, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 115 cal
+Protein 5.2 g
+Carbohydrates 13 g
+</t>
+  </si>
+  <si>
+    <t>32705</t>
+  </si>
+  <si>
+    <t>hare lehsun ki chutney recipe | dhaniya lahsun ki chutney | healthy green garlic chutney |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/hare-lehsun-ki-chutney-32705r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup chopped coriander (dhania)
+1/2 cup chopped fresh green garlic (hara lehsun) , including the greens
+1 tbsp roasted chana dal (daria)
+1 tsp lemon juice
+1 tbsp roughly chopped green chillies
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For hare lehsun ki chutney
+To make hare lehsun ki chutney, combine all the ingredients along with 5 tbsp of water in a mixer and blend till smooth.
+Store the hare lehsun ki chutney in an air-tight container, refrigerate and use as required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 3 cal
+Protein 0.2 g
+Carbohydrates 0.4 g
+</t>
+  </si>
+  <si>
+    <t>3458</t>
+  </si>
+  <si>
+    <t>til masala khakhra recipe | healthy khakhra | spicy sesame wheat khakhra | how to make Gujarati masala khakhra at home |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/til-masala-khakhra-spicy-sesame-wheat-khakhra-3458r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup whole wheat flour (gehun ka atta)
+1 tsp sesame seeds (til)
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+2 tsp oil
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+</t>
+  </si>
+  <si>
+    <t>For til masala khakhra
+To make the til masala khakhra, ombine the whole wheat flour, sesame seeds , turmeric powder, chilli powder, oil and salt in a deep bowl and knead into a soft dough using enough warm water.
+Divide the dough into 6 equal portions.
+Roll out a portion into a 150 mm. (6") diameter thin circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and place a roti on it and cook on both sides for a few seconds and cook on a slow flame until crisp using little pressure with help of a muslin cloth or with a khakhra press.
+Repeat steps 3 to 5 to make 5 more khakhras.
+Allow the til masala khakhra to cool completely, store in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 54 cal
+Protein 1.4 g
+Carbohydrates 7.9 g
+</t>
+  </si>
+  <si>
+    <t>37041</t>
+  </si>
+  <si>
+    <t>sprouts pulao recipe | moong matki pulao | quick and easy sprouts pulao | healthy sprouts pulao |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-pulao--low-cal-37041r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup boiled sprouted matki (moath beans)
+1/2 cup boiled sprouted moong (whole green gram)
+2 cups cooked brown rice
+1 tsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped ginger (adrak)
+a pinch turmeric powder (haldi)
+1/2 tsp chilli powder
+1/4 cup finely chopped tomatoes
+3 tbsp finely chopped capsicum
+1 tsp pav bhaji masala
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>Heat the oil in a non-stick broad pan and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 to 2 minutes, or till the onions turn translucent.
+Add the garlic, ginger, turmeric powder, chilli powder, tomatoes and a little water and cook on a medium flame for another 2 to 3 minutes, while stirring occasionally.
+Add the capsicum, a little more water and cook on a medium flame for another 1 to 2 minutes, while stirring occasionally.
+Add the pav bhaji masala, salt, matki sprouts and moong sprouts, mix well and cook for 2 to 3 minutes, while stirring continuously.
+Add the brown rice, mix well and cook on a medium flame for 2 to 3 minutes, while stirring continuously.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 187 cal
+Protein 6.7 g
+Carbohydrates 34.6 g
+</t>
+  </si>
+  <si>
+    <t>40846</t>
+  </si>
+  <si>
+    <t>red capsicum, carrot and apple juice recipe |  Indian red bell pepper carrot juice | healthy carrot apple juice |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/red-capsicum-carrot-and-apple-juice-40846r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup red capscium cubes
+1 cup peeled carrot cubes
+1 cup apple cubes
+10 to 12 ice-cubes
+</t>
+  </si>
+  <si>
+    <t>Red capsicum, carrot and apple juice in vitamix
+To make red capsicum, carrot and apple juice, combine the red capsicum cubes, carrot cubes, apple cubes, 1 cup of water and ice cubes in a high quality blender jar (like vitamix) and blend well till smooth and frothy.
+Serve immediately.
+Red capsicum, carrot and apple juice in juicer
+Add the red capsicum cubes, carrot cubes and apple cubes a few at a time in the hopper.
+Add 5 to 6 ice-cubes in each of the 2 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve the red capsicum, carrot and apple juice immediately.
+Handy tip:
+This recipe makes use of unpeeled apples, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 32 cal
+Protein 0.6 g
+Carbohydrates 6.8 g
+</t>
+  </si>
+  <si>
+    <t>6419</t>
+  </si>
+  <si>
+    <t>Spinach and Moath Beans Curry ( Healthy Subzis)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spinach-and-moath-beans-curry--healthy-subzis-6419r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cups chopped spinach (palak)
+1 cup sprouted matki (moath beans)
+3/4 cup finely chopped tomatoes
+salt to taste
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp finely chopped garlic (lehsun)
+7 to 8 curry leaves (kadi patta)
+1/2 tsp coriander (dhania) seeds
+1/4 tsp cumin seeds (jeera)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp roughly chopped garlic (lehsun)
+3 whole dry kashmiri red chillies , broken into pieces
+1/4 tsp turmeric powder (haldi)
+1 tbsp freshly grated coconut
+</t>
+  </si>
+  <si>
+    <t>Combine the sprouted matki, spinach, tomatoes, salt and 1½ cups of water in a deep non-stick pan and mix well. Cover with a lid and cook on a medium flame for 10 to 12 minutes or till the matki is tender, while stirring occasionally.
+Add the prepared paste, mix well and cook on a medium flame another 3 to 4 minutes, while stirring occasionally. Keep aside.
+For the tempering, heat the oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the garlic and curry leaves and sauté on a slow flame for a few seconds.
+Pour this tempering over the curry, mix well and cook on a medium flame for 1 minute.
+Serve hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 55 cal
+Protein 1.5 g
+Carbohydrates 3 g
+</t>
+  </si>
+  <si>
+    <t>6406</t>
+  </si>
+  <si>
+    <t>Gavarfali ki Subzi ( Healthy Subzi)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gavarfali-ki-subzi--healthy-subzi-6406r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups cluster beans (gavarfali)
+salt to taste
+1 cup fresh low-fat curds (dahi)
+1 tbsp coriander-cumin seeds (dhania-jeera) powder
+2 tsp chilli powder
+1 tbsp besan (bengal gram flour)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp fennel seeds (saunf)
+1/4 tsp asafoetida (hing)
+5 curry leaves (kadi patta)
+rotis
+</t>
+  </si>
+  <si>
+    <t>Clean the cluster beans by removing the ends and string them and cut them into 25 mm. (1”) pieces.
+Combine the cluster beans, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid and keep aside.
+Combine the curds, coriander-cumin seeds powder, chilli powder, besan and a little salt in a deep bowl and whisk well till no lumps remain.
+Add the cluster beans to the curds mixture, mix well and keep aside.
+Heat the oil in a non-stick kadhai and add the cumin seeds, mustard seeds, fennel seeds and asafoetida.
+When the cumin and mustard seeds crackle, add the curry leaves and sauté on a medium flame for a few seconds.
+Lower the flame, add the cluster bean-curds mixture, mix well and cook for another 3 to 4 minutes, while stirring continuously.
+Serve hot with rotis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 62 cal
+Protein 4.2 g
+Carbohydrates 10.4 g
+</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>Orange, Grapefruit and Mint Salad</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/orange-grapefruit-and-mint-salad-365r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 tbsp readymade orange juice
+1 1/2 cups orange segments
+1 1/2 cups grapefruit segments
+2 tbsp finely chopped mint leaves (phudina)
+1 tbsp sugar
+</t>
+  </si>
+  <si>
+    <t>Combine the orange juice and sugar in a small non-stick pan, mix well and cook on a medium flame for 5 minutes, while stirring occasionally. Keep aside.
+Combine the orange segments, grapefruit segments and mint leaves along with the prepared orange-sugar mixture in a deep bowl, mix well and refrigerate for 1 hour.
+Serve chilled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 105 cal
+Protein 1.5 g
+Carbohydrates 24 g
+</t>
+  </si>
+  <si>
+    <t>22339</t>
+  </si>
+  <si>
+    <t>fresh green garlic pickle recipe | hara lehsun ka achar | pickled fresh garlic | healthy pickle for high blood pressure |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/hara-lehsun-ka-achar-22339r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup finely chopped green garlic (hara lehsun)
+1 tsp chilli powder
+1 tbsp coriander-cumin seeds (dhania-jeera) powder
+1/2 tsp turmeric powder (haldi)
+a pinch of asafoetida (hing)
+2 tsp oil
+1/4 tsp salt
+</t>
+  </si>
+  <si>
+    <t>For hara lehsun ka achar
+To make hara lehsun ka achar, heat the oil till it starts smoking. Remove from the flame and keep aside to cool.
+Mix all the ingredients together in a bowl and keep aside to marinate for atleast 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 7 cal
+Protein 0 g
+Carbohydrates 0 g
+</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>moong soup with paneer recipe | mung bean soup with cottage cheese | paneer moong soup | Indian style moong soup |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-soup-with-paneer-how-to-make-moong-soup-358r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup moong (whole green gram) , soaked and drained
+2 tsp ghee
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1 tsp lemon juice
+1/4 tsp sugar , optional
+salt to taste
+1/4 tsp freshly ground black pepper (kalimirch)
+2 tbsp finely chopped paneer (cottage cheese)
+</t>
+  </si>
+  <si>
+    <t>For moong soup with paneer
+To make moong soup with paneer, combine the moong and 6 cups of water in a pressure cook and pressure cook for 3 to 4 whistles.
+Allow the steam to escape before opening the lid.
+Blend the cooked moong using a hand blender to a smooth mixture. Strain it using a strainer and keep aside.
+Heat the ghee in a deep non-stick pan and add the cumin seeds and asafoetida.
+When the seeds crackle, add the moong mixture, lemon juice, sugar, salt and pepper, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the paneer, mix gently and cook on a medium flame for 2 minutes.
+Serve the moong soup with paneer hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 90 cal
+Protein 5.1 g
+Carbohydrates 11.3 g
+</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>bajra carrot onion uttapa recipe | bajra uttapam | bajra onion uttapam breakfast recipe | healthy bajra uttapam |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-carrot-onion-uttapam-healthy-bajra-onion-uttapam-breakfast-recipe-1439r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup whole bajra (black millet) , soaked for 8 hours and drained
+1 1/4 cups bajra (black millet) flour
+salt to taste
+1/2 cup grated carrot
+1/2 cup finely chopped onions
+1 tsp finely chopped green chillies
+1 tsp garlic (lehsun) paste
+1/4 cup finely chopped coriander (dhania)
+1 1/2 tbsp lemon juice
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1 1/2 tsp oil for greasing and cooking
+healthy green chutney
+</t>
+  </si>
+  <si>
+    <t>For bajra carrot onion uttapa
+To make bajra carrot onion uttapa, combine the whole bajra, ½ cup of water and salt in a pressure cooker, mix well and pressure cook for 5 whistles.
+Allow the steam to escape before opening the lid. Drain the water and keep the cooked whole bajra aside.
+Combine all the ingredients, along with whole bajra and 1½ cups of water, in a deep bowl and mix well.
+Heat a non-stick tava (griddle) and grease it lightly with ¼ tsp of oil.
+Pour ¼ cup of batter over it and tilt the tava (griddle) lightly to spread the batter evenly to form a 125 mm. (5”) diameter circle. Cook on a medium flame, using one-eighth tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat step 5 to make 9 more uttapas.
+Serve the bajra carrot onion uttapa immediately with healthy green chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 73 cal
+Protein 2 g
+Carbohydrates 12.5 g
+</t>
+  </si>
+  <si>
+    <t>42227</t>
+  </si>
+  <si>
+    <t>grilled cauliflower recipe | Indian grilled spiced crispy cauliflower | healthy roasted cauliflower with herbs |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/grilled-cauliflower-roasted-cauliflower-with-herbs-42227r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1/2 cups sliced cauliflower
+1 tsp grated garlic (lehsun)
+2 tsp dry red chilli flakes (paprika)
+1 tsp dried mixed herbs
+2 tbsp olive oil
+salt to taste
+oil for greasing
+</t>
+  </si>
+  <si>
+    <t>For grilled cauliflower
+To make grilled cauliflower, combine the garlic, chilli flakes, mixed herbs, olive oil and salt in a deep bowl and mix well.
+Add the cauliflower and mix well.
+Heat a non-stick griller pan till hot and grease it with little oil. Arrange half of the marinated cauliflower on it and cook on a medium flame for 3 minutes.
+Turn each marinated cooked cauliflower over using a tong and cook the other side as well for 3 minutes.
+Repeat steps 3 and 4 to make 1 more batch.
+Serve the grilled cauliflower immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 154 cal
+Protein 1.8 g
+Carbohydrates 2.9 g
+</t>
+  </si>
+  <si>
+    <t>5582</t>
+  </si>
+  <si>
+    <t>bajra kaddu ki roti recipe | bajra kaddu ka paratha | healthy lehsun bajra bhopla paratha | black millet pumpkin Indian roti |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-kaddu-ki-roti-lehsun-bajra-bhopla-paratha-5582r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 tsp garlic (lehsun) paste
+1/2 cup bajra (black millet) flour
+1 cup grated red pumpkin (bhopla/ kaddu)
+1/2 cup whole wheat flour (gehun ka atta)
+1 tsp ginger-green chilli paste
+a pinch of turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+1 tsp lemon juice
+2 tbsp chopped coriander (dhania)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+1 1/2 tsp oil for cooking
+</t>
+  </si>
+  <si>
+    <t>For bajra kaddu ki roti
+To make bajra kaddu ki roti, combine all the ingredients together, except the oil and make a semi-soft dough without using any water.
+Divide the dough into 6 equal portions and roll out each portion into 125 mm. (5") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook each roti, using ¼ tsp of oil, till both sides are golden brown in colour.
+Serve the bajra kaddu ki roti immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 86 cal
+Protein 2.7 g
+Carbohydrates 14.7 g
+</t>
+  </si>
+  <si>
+    <t>4208</t>
+  </si>
+  <si>
+    <t>karela thepla recipe | bitter gourd roti | healthy Gujarati Karela thepla | Karela masala roti |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/karela-thepla-4208r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup finely chopped bitter gourd (karela) peels
+1 cup whole wheat flour (gehun ka atta)
+1/4 cup bajra (black millet) flour
+1/2 tsp finely chopped garlic (lehsun)
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1 tsp coriander (dhania) powder
+1 tbsp chopped coriander (dhania)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+2 1/2 tsp oil for cooking
+</t>
+  </si>
+  <si>
+    <t>For karela thepla
+To make karela thepla, combine all the ingredients in a deep bowl and knead into a semi-stiff dough using enough water and knead well.
+Divide the dough into 10 equal portions and roll each portion of the dough into a 125 mm. (5") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook them using ¼ tsp of oil, till golden brown spots appear on both the sides.
+Serve the karela thepla immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 65 cal
+Protein 2 g
+Carbohydrates 11.3 g
+</t>
+  </si>
+  <si>
+    <t>22448</t>
+  </si>
+  <si>
+    <t>peanut tikki recipe | groundnut tikkis | healthy peanut veg tikki |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/peanut-tikki-groundnut-tikkis-22448r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup roasted and powdered peanuts
+1/2 cup besan (bengal gram flour)
+1/2 cup chopped spinach (palak)
+5 tbsp whole wheat flour (gehun ka atta)
+1 1/2 tsp finely chopped green chillies
+1 tbsp lemon juice
+salt to taste
+1 tsp warm oil for kneading
+2 1/2 tsp oil for greasing and cooking
+2 tsp green chutney
+</t>
+  </si>
+  <si>
+    <t>For peanut tikki
+To make peanut tikki, combine all the ingredients in a deep bowl, mix well and knead into a soft dough using ¼ cup water.
+Add 1 tsp of warm oil and again knead well.
+Divide the dough into 8 equal portions and shape each portion into 50 mm. (2”) diameter thin round flat tikkis.
+Heat a non-stick tava (griddle) and grease it using ½ tsp of oil. Cook each tikki on it using ¼ tsp of oil till they turn golden brown in colour from both the sides.
+Serve peanut tikki immediately with green chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 128 cal
+Protein 5.1 g
+Carbohydrates 12.1 g
+</t>
+  </si>
+  <si>
+    <t>38985</t>
+  </si>
+  <si>
+    <t>Herbed Paneer Paratha</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/herbed-paneer-paratha-38985r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup finely chopped dill leaves
+1/4 cup finely chopped mint leaves (phudina)
+1/4 cup finely chopped coriander (dhania)
+1/2 cup grated paneer (cottage cheese)
+2 tsp finely chopped green chillies
+salt to taste
+4 semi-cooked whole wheat chapatis
+2 tsp oil for cooking
+fresh curd
+</t>
+  </si>
+  <si>
+    <t>Divide the stuffing into 4 equal portions and keep aside.
+Place one semi-cooked chapati on a clean dry surface, place 1 portion of the stuffing on one half of the chapati and fold it over to make a semi-circle.
+Heat a non-stick tava (griddle) and cook the paratha, using ½ tsp of oil, till it turns golden brown in colour from both sides.
+Repeat with the remaining chapatis and stuffing to make 3 more parathas.
+Serve hot with fresh curds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 161 cal
+Protein 5.4 g
+Carbohydrates 17.5 g
+</t>
+  </si>
+  <si>
+    <t>38448</t>
+  </si>
+  <si>
+    <t>chawli and sprouted moong salad recipe | chawli vegetable salad with sprouts | healthy Indian cow peas salad with sprouts |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chawli-and-sprouted-moong-salad-healthy-chawli-vegetable-salad-38448r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup soaked and boiled chawli (cow pea / lobhia)
+1/4 cup boiled sprouted moong (whole green gram)
+1/4 cup chopped tomatoes
+1/4 cup chopped spring onions whites and greens
+1/4 cup chopped cabbage
+1 tsp lemon juice
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp dried mango powder (amchur)
+1/8 tsp salt
+</t>
+  </si>
+  <si>
+    <t>For chawli and sprouted moong salad
+To make chawli and sprouted moong salad, combine all the ingredients in a deep bowl and mix well.
+Serve the chawli and sprouted moong salad immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 112 cal
+Protein 8.1 g
+Carbohydrates 18.9 g
+</t>
+  </si>
+  <si>
+    <t>41655</t>
+  </si>
+  <si>
+    <t>Brown Rice and Moong Dal Pongal, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brown-rice-and-moong-dal-pongal-low-salt-recipe-41655r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup brown rice
+1/2 cup yellow moong dal (split yellow gram)
+1/2 tsp roasted and crushed cumin seeds (jeera)
+1/2 tsp crushed peppercorns (kalimirch)
+1/8 tsp salt
+2 tsp oil
+1/4 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+4 curry leaves (kadi patta)
+2 whole dry kashmiri red chillies , broken into pieces
+1 tsp finely chopped ginger (adrak)
+</t>
+  </si>
+  <si>
+    <t>Clean, wash the brown rice and moong dal using a strainer and drain well.
+Spread the brown rice on a dry muslin cloth and allow it to completely dry for 30 minutes.
+Heat a deep non-stick pan, add the brown rice and moong dal and dry roast on medium flame for 7 to 8 minutes.
+Combine the rice- moong dal mixture, crushed cumin seeds, peppercorns, 3¼ cups of water and salt, mix well and pressure cook for 5 whistles.
+Allow the steam to escape before opening the lid.
+Mash it well using a spatula. Keep aside.
+Heat the oil in a small non-stick pan and add the cumin seeds.
+When the seeds crackle, add the asafoetida, curry leaves ,dry red chillies and ginger and sauté on medium flame for 1 minute.
+Add this tempering over the cooked pongal and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 168 cal
+Protein 6.3 g
+Carbohydrates 28.1 g
+</t>
+  </si>
+  <si>
+    <t>41594</t>
+  </si>
+  <si>
+    <t>Indian avocado spinach pear smoothie recipe | healthy pear smoothie with avocado and spinach | pear avocado spinach smoothie</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-spinach-pear-smoothie-healthy-smoothie-41594r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup roughly chopped riped avocado
+1 1/2 cups roughly chopped spinach (palak)
+1 cup roughly chopped pears
+1 cup roughly chopped apples
+</t>
+  </si>
+  <si>
+    <t>For avocado spinach pear smoothie
+Combine all the ingredients in a mixer along with 1 cup of chilled water and blend till smooth.
+Pour equal quantities of the smoothie into 3 indivdual glasses and serve the avocado spinach pear smoothie immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 168 cal
+Protein 1.9 g
+Carbohydrates 13.3 g
+</t>
+  </si>
+  <si>
+    <t>41019</t>
+  </si>
+  <si>
+    <t>oats vegetable and brown rice khichdi recipe | oats moong dal khichdi | healthy brown rice khichdi |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-vegetable-and-brown-rice-khichdi-41019r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup quick cooking rolled oats
+3/4 cup brown rice
+2 tbsp yellow moong dal (split yellow gram) , washed and drained
+2 tsp oil
+1/2 cup finely chopped onions
+1 tsp garlic (lehsun) paste
+1/2 tsp ginger (adrak) paste
+1/4 cup chopped french beans
+1/4 cup chopped carrot
+1/4 cup green peas
+1/2 tsp chilli powder
+1/2 tsp garam masala
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>Clean, wash and soak the brown rice in enough water in a deep bowl for 30 minutes. Drain well and keep aside.
+Heat the oil in a pressure cooker, add the onions, garlic paste and ginger paste and sauté on a medium flame for 1 minute.
+Add the french beans, carrot, green peas, chilli powder and garam masala and sauté on a medium flame for 1 minute.
+Add the brown rice, yellow moong dal, oats, coriander and salt, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Add 3 cups of hot water, mix well and pressure cook for 7 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 300 cal
+Protein 9.1 g
+Carbohydrates 53.2 g
+</t>
+  </si>
+  <si>
+    <t>22301</t>
+  </si>
+  <si>
+    <t>mint and onion chutney recipe | pyaz pudina chutney | onion mint chutney for Indian snacks | how to make pudina chutney with onions |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mint-and-onion-chutney-22301r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups chopped mint leaves (phudina)
+1 cup chopped coriander (dhania)
+3/4 cup sliced onions
+1 tbsp lemon juice
+1 tbsp roughly chopped green chillies
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For mint and onion chutney
+To make mint and onion chutney, combine all the ingredients in a mixer and blend to a smooth paste using very little water.
+Store the mint and onion chutney refrigerated in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 6 cal
+Protein 0.3 g
+Carbohydrates 1 g
+</t>
+  </si>
+  <si>
+    <t>22269</t>
+  </si>
+  <si>
+    <t>buckwheat pancakes recipe | gluten free buckwheat pancake | kuttu pancake - diabetic snack |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/buckwheat-pancakes-kuttu-pancake-diabetic-snacks-22269r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup buckwheat (kuttu or kutti no daro) , washed and drained
+1/4 cup sour low fat curds (khatta dahi)
+1 tsp ginger-green chilli paste
+2 tbsp finely chopped coriander (dhania)
+a pinch of turmeric powder (haldi)
+a pinch of asafoetida (hing)
+1/2 cup grated bottle gourd (doodhi / lauki)
+salt to taste
+2 tsp oil for greasing and cooking
+mint and onion chutney
+</t>
+  </si>
+  <si>
+    <t>For buckwheat pancakes
+Combine the buckwheat and curds with 2 tbsp of water in a deep bowl and mix well. Cover with a lid and keep aside to soak for 1 hour.
+Blend the buckwheat-curds mixture to a coarse mixture without using any water.
+Transfer the coarse mixture into a deep bowl, add the ginger-green chilli paste, coriander, turmeric powder, asafoetida, bottle gourd, salt and 1 tbsp of water and mix well. Keep aside.
+Heat a non-stick tava (griddle) and grease it using 1/8 tsp of oil.
+Pour a ladleful of the batter on it and spread in a circular motion to make 100 mm. (4”) diameter thick circle.
+Cook, using 1/8 tsp of oil, till it turns light brown in colour from both the sides.
+Repeat steps 4 to 6 to make 7 more buckwheat pancakes.
+Serve the buckwheat pancakes immediately with mint and onion chutney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 71 cal
+Protein 2.1 g
+Carbohydrates 11.9 g
+</t>
+  </si>
+  <si>
+    <t>35074</t>
+  </si>
+  <si>
+    <t>Khumbh Palak</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/khumbh-palak-35074r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cups sliced mushrooms (khumbh)
+4 cups chopped spinach (palak)
+1 tsp roughly chopped ginger (adrak)
+2 tsp roughly chopped green chillies
+2 tsp roughly chopped garlic (lehsun)
+2 cups roughly chopped tomatoes
+1 tsp roughly chopped ginger (adrak)
+2 tsp roughly chopped green chillies
+2 tsp roughly chopped garlic (lehsun)
+2 tsp oil
+1 big cardamom (elaichi)
+1 cardamom (elaichi)
+1 cup onion paste
+1 tsp garam masala
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For the spinach paste
+Combine all the ingredients along with 1 cup of water in a deep non-stick pan, mix well and cook on a medium flame for 6 minutes.
+Cool slightly and blend in a mixer to a smooth paste. Keep aside.
+How to proceed
+Heat the oil in a deep non-stick kadhai, add big cardamom and cardamom and sauté on a medium flame for 10 seconds.
+Add the onion paste and sauté on a medium flame for 5 minutes.
+Add the prepared tomato paste, mix well and cook on a medium flame for 5 minutes, while stirring occasionally.
+Add the spinach paste, garam masala and salt, mix will and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the mushrooms, mix well and cook on a medium flame for 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 101 cal
+Protein 3.9 g
+Carbohydrates 14.3 g
+</t>
+  </si>
+  <si>
+    <t>36414</t>
+  </si>
+  <si>
+    <t>bean sprouts dill salad recipe | bean sprouts and suva tossed salad | healthy bean sprouts with dill salad | Indian style sprouts dill salad |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bean-sprouts-and-suva-tossed-salad-36414r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups bean sprouts
+1/4 cup finely chopped dill leaves
+1/2 cup chopped tomatoes
+1 tbsp lemon juice
+1/4 cup chopped basil
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For bean sprouts and suva tossed salad
+To make bean sprouts and suva tossed salad, combine all the ingredients in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 21 cal
+Protein 1.5 g
+Carbohydrates 4 g
+</t>
+  </si>
+  <si>
+    <t>7463</t>
+  </si>
+  <si>
+    <t>gavarfali ki sukhi sabzi recipe | gavar ki sabzi | cluster beans Indian vegetable | dry gawar sabzi | healthy gavarfali sabzi |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gavarfali-ki-sukhi-subzi-7463r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups cluster beans (gavarfali) , cut into 25 mm. pieces
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1 tsp garlic (lehsun) paste
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp chilli powder
+</t>
+  </si>
+  <si>
+    <t>For gavarfali ki sukhi subzi
+To make gavarfali ki sukhi sabzi, heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the onions, garlic paste and turmeric powder and sauté on a medium flame for 2 minutes.
+Add the cluster beans, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the coriander-cumin seeds powder, chilli powder and 1 tbsp of water, mix well. Cover with a lid and again cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the gavarfali ki sukhi sabzi hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 52 cal
+Protein 2.5 g
+Carbohydrates 10 g
+</t>
+  </si>
+  <si>
+    <t>39882</t>
+  </si>
+  <si>
+    <t>Papaya, Green Apple and Orange Smoothie</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/papaya-green-apple-and-orange-smoothie-39882r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cups chilled papaya cubes
+2 cups chilled green apple cubes (unpeeled)
+3/4 cup chilled orange segments
+2 tbsp honey
+1/4 cup low-fat curds (dahi)
+1/2 tsp vanilla essence
+1 cup ice-cubes
+</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients and blend in a mixer till smooth and frothy.
+Pour equal quantities of the smoothie into 5 individual glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>39690</t>
+  </si>
+  <si>
+    <t>Cucumber and Mixed Sprouts Subzi</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cucumber-and-mixed-sprouts-subzi-39690r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups chopped cucumber
+1 cup mixed sprouts (moong , chana , matki etc.)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1 tsp coriander-cumin seeds (dhania-jeera) powder
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>Heat the oil in a non-stick kadhai and add the cumin seeds and asafoetida.
+When the seeds crackle, add the mixed sprouts, turmeric powder and 1 cup of water and mix well. Cover with a lid and cook on a medium flame for 10 minutes, while stirring occasionally.
+Add the cucumber, chilli powder, coriander-cumin seeds powder and salt and mix well. Cover with a lid and cook on a slow flame for another 4 to 5 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 286 cal
+Protein 11.4 g
+Carbohydrates 34.1 g
+</t>
+  </si>
+  <si>
+    <t>4685</t>
+  </si>
+  <si>
+    <t>Muskmelon, Apple and Green Grapes Juice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/muskmelon-apple-and-green-grapes-juice-4685r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup muskmelon cubes
+1 cup apple cubes
+3/4 cup green grapes
+</t>
+  </si>
+  <si>
+    <t>Juicer method
+Add the muskmelon cubes, apple cubes and green grapes a few at a time in the juicer.
+Pour equal quantities of the juice into 2 individual glasses.
+Serve the muskmelon, apple and green grapes juice immediately.
+Mixer method
+This combination does not turn out well in a mixer because the texture of the ingredients are hard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 84 cal
+Protein 0.6 g
+Carbohydrates 19.1 g
+</t>
+  </si>
+  <si>
+    <t>4629</t>
+  </si>
+  <si>
+    <t>dal and paneer soup recipe | palak paneer soup | healthy moong dal and paneer soup |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spinach-paneer-and-dal-soup-4629r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups finely chopped spinach (palak)
+3/4 cup low fat paneer (cottage cheese) cubes
+1/2 cup yellow moong dal (split yellow gram) , washed and drained
+3/4 cup finely chopped onions
+2 tsp low fat butter
+salt and to taste
+</t>
+  </si>
+  <si>
+    <t>For spinach, paneer and dal soup
+To make spinach, paneer and dal soup, combine the yellow moong dal, spinach, onions and 6 cups of water in a deep non-stick pan, mix well and cook on a medium flame for 4 to 5 minutes or till moong dal turns soft.
+Allow it to cool completely and blend the spinach mixture (along with the water) in a mixer to a smooth purée.
+Transfer the purée into a deep non-stick pan, add the butter, salt, pepper and paneer, mix well and bring to a boil.
+Serve the spinach, paneer and dal soup hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 72 cal
+Protein 4.4 g
+Carbohydrates 11 g
+</t>
+  </si>
+  <si>
+    <t>36832</t>
+  </si>
+  <si>
+    <t>Cucumber Cooler , Muskmelon and Cucumber Juice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cucumber-cooler--muskmelon-and-cucumber-juice-36832r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups muskmelon (kharbooja) cubes (deseeded)
+1 cup cucumber cubes (unpeeled)
+1/2 tsp lemon juice
+2 tbsp finely chopped mint leaves (phudina)
+salt to taste
+crushed ice for serving
+2 cups muskmelon (kharbooja) cubes
+1 cup cucumber cubes (unpeeled)
+1/2 tsp lemon juice
+2 tbsp finely chopped mint leaves (phudina)
+salt to taste
+crushed ice for serving
+</t>
+  </si>
+  <si>
+    <t>Hopper method
+Add the muskmelon cubes and cucumber cubes a few at a time in the hopper.
+Add the lemon juice, mint leaves and salt and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.
+Juicer method
+Combine the muskmelon cubes and cucumber cubes along with ¼ cup of water and blend in a juicer till smooth.
+Strain the juice using a strainer.
+Add the lemon juice, mint leaves and salt and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 74 cal
+Protein 1.8 g
+Carbohydrates 14.6 g
+</t>
+  </si>
+  <si>
+    <t>6213</t>
+  </si>
+  <si>
+    <t>Apple Magic, Lemony Apple Juice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-magic-lemony-apple-juice-6213r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cups apple cubes
+2 tsp lemon juice
+crushed ice for serving , optional
+</t>
+  </si>
+  <si>
+    <t>Juicer method
+Add the apple cubes a few at a time in the juicer.
+Add the lemon juice and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve the lemony apple juice immediately.
+Mixer method
+This recipe doesn’t turn out good in a mixer because the texture of ingredients like apple is very hard.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 108 cal
+Protein 0.4 g
+Carbohydrates 24.4 g
+</t>
+  </si>
+  <si>
+    <t>3544</t>
+  </si>
+  <si>
+    <t>jowar vegetable porridge recipe | healthy jowar upma for weight loss | sorghum porridge |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-and-vegetable-porridge-3544r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup coarsely powdered peanuts
+salt to taste
+1 tsp oil
+1 cup chopped mixed vegetables (french beans ,
+carrot , and cauliflower)
+1/2 tsp mustard seeds ( rai / sarson)
+a pinch of asafoetida (hing)
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped onions
+2 tbsp finely chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>For jowar and vegetable porridge
+Combine the powdered jowar, salt with 3 cups of water in a pressure cooker, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Heat the oil in a deep pan and add the mustard seeds and asafoetida.
+When the mustard seeds crackle, add the mixed vegetables and sauté on a medium flame for 3 to 4 minutes.
+Add the cooked jowar mixture, 1½ cups of water and salt, mix well and simmer for 8 to 10 minutes, while stirring occasionally.
+Top with the tomato, onion and coriander and serve immediately.
+Handy tips
+To get ½ cup of coarsely ground jowar, grind ½ cup of jowar in a mixer to a coarse powder.
+If the porridge becomes too thick while serving, adjust its consistency by some adding some water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 103 cal
+Protein 3.3 g
+Carbohydrates 18.6 g
+</t>
+  </si>
+  <si>
+    <t>41080</t>
+  </si>
+  <si>
+    <t>tomato onion raita recipe | onion tomato raita | pyaz tamatar ka raita | healthy onion tomato raita |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tomato-onion-raita-onion-tomato-raita-41080r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 cup chopped tomatoes
+1 cup chopped onions
+1/2 tsp finely chopped green chillies
+1/2 tsp cumin seeds (jeera) powder
+2 cups whisked curds (dahi)
+salt to taste
+2 tbsp finely chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>For tomato onion raita
+To make tomato onion raita, combine tomatoes, onions, green chillies and cumin seeds powder in a deep bowl and mix well.
+Add the curds, salt and coriander and mix well.
+Refrigerate the tomato onion raita for at least 1 hour and serve chilled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 140 cal
+Protein 5 g
+Carbohydrates 9.8 g
+</t>
+  </si>
+  <si>
+    <t>37676</t>
+  </si>
+  <si>
+    <t>chickpea paneer salad | kabuli chana paneer vegetable salad | healthy Indian chickpeas salad with cottage cheese |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chickpea-and-paneer-salad-37676r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup soaked and boiled kabuli chana (white chick peas)
+3/4 cup paneer (cottage cheese) cubes
+1/2 cup tomato cubes
+2 tbsp thinly sliced black olives
+2 tbsp finely chopped parsley
+1/4 cup finely chopped spring onion greens and whites
+salt and to taste
+1 cup lettuce , torn into pieces
+1 1/2 tsp olive oil
+1 tbsp lemon juice
+1 tsp powdered sugar
+salt and freshly ground black pepper (kalimirch) to taste
+1 tbsp dry red chilli flakes (paprika)
+2 tsp finely chopped garlic (lehsun)
+</t>
+  </si>
+  <si>
+    <t>For chickpea and paneer salad
+To make chickpea and paneer salad, combine the chickpeas, paneer, tomatoes, black olives, parsley, spring onions and lettuce in a bowl.
+Cover with a cling wrap and chill in the fridge for 30 minutes to 1 hour.
+Add the dressing, salt and pepper and mix well.
+Serve the chickpea and paneer salad chilled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 194 cal
+Protein 8 g
+Carbohydrates 17.9 g
+</t>
+  </si>
+  <si>
+    <t>5701</t>
+  </si>
+  <si>
+    <t>Sprouted Masala Matki</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouted-masala-matki-5701r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups boiled sprouted matki (moath beans)
+1 cup fresh tomato pulp
+salt to taste
+2 tsp lemon juice
+2 tsp oil
+5 to 6 whole dry kashmiri red chillies , broken into pieces
+1/2 cup sliced onions
+1 tbsp poppy seeds (khus-khus) , optional
+3 to 4 black peppercorns (kalimirch)
+3 small sticks cinnamon (dalchini)
+3 cloves (laung / lavang)
+1 tsp coriander (dhania) seeds
+2 garlic (lehsun) cloves
+2 tbsp chopped tomatoes
+2 tbsp chopped onions
+2 tbsp chopped capsicum or cucumber
+</t>
+  </si>
+  <si>
+    <t>For the paste
+Heat the oil in a broad non-stick pan, add all the ingredients and sauté on a medium flame for 2 to 3 minutes.
+Allow the mixture to cool and blend in a mixer to a smooth paste using little water. Keep aside.
+How to proceed
+Heat a broad non-stick pan, add the prepared paste and fresh tomato pulp, mix well and cook on a medium flame for 1 to 2 minutes.
+Add the sprouted matki, salt and lemon juice, mix well and cook on a medium flame for another 1 minute or till the mixture dries up a little.
+Serve hot topped with tomatoes, onions and capsicum or cucumber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 164 cal
+Protein 9.3 g
+Carbohydrates 24.8 g
+</t>
+  </si>
+  <si>
+    <t>39688</t>
+  </si>
+  <si>
+    <t>Mushroom and Green Capsicum Subzi</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-and-green-capsicum-subzi-39688r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 cups mushroom (khumbh) halves
+1 cup capsicum cubes
+2 tsp oil
+salt to taste
+4 whole dry kashmiri red chillies , broken into pieces
+6 garlic (lehsun) cloves
+1/2 cup roughly chopped onions
+</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan, add the prepared paste and 2 tbsp of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the capsicum cubes, mushrooms and salt and mix well. Cover with a lid and cook on a medium flame for 6 to 8 minutes, while stirring occasionally.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 59 cal
+Protein 2.3 g
+Carbohydrates 7 g
+</t>
+  </si>
+  <si>
+    <t>41018</t>
+  </si>
+  <si>
+    <t>oats methi multiflour khakhra recipe | healthy oats methi khakhra | Indian oats garlic khakhra | oats khakhra for weight loss |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-methi-multiflour-khakhra-41018r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup quick cooking rolled oats
+1/2 cup finely chopped fenugreek (methi) leaves
+1/4 cup jowar (white millet) flour
+1/4 cup ragi (nachni / red millet) flour
+1/4 cup whole wheat flour (gehun ka atta)
+1/4 tsp turmeric powder (haldi)
+1/4 tsp green chilli paste
+1/4 tsp ginger (adrak) paste
+1/4 tsp garlic (lehsun) paste
+1 tsp oil
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+5 tsp ghee or for cooking
+</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 10 equal portions and roll out each portion into a 150 mm. (6") diameter circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook each khakhra on a slow flame till pink spots appear on both the sides.
+Grease the khakhra with 1/4 tsp oil on each side and continue cooking it on a slow flame, while pressing with a folded muslin cloth or a khakhra press, till it turns crisp and brown from both the sides.
+Cool completely and serve or store in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 73 cal
+Protein 1.6 g
+Carbohydrates 9.2 g
+</t>
+  </si>
+  <si>
+    <t>35086</t>
+  </si>
+  <si>
+    <t>Apple and Lettuce Salad with Melon Dressing ( Iron Rich Recipe )</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-lettuce-salad-with-melon-dressing--iron-rich-recipe--35086r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup apple cubes
+1 cup iceberg lettuce , torn into pieces
+1/2 cup shredded cabbage
+1/4 cup thickly grated carrot
+1/4 cup capsicum cubes (red and yellow)
+1/2 cup bean sprouts
+1/4 cup green grapes
+1 tsp lemon juice
+salt to taste
+1/2 cup muskmelon purée
+1/2 tsp roasted and crushed cumin seeds (jeera)
+1/4 cup chopped coriander (dhania)
+salt and freshly ground black pepper (kalimirch) to taste
+</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with the dressing in deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 36 cal
+Protein 1.3 g
+Carbohydrates 7.2 g
+</t>
+  </si>
+  <si>
+    <t>6424</t>
+  </si>
+  <si>
+    <t>masala cauliflower with green peas recipe | healthy cauliflower peas masala | masala gobi matar sabzi | Indian style gobi matar |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-cauliflower-with-green-peas-sabzi-6424r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 tbsp freshly grated coconut
+8 garlic (lehsun) cloves
+4 green chillies , roughly chopped.
+25 mm (1") ginger (adrak) , roughly chopped
+2 cups cauliflower florets
+1 1/2 cups green peas
+3/4 cup chopped onions
+1/2 cup chopped coriander (dhania)
+1/2 tsp turmeric powder (haldi)
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp chilli powder
+2 tsp coconut oil or oil
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For masala cauliflower with green peas sabzi
+To make coconut paste for masala cauliflower with green peas sabzi, in a mixer put coconut, garlic cloves, green chillies, ginger and 1/4 cup water. Blend to a smooth paste.
+In a deep bowl combine the onions, coriander, turmeric powder, coriander-cumin seeds powder, chilli powder, prepared coconut paste, oil and salt in a deep bowl and mix well to make a marinade.
+Add the cauliflower and green peas to this prepared marinade, mix well and keep aside to marinate for 15 minutes.
+Transfer it into a deep non-stick kadhai, add 1 1/4 cups of water, cover and cook for 15 minutes, 5 minutes on high, 10 minutes on medium flame, stirring every 5 minutes or until the vegetables are tender.
+Serve the masala cauliflower with green peas sabzi hot with bajra roti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 107 cal
+Protein 5.3 g
+Carbohydrates 13.1 g
+</t>
+  </si>
+  <si>
+    <t>38634</t>
+  </si>
+  <si>
+    <t>bajra methi khakhra recipe | gluten free khakhra | bajra methi rice flour khakhra |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-methi-khakhra-gluten-free-khakhra-38634r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup bajra (black millet) flour
+1/4 cup rice flour (chawal ka atta)
+1 tsp ginger-garlic (adrak-lehsun) paste
+1 tsp green chilli paste
+1/2 cup finely chopped fenugreek (methi) leaves
+1/4 tsp turmeric powder (haldi)
+2 tsp oil
+salt to taste
+1/2 tsp oil for kneading
+bajra (black millet) flour for rolling
+1 1/2 tsp oil for cooking
+</t>
+  </si>
+  <si>
+    <t>For bajra methi khakhra
+To make bajra methi khakhra, combine the bajra flour, rice flour, ginger-garlic paste, green chilli paste, fenugreek leaves, turmeric powder, oil and salt in a deep bowl and knead into soft dough using enough warm water. Keep aside for 10 minutes.
+Knead again using oil till the dough is smooth.
+Divide the dough into 6 equal portions and roll out each portion into a thin circle of 125 mm (5") diameter, using a little bajra flour for rolling.
+Heat the tava (griddle) and cook it on a slow flame until pink spots appear on both the sides.
+Cook each khakhra, using 1/4 tsp of oil, on a slow flame by pressing with a folded muslin cloth or a khakhra press till it turns crisp and brown in colour from both sides.
+Serve the bajra methi khakhra immediately or cool and store in an airtight container.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 98 cal
+Protein 2.3 g
+Carbohydrates 15.5 g
+</t>
+  </si>
+  <si>
+    <t>6422</t>
+  </si>
+  <si>
+    <t>Tendli Aur Matki Subzi</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tendli-aur-matki-subzi-6422r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup tendli (ivy gourd) , cut into roundels
+1 cup sprouted matki (moath beans)
+2 tsp oil
+1/4 tsp cumin seeds (jeera)
+1/4 cup chopped onions
+1 tsp finely chopped green chillies
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1 1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+salt to taste
+1/4 cup chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>For tendli aur matki subzi
+To make tendli aur matki subzi, heat the oil in a non-stick kadhai and add the cumin seeds.
+When the seeds crackle, add the onions and green chillies and sauté on a medium flame for a minute or till the onions turn translucent.
+Add the tendli, matki, turmeric powder, chilli powder, coriander-cumin seeds powder, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the tomatoes and coriander, mix well and cook for another minute.
+Serve the tendli aur matki subzi hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 64 cal
+Protein 3.6 g
+Carbohydrates 8.5 g
+</t>
+  </si>
+  <si>
+    <t>6431</t>
+  </si>
+  <si>
+    <t>hariyali mutter recipe | North Indian hariyali matar  | healthy hariyali mutter paneer in coriander paste |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/hariyali-mutter-6431r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup boiled green peas
+2 tsp coconut oil or oil
+1 tsp cumin seeds (jeera)
+1/2 tsp nigella seeds (kalonji)
+a pinch of asafoetida (hing)
+1/4 cup low fat milk , 99.7% fat-free
+salt to taste
+1/4 cup chopped low fat paneer (cottage cheese)
+2 cups chopped coriander (dhania)
+3 green chillies , roughly chopped
+1 tsp chopped ginger (adrak)
+4 garlic (lehsun) cloves
+1 tbsp lemon juice
+phulkas
+</t>
+  </si>
+  <si>
+    <t>For hariyali mutter
+To make hariyali mutter sabzi prepare the coriander paste first.
+Heat the coconut oil or oil in a non-stick kadhai and add the cumin seeds.
+When the seeds crackle, add the nigella seeds and sauté on a medium flame for a few seconds.
+Add the asafoetida and the prepared coriander paste, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.
+Add the milk, green peas, paneer, 2 tablespoons water, salt to taste and mix well.
+Cook on a medium flame for 3 minutes, while stirring continuously.
+Serve hariyali mutter sabzi recipe | north indian hariyali matar | healthy hariyali mutter paneer in coriander paste | immediately with bajra roti or phulkas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 145 cal
+Protein 7.5 g
+Carbohydrates 16.5 g
+</t>
+  </si>
+  <si>
+    <t>40968</t>
+  </si>
+  <si>
+    <t>Water Chestnuts and Purple Cabbage Stir Fry</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/water-chestnuts-and-purple-cabbage-stir-fry-40968r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups peeled fresh water chestnut (singhada)
+1 cup shredded red cabbage
+2 tsp olive oil
+1 tbsp finely chopped garlic (lehsun)
+salt and to taste
+1 1/2 tbsp honey
+1 1/2 tsp dry red chilli flakes (paprika)
+1 tsp lemon juice
+2 tbsp roasted peanuts
+</t>
+  </si>
+  <si>
+    <t>Boil enough water in a deep non-stick pan, add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Drain well and keep aside.
+Heat the olive oil in a broad non-stick pan, add the garlic and sauté on a medium flame for 30 seconds.
+Add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the cabbage, prepared dressing, salt and pepper, mix gently and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve immediately garnished with peanuts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 137 cal
+Protein 3.9 g
+Carbohydrates 24.6 g
+</t>
+  </si>
+  <si>
+    <t>6209</t>
+  </si>
+  <si>
+    <t>cucumber melon juice recipe | muskmelon cucumber detox juice | healthy muskmelon juice for summer | immune boosting kharbuja juice |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cucumber-melon-juice-how-to-make-kharbuja-juice-6209r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 3/4 cups roughly chopped muskmelon (kharbooja)
+1 3/4 cups roughly chopped cucumber
+12 ice-cubes
+</t>
+  </si>
+  <si>
+    <t>For cucumber melon juice
+To make cucumber melon juice, combine all the ingredients in a high quality mixer like vitamix and blend till smooth.
+Pour the cucumber melon juice into 3 individual glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 24 cal
+Protein 0.6 g
+Carbohydrates 4.9 g
+</t>
+  </si>
+  <si>
+    <t>36097</t>
+  </si>
+  <si>
+    <t>Lettuce and Bean Sprouts Salad in Lemon Dressing</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lettuce-and-bean-sprouts-salad-in-lemon-dressing-36097r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup iceberg lettuce , torn into pieces
+1 cup bean sprouts
+1/2 cup deseeded tomato cubes
+1/4 cup sliced spring onion greens
+1 tbsp lemon juice
+2 tsp olive oil
+salt and to taste
+</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and mix well.
+Add the lemon dressing and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 55 cal
+Protein 1.7 g
+Carbohydrates 4.4 g
+</t>
+  </si>
+  <si>
+    <t>35087</t>
+  </si>
+  <si>
+    <t>Melon and Watermelon Smoothie, Melon Smoothie Recipe with Yogurt</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/melon-and-watermelon-smoothie-melon-smoothie-recipe-with-yogurt-35087r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 mm low-fat fresh curds (dahi)
+2 tbsp low-fat milk (99.7% fat-free )
+1 cup chilled and deseeded watermelon (tarbuj) cubes
+2 cups chilled muskmelon (kharbooja) cubes
+</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients and in a mixer and blend till smooth.
+Pour equal quantities of the drink in each glass and serve immediately.
+Handy tip:
+Use fresh curds and sweet fruits for best taste and to avoid the use of sugar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 35 cal
+Protein 1.9 g
+Carbohydrates 6.2 g
+</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>green peas and coconut soup recipe | green peas, coconut and coriander soup | healthy Indian matar soup with pudina |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/green-peas-and-coconut-soup-healthy-indian-matar-soup-1779r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups boiled green peas
+2 tbsp finely chopped coriander (dhania)
+1/4 cup grated fresh coconut
+1 tbsp butter
+1 tsp chopped ginger (adrak)
+1/2 tsp finely chopped garlic (lehsun)
+1/2 cup finely chopped onions
+2 tsp finely chopped green chillies
+1 tbsp finely chopped mint leaves (phudina)
+salt to taste
+1 tbsp fresh cream
+</t>
+  </si>
+  <si>
+    <t>For green peas and coconut soup, indian style
+To make green peas and coconut soup, heat the butter in a deep pan, add the ginger, garlic, onions and green chillies and sauté on a medium flame for 1 to 2 minutes.
+Add the boiled peas, coriander, mint and coconut, mix well and cook on a medium flame for 1 minute.
+Allow the mixture to cool completely.
+Once cooled, blend the mixture with 2 cups of water in a blender till smooth.
+Transfer the mixture into a deep pan, add the salt and bring to a boil.
+Serve the green peas and coconut soup hot garnished with fresh cream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 250 cal
+Protein 11.3 g
+Carbohydrates 28 g
+</t>
+  </si>
+  <si>
+    <t>33007</t>
+  </si>
+  <si>
+    <t>low calorie apple crumble recipe | low calorie baked apple crisp | Indian style baked apple crumble | easy apple crumble |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/low-calorie-apple-crumble-33007r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups sliced apples
+1 tbsp brown sugar
+2 small sticks cinnamon (dalchini)
+1/2 tsp lemon juice
+1/4 cup quick cooking rolled oats
+1 tbsp wheat bran
+2 tbsp chopped walnuts (akhrot)
+1 tbsp chopped almonds (badam)
+2 tbsp raisins (kismis)
+1/4 tsp cinnamon (dalchini) powder
+vanilla essence
+low fat butter for greasing
+</t>
+  </si>
+  <si>
+    <t>11 mins</t>
+  </si>
+  <si>
+    <t>For the stewed apples
+Combine ½ cup of water, brown sugar, cinnamon sticks and lemon juice in a broad non-stick pan, mix well and cook on a medium flame for 30 seconds or till the brown sugar dissolves completely.
+Add the apples, mix well and cook on a medium flame for 7 to 8 minutes or till the apples turn soft, while stirring once in between.
+Discard the cinnamon and keep aside to cool slightly.
+For the muesli
+Combine all the ingredients in a broad non-stick pan and lightly roast them on a slow flame for 2 minutes. Keep aside to cool slightly.
+Transfer the mixture into a bowl and keep aside to cool slightly.
+How to proceed
+Grease a baking dish lightly using low-fat butter.
+Spread the stewed apples at the base of a baking dish and spread the muesli evenly over it.
+Bake in a pre-heated oven at 200°c (400°f) for 10 minutes or till the muesli turns golden brown in colour.
+Serve the low calorie apple crumble immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 129 cal
+Protein 2.6 g
+Carbohydrates 15.9 g
+</t>
+  </si>
+  <si>
+    <t>33239</t>
+  </si>
+  <si>
+    <t>Sprouts Misal, Protein Rich Recipes</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-misal-protein-rich-recipes-33239r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups boiled mixed sprouts (kala chana , chawli , moong, etc.)
+1 tsp misal masala
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/2 tsp ginger-green chilli paste
+1 tsp garlic (lehsun) paste
+1/2 cup finely chopped onions
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+salt to taste
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped onions
+</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick kadhai and add the cumin seeds.
+When the seeds crackle, add ginger-green chilli paste, garlic paste and onions and sauté on a medium flame for 2 minutes.
+Add the mixed sprouts, misal masala, turmeric powder, chilli powder, salt and ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve immediately topped with tomatoes and onions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 157 cal
+Protein 7.4 g
+Carbohydrates 22.4 g
+</t>
+  </si>
+  <si>
+    <t>4364</t>
+  </si>
+  <si>
+    <t>French Beans Foogath</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/french-beans-foogath-4364r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups stringed and diagonally cut french beans
+1 1/2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp soaked urad dal (spit black gram)
+2 tbsp soaked chana dal (split bengal gram)
+4 to 6 curry leaves (kadi patta)
+1/4 tsp asafoetida (hing)
+2 slit green chillies
+salt to taste
+1/4 cup grated coconut
+2 tbsp chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>Heat the oil and add the mustard seeds.
+When the seeds crackle, add the urad dal and chana dal , curry leaves, asafoetida and green chillies and sauté on a medium flame for a few seconds
+Add the french beans, salt and 2 tbsp of water, mix well and cover and cook on a slow flame for 10 minutes, while stirring occasionally.
+Add the coconut and coriander, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 79 cal
+Protein 2.3 g
+Carbohydrates 6.4 g
+</t>
+  </si>
+  <si>
+    <t>39907</t>
+  </si>
+  <si>
+    <t>Flax Seed Crackers with Beetroot Dip ( Healthy Snack)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/flax-seed-crackers-with-beetroot-dip--healthy-snack-39907r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup coarselypowdered flax seeds (alsi)
+1 cup whole wheat flour (gehun ka atta)
+1 tbsp olive oil
+1 tbsp dried mixed herbs
+1 tsp dry red chilli flakes (paprika)
+salt to taste
+1/4 cup boiled and finely chopped beetroot
+1 cup fresh hung low-fat curds (dahi)
+1/4 cup finely chopped onions
+1/4 cup finely chopped mint leaves (phudina)
+1 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped green chillies
+salt and to taste
+</t>
+  </si>
+  <si>
+    <t>For the flax seed crackers
+Combine all the ingredients in a deep bowl and knead into a stiff dough using water as required (approx. ¼ cup). Cover with a lid and keep aside for 15 minutes.
+Divide the dough into 2 equal portions.
+Roll out a portion into a 200 mm. (8?) diameter circle without using any flour for rolling. Trim slightly from 4 sides to get a perfect square.
+Cut out into approx. 50 mm. × 50 mm. (2? × 2?) square pieces using a knife. You will get approx. 9 pieces and prick them with a fork at equal distance.
+Repeat steps 3 and 4 to make 9 more pieces using another dough portion. Knead the trimmed off dough portion well and roll again to make 2 more crackers.
+Arrange all the crackers on a baking tray and bake in a pre-heated oven at 200°c (400°f) for 15 minutes or till they turn light brown and crisp from both the sides, while turning twice in between after every 5 minutes. Keep aside to cool slightly.
+For the beetroot dip
+Combine all the ingredients in a deep bowl and mix well.
+Refrigerate for at least ½ an hour.
+How to serve
+Serve the flax seed crackers with chilled beetroot dip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 189 cal
+Protein 7.6 g
+Carbohydrates 26.6 g
+</t>
+  </si>
+  <si>
+    <t>5685</t>
+  </si>
+  <si>
+    <t>nachni bajra khakhra recipe | healthy ragi khakhra | masala nachni khakhra | healthy snack |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mini-nachni-and-bajra-khakhra-5685r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup bajra (black millet) flour
+1/4 cup ragi (nachni / red millet) flour
+2 tbsp whole wheat flour (gehun ka atta)
+1/2 tsp ginger-garlic (adrak-lehsun) paste
+1/4 tsp finely chopped green chillies
+1 tsp sesame seeds (til)
+1/4 tsp turmeric powder (haldi)
+1 tsp oil
+salt and to taste
+whole wheat flour (gehun ka atta) for rolling
+</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into a firm dough using warm water.
+Divide the dough into 7 equal portions.
+Roll out a portion of the dough into a 125 mm. (5") diameter thin circle, using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and place a roti on it and cook on both sides for a few seconds.
+Cook on a slow flame until crisp using little pressure with help of a khakhra press.
+Repeat steps 3 to 5 to make 6 more khakhras.
+Allow them to cool completely and store in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 46 cal
+Protein 1.1 g
+Carbohydrates 8 g
+</t>
+  </si>
+  <si>
+    <t>22289</t>
+  </si>
+  <si>
+    <t>Cous Cous Salad, Healthy Cous Cous Salad</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cous-cous-salad-healthy-cous-cous-salad-22289r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup broken wheat (dalia)
+1/2 tsp oil for cooking
+salt to taste
+1 cup cucumber cubes
+1 cup chopped tomatoes
+1 cup blanched broccoli florets
+1 cup sliced and blanched mushrooms (khumbh)
+1 cup lettuce , torn into small pieces
+1/4 cup finely chopped mint leaves (phudina)
+1 1/2 tbsp lemon juice
+freshly ground black pepper (kalimirch) to taste
+</t>
+  </si>
+  <si>
+    <t>Boil enough water in a deep non-stick pan, add the salt and oil and mix well.
+Add the broken wheat, mix well and cook on a medium flame for 7 minutes, while stirring ocassinally.
+Drain well and refresh with cold water.
+Combine all the ingredients, along with the cooked broken wheat in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 68 cal
+Protein 2.3 g
+Carbohydrates 13.2 g
+</t>
+  </si>
+  <si>
+    <t>4812</t>
+  </si>
+  <si>
+    <t>Sprouts Misal</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-misal-4812r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups mixed sprouts , boiled
+2 tsp cumin seeds (jeera)
+1 tsp ginger-green chilli paste
+1/4 tsp cloves (laung / lavang) powder
+1/4 tsp cinnamon (dalchini) powder
+a pinch of sugar (optional)
+1 tsp oil
+salt to taste
+1 cup curds (dahi) , whisked
+1/4 cup chopped onions
+1/4 cup chopped tomatoes
+2 tbsp chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>Heat the oil, add the cumin seeds, ginger-green chilli paste and cook for 1 minute.
+Add the mixed sprouts, clove powder, cinnamon powder, sugar and salt and cook for 2 minutes.
+Serve the sprouts mixture topped with the curds, onions, tomatoes and coriander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 196 cal
+Protein 10.9 g
+Carbohydrates 24.3 g
+</t>
+  </si>
+  <si>
+    <t>3495</t>
+  </si>
+  <si>
+    <t>bajra methi paneer paratha recipe | paneer bajre ka paratha | healthy bajra methi paneer paratha for diabetes |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-methi-and-paneer-parathas-3495r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup bajra (black millet) flour
+1 cup fenugreek (methi) leaves , chopped
+2 large garlic (lehsun) cloves , chopped
+1 tsp low fat curds (dahi)
+salt to taste
+1/2 cup crumbled low fat paneer (cottage cheese)
+1/2 tsp finely chopped green chillies
+1/8 tsp turmeric powder (haldi)
+1/4 tsp dried fenugreek leaves (kasuri methi)
+3 tbsp chopped coriander (dhania)
+1/2 cup finely chopped tomatoes
+salt to taste
+2 1/4 tsp oil for greasing and cooking
+</t>
+  </si>
+  <si>
+    <t>For the dough
+In a blender lightly crush the fenugreek leaves and the garlic with a little salt.
+Combine the bajra flour, crushed fenugreek leaves and salt and knead into a soft dough using approx. 1/4 cup of hot water. Keep aside.
+How to proceed
+To make bajra, methi and paneer parathas, divide the filling into 4 equal portions.
+Divide the dough into 4 equal portions and roll out a portion in between two greased plastic sheets into a circle of approx. 100 mm. To 125 mm. (4" to 5") diameter circle.
+Place a portion of the filling mixture on one half of the rolled circle and fold it over to make a semi-circle.
+Grease a non-stick tava (griddle) with ¼ tsp of oil and place the paratha carefully on it.
+Cook the paratha on a slow flame using 1/2 tsp of oil till they turn golden brown in colour from both sides. This would take approx. 1½ minutes.
+Cook the centre of the paratha by holding the paratha with a pair of tongs in a vertical position and cooking till it turns golden brown in colour.
+Repeat with the remaining dough portions and filling mixture to make 3 more parathas.
+Serve the bajra, methi and paneer parathas hot.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 113 cal
+Protein 4.1 g
+Carbohydrates 18.5 g
+</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>bajra khakhra recipe | Indian style bajra til khakhra | bajre ka khakhra | healthy snack - bajra khakhra |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-khakhras-2941r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup bajra (black millet) flour
+2 tbsp whole wheat flour (gehun ka atta)
+1/2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 tsp green chillies , finely chopped
+1 tsp sesame seeds (til)
+1/4 tsp turmeric powder (haldi)
+1 tsp oil
+1 1/2 tsp ghee for cooking
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For bajra khakhras
+To make bajra khakhras, combine the bajra flour, whole wheat flour, ginger-garlic paste, green chillies, sesame seeds, turmeric powder, oil and salt.
+Add enough warm water and knead well into a firm dough.
+Divide the dough into 7 equal portions and roll each on a floured surface into a 125 mm. (5") diameter thin circle.
+Heat a tava (griddle), cook one side of the khakhra for 30 seconds, flip, grease with ghee and repeat on the other side of the khakhra.
+Continue cooking the khakhra on a slow flame, while pressing with a khakhra press or a folded muslin cloth, till it turns crisp and golden brown spots appear on both sides.
+Repeat for the remaining to make 6 more khakhras.
+Serve the bajra khakhras any time of the day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 52 cal
+Protein 1.2 g
+Carbohydrates 6.6 g
+</t>
+  </si>
+  <si>
+    <t>5581</t>
+  </si>
+  <si>
+    <t>pyaz ki roti recipe | pyaz ka paratha | pyaaz ki roti | pyaj wali roti | healthy onion roti</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pyaz-ki-roti-healthy-pyaz-ka-paratha-5581r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup whole wheat flour (gehun ka atta)
+2 tbsp powdered flaxseeds (alsi)
+2 tbsp pomegranate seeds (anardana) , roasted and ground
+1/2 cup finely chopped onions
+1 tsp green chillies , finely chopped
+1 tsp oil
+salt to taste
+1 tsp oil for cooking
+</t>
+  </si>
+  <si>
+    <t>For pyaz ki roti
+To make pyaz ki roti, mix together all the ingredients and knead into a soft dough adding enough water.
+Divide the dough into 4 equal portions and roll each portion into a circle of 125 mm. (5") diameter.
+Heat a non-stick tava (griddle) and cook a roti, using ¼ tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat to make 3 more rotis.
+Serve the pyaz ki roti hot with a subzi of your choice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 168 cal
+Protein 5 g
+Carbohydrates 26.9 g
+</t>
+  </si>
+  <si>
+    <t>4781</t>
+  </si>
+  <si>
+    <t>chana dal with cucumber recipe | cucumber chana dal subzi | healthy chana dal sabzi | khira aur chana dal ki sabji |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chana-dal-with-cucumber-healthy-chana-dal-sabzi-4781r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 cup chana dal (split bengal gram)
+1 tbsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup roughly chopped cucumber
+a pinch turmeric powder (haldi)
+1 tsp ginger-green chilli paste
+salt to taste
+1/2 tsp chilli powder
+a pinch of sugar
+1 tbsp finely chopped coriander (dhania)
+</t>
+  </si>
+  <si>
+    <t>For chana dal with cucumber
+To make chana dal with cucumber, wash and soak the chana dal in water for at least an hour and drain well.
+Combine the chana dal with 2 cups of water in a pressure cooker and pressure cook for 2 whistles or till the dal is soft.
+Allow the steam to escape before opening the lid.
+Mash the dal lightly with the back of the spoon and keep aside.
+Heat the oil in a broad non-stick pan, add the cumin seeds.
+When the seeds crackle, add the cooked dal, cucumber, turmeric powder, ginger-green chilli paste, salt and chilli powder, mix well and cook on a medium flame for 5 to 7 minutes, while stirring occasionally.
+Add the sugar, mix well and cook on a medium flame for 1 minute.
+Serve the chana dal with cucumber hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 175 cal
+Protein 7.9 g
+Carbohydrates 22.8 g
+</t>
+  </si>
+  <si>
+    <t>22221</t>
+  </si>
+  <si>
+    <t>Oats Mooli Roti, Zero Oil Oats Mooli Roti</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-mooli-roti-zero-oil-oats-mooli-roti-22221r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup quick cooking rolled oats
+1/2 cup grated white radish (mooli)
+1/2 cup whole wheat flour (gehun ka atta)
+1 tbsp roasted and coarsely crushed coriander (dhania) seeds
+1/2 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+1/4 tsp dried mango powder (amchur)
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into a soft dough without using water.
+Divide the dough into 5 equal portions.
+Roll out a portion of the dough into 125 mm (5") diameter circle using a little whole wheat flour for rolling.
+Place the roti on a non-stick tava (griddle). Turn over in a few seconds. Cook the other side for a few more seconds.
+Lift the roti with a pair of flat tongs and roast over an open flame till brown spots appear on both the sides.
+Repeat steps 3 to 5 to make 4 more rotis.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 60 cal
+Protein 2.3 g
+Carbohydrates 12.2 g
+</t>
+  </si>
+  <si>
+    <t>42784</t>
+  </si>
+  <si>
+    <t>Bajra Jhalmuri, Healthy Bengali Jhalmuri</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bajra-jhalmuri-healthy-bengali-jhalmuri-42784r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup whole bajra (black millet)
+1/4 cup finely chopped tomatoes
+1/4 cup finely chopped cucumber
+1/4 cup finely chopped onions
+2 tbsp finely chopped coriander (dhania)
+1 tsp lemon juice
+1/2 tsp garam masala
+1/2 tsp roasted cumin seeds (jeera) powder
+1/4 tsp chilli powder
+1 tsp mustard (rai / sarson) oil
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>For bajra jhalmuri
+To make bajra jhalmuri, soak the whole bajra in enough water for 8 hours. Drain well.
+Combine the soaked bajra and enough water in a pressure cooker and pressure cook for 7 whistles.
+Allow the steam to escape before opening the lid. Drain.
+Transfer into a deep bowl, add the tomatoes, cucumber, onions, coriander, lemon juice and finally the masala paste and mix very well using your hands.
+Serve bajra jhalmuri immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 94 cal
+Protein 2.6 g
+Carbohydrates 15.5 g
+</t>
+  </si>
+  <si>
+    <t>42806</t>
+  </si>
+  <si>
+    <t>Healthy Chocolate Overnight Oats</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-chocolate-overnight-oats-42806r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup coconut milk
+1 1/2 tbsp unsweetened cocoa powder
+1/2 cup quick cooking rolled oats or regular oats
+1/2 cup curd (dahi)
+1 tbsp peanut butter
+1 tsp honey
+1 tsp chia seeds
+2 tsp chocolate chips for garnish , optional
+</t>
+  </si>
+  <si>
+    <t>For healthy chocolate overnight oats
+To make healthy chocolate overnight oats, add the oats to a serving glass jar followed by the cocoa powder.
+Add the coconut milk and curd. Mix well.
+Now add the chia seeds.
+Next, add the peanut butter and honey. Mix well.
+Add the chocolate chips and close the jar. Leave it in the fridge overnight. For a healthier version of these overnight oats, you can skip this step.
+Enjoy the chocolate overnight oats the next day with some more chocolate chips on top.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 409 cal
+Protein 8.4 g
+Carbohydrates 25 g
+</t>
+  </si>
+  <si>
+    <t>42833</t>
+  </si>
+  <si>
+    <t>how to soak garden cress seeds, halim recipe | soaked garden cress seeds | how to eat garden cress seeds | benefits of halim or aliv |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-soak-garden-cress-seeds-42833r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 tsp garden cress seeds
+</t>
+  </si>
+  <si>
+    <t>To soak garden cress seeds, halim, clean the seeds and add ½ cup of water to it.
+Mix well and keep aside to soak for 30 minutes.
+After soaking they are ready for serving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 54 cal
+Protein 3 g
+Carbohydrates 4 g
+</t>
+  </si>
+  <si>
+    <t>42854</t>
+  </si>
+  <si>
+    <t>bajra ladoo recipe | kuler ladoo | instant no cook bajra atta ladoo | Indian millet flour laddu |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/no-cook-bajra-atta-ladoo-kuler-ladoo-42854r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1/4 tbsp ghee
+2 tbsp grated jaggery (gur)
+5 tbsp bajra (black millet) flour
+</t>
+  </si>
+  <si>
+    <t>For kuler ladoo
+To make kuler ladoo, combine the ghee and jaggery in a flat plate and mix well with fingers for 3 to 4 minutes or till the mixture becomes slightly fluffy.
+Add half the bajra flour and mix well.
+Add the remaining bajra flour and mix well till the mixture binds well like a dough.
+Divide the mixture into 4 equal portions and shape each portion into a round ball.
+Serve the kuler ladoo immediately or store in an air-tight container. It stays fresh for 2 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 107 cal
+Protein 1.2 g
+Carbohydrates 15.3 g
+</t>
+  </si>
+  <si>
+    <t>15154</t>
+  </si>
+  <si>
+    <t>Cabbage Paratha</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-paratha-15154r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/4 cup finely chopped cabbage
+salt to taste
+1 cup whole wheat flour (gehun ka atta)
+1 tsp finely chopped green chillies
+1 tbsp finely chopped coriander (dhania)
+1 tsp oil
+whole wheat flour (gehun ka atta) for rolling
+8 tsp ghee for cooking
+1 cup curd (dahi)
+</t>
+  </si>
+  <si>
+    <t>For cabbage paratha
+To make cabbage paratha, combine the cabbage with little salt, mix well and keep aside for 10 minutes. Squeeze the excess water from the cabbage.
+Add the remaining ingredients, mix well and knead into a soft dough, using very little water.
+Divide the dough into 8 equal portions and roll out each portion into a circle of 6" diameter, using little whole wheat flour for rolling.
+Heat a tava and cook each cabbage paratha, using 1 tsp of ghee, till golden brown spots appear on both the sides.
+Servethe cabbage paratha hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 109 cal
+Protein 2.1 g
+Carbohydrates 12.2 g
 </t>
   </si>
 </sst>
@@ -408,7 +5336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -470,273 +5398,4323 @@
       <c r="H2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="I2" s="0"/>
+      <c r="I2" t="s" s="0">
+        <v>17</v>
+      </c>
       <c r="J2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I3" s="0"/>
+        <v>25</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="J3" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>15</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="I4" s="0"/>
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="J4" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>15</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="I5" s="0"/>
+        <v>39</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>40</v>
+      </c>
       <c r="J5" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="I6" s="0"/>
+      <c r="I6" t="s" s="0">
+        <v>46</v>
+      </c>
       <c r="J6" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="I7" s="0"/>
+        <v>53</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>54</v>
+      </c>
       <c r="J7" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>15</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="I8" s="0"/>
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>60</v>
+      </c>
       <c r="J8" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>15</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I9" s="0"/>
+        <v>24</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>66</v>
+      </c>
       <c r="J9" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I10" s="0"/>
+        <v>24</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>72</v>
+      </c>
       <c r="J10" t="s" s="0">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" t="s" s="0">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="I11" s="0"/>
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>79</v>
+      </c>
       <c r="J11" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="K51" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="K52" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="K54" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="K55" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="K56" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="K57" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="K58" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="K59" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="K60" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="K61" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="K62" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="K63" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="K64" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="K65" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="K66" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="K67" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="K68" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="K69" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="K70" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="K71" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="K72" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="K73" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="K74" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="K75" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="K76" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="K77" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
+      <c r="F78" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="K78" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="K79" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+      <c r="F80" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="K80" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="K81" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="F82" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="K82" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="K83" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+      <c r="F84" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="K84" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H85" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I85" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="J85" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="K85" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="D86" s="0"/>
+      <c r="E86" s="0"/>
+      <c r="F86" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I86" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="J86" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="K86" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="D87" s="0"/>
+      <c r="E87" s="0"/>
+      <c r="F87" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H87" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="K87" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="D88" s="0"/>
+      <c r="E88" s="0"/>
+      <c r="F88" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I88" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="K88" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="D89" s="0"/>
+      <c r="E89" s="0"/>
+      <c r="F89" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="K89" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="D90" s="0"/>
+      <c r="E90" s="0"/>
+      <c r="F90" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I90" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="J90" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="K90" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+      <c r="F91" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I91" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="J91" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="K91" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="J92" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="K92" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
+      <c r="F93" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I93" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="J93" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="K93" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D94" s="0"/>
+      <c r="E94" s="0"/>
+      <c r="F94" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I94" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="J94" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="K94" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="I95" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="J95" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="K95" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I96" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="J96" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="K96" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="J97" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="K97" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="D98" s="0"/>
+      <c r="E98" s="0"/>
+      <c r="F98" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I98" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="J98" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="K98" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
+      <c r="F99" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I99" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="J99" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="K99" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+      <c r="F100" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="I100" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="J100" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="K100" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="F101" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I101" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="J101" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="K101" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D102" s="0"/>
+      <c r="E102" s="0"/>
+      <c r="F102" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="I102" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="J102" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="K102" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="K103" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="D104" s="0"/>
+      <c r="E104" s="0"/>
+      <c r="F104" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="I104" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="K104" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>656</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
+      <c r="F105" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I105" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="J105" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="K105" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="J106" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="K106" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="D107" s="0"/>
+      <c r="E107" s="0"/>
+      <c r="F107" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I107" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="J107" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="K107" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="D108" s="0"/>
+      <c r="E108" s="0"/>
+      <c r="F108" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I108" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="J108" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="K108" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="D109" s="0"/>
+      <c r="E109" s="0"/>
+      <c r="F109" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I109" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="J109" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="K109" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="F110" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I110" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="J110" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="K110" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="D111" s="0"/>
+      <c r="E111" s="0"/>
+      <c r="F111" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I111" t="s" s="0">
+        <v>696</v>
+      </c>
+      <c r="J111" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="K111" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="D112" s="0"/>
+      <c r="E112" s="0"/>
+      <c r="F112" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H112" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="I112" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="J112" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="K112" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
+      <c r="F113" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="G113" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="J113" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="K113" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>711</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
+      <c r="F114" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="G114" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="I114" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="J114" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="K114" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
+      <c r="F115" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="G115" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I115" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="J115" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K115" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="F116" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="G116" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I116" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="J116" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="K116" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="G117" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H117" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="J117" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="K117" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>737</v>
+      </c>
+      <c r="D118" s="0"/>
+      <c r="E118" s="0"/>
+      <c r="F118" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="G118" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="I118" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="J118" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="K118" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="D119" s="0"/>
+      <c r="E119" s="0"/>
+      <c r="F119" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="G119" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="I119" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="J119" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="K119" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="D120" s="0"/>
+      <c r="E120" s="0"/>
+      <c r="F120" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="G120" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H120" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="I120" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="J120" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="K120" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="D121" s="0"/>
+      <c r="E121" s="0"/>
+      <c r="F121" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="G121" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I121" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="J121" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="K121" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="D122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="F122" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="G122" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H122" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I122" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="J122" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="K122" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="F123" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="G123" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I123" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="J123" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="K123" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
+      <c r="F124" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="G124" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H124" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="I124" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="J124" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="K124" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
+      <c r="F125" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="G125" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H125" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="I125" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="J125" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="K125" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="D126" s="0"/>
+      <c r="E126" s="0"/>
+      <c r="F126" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="G126" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I126" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="J126" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="K126" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
+      <c r="F127" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="G127" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H127" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I127" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="J127" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="K127" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="D128" s="0"/>
+      <c r="E128" s="0"/>
+      <c r="F128" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H128" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I128" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="J128" t="s" s="0">
+        <v>801</v>
+      </c>
+      <c r="K128" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="D129" s="0"/>
+      <c r="E129" s="0"/>
+      <c r="F129" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H129" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I129" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="J129" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="K129" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="D130" s="0"/>
+      <c r="E130" s="0"/>
+      <c r="F130" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="G130" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I130" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="J130" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="K130" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>815</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="D131" s="0"/>
+      <c r="E131" s="0"/>
+      <c r="F131" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I131" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="J131" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="K131" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>820</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="D132" s="0"/>
+      <c r="E132" s="0"/>
+      <c r="F132" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="G132" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I132" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="J132" t="s" s="0">
+        <v>825</v>
+      </c>
+      <c r="K132" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="D133" s="0"/>
+      <c r="E133" s="0"/>
+      <c r="F133" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="G133" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H133" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="J133" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="K133" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>832</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="D134" s="0"/>
+      <c r="E134" s="0"/>
+      <c r="F134" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="G134" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H134" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I134" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="J134" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="K134" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="D135" s="0"/>
+      <c r="E135" s="0"/>
+      <c r="F135" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="G135" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="J135" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="K135" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+      <c r="F136" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="G136" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I136" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="J136" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="K136" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="D137" s="0"/>
+      <c r="E137" s="0"/>
+      <c r="F137" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="G137" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H137" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I137" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="J137" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="K137" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>857</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="D138" s="0"/>
+      <c r="E138" s="0"/>
+      <c r="F138" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="G138" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H138" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I138" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="J138" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="K138" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>862</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="D139" s="0"/>
+      <c r="E139" s="0"/>
+      <c r="F139" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="G139" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H139" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I139" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="J139" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="K139" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>868</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="D140" s="0"/>
+      <c r="E140" s="0"/>
+      <c r="F140" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="G140" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H140" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I140" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="J140" t="s" s="0">
+        <v>873</v>
+      </c>
+      <c r="K140" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>874</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>876</v>
+      </c>
+      <c r="D141" s="0"/>
+      <c r="E141" s="0"/>
+      <c r="F141" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="G141" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="J141" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="K141" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/output/SmartScrappers_Team17_PCOS.xlsx
+++ b/src/test/resources/TestData/output/SmartScrappers_Team17_PCOS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="603">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -47,95 +47,6 @@
     <t>Targeted Morbid Conditions</t>
   </si>
   <si>
-    <t>7445</t>
-  </si>
-  <si>
-    <t>minty couscous recipe | healthy minty couscous salad | Indian style couscous | lemon mint couscous |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/minty-couscous-7445r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 tbsp chopped mint leaves (phudina)
-1/2 cup couscous
-1 cup low fat milk , 99.7 % fat-free
-1/2 cup chopped tomatoes
-1/2 cup chopped spring onions
-1/4 cup chopped coriander (dhania)
-2 tsp olive oil
-2 tsp lemon juice
-salt to taste
-</t>
-  </si>
-  <si>
-    <t>10 mins</t>
-  </si>
-  <si>
-    <t>4 mins</t>
-  </si>
-  <si>
-    <t>For minty couscous
-To make minty couscous, clean and wash the couscous thoroughly.
-Combine the couscous and milk in a deep non-stick pan, mix well and cook on a medium flame for 3 to 4 minutes or till it is tender. Keep aside to cool slightly.
-Combine all the ingredients, including the cooked couscous, in a deep bowl and mix gently.
-Refrigerate for at least half an hour.
-Serve the minty couscous chilled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 134 cal
-Protein 5.1 g
-Carbohydrates 21.8 g
-</t>
-  </si>
-  <si>
-    <t>PCOS</t>
-  </si>
-  <si>
-    <t>3883</t>
-  </si>
-  <si>
-    <t>masala chawli sabzi recipe | lobhia, black eyed beans sabzi | healthy lobhai masala sabzi |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/masala-chawli-3883r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup chawli (cow pea / lobhia) , soaked overnight and drained
-salt to taste
-1 tbsp coconut oil or oil
-1/2 cup finely chopped onions
-1 cup fresh tomato pulp
-1/2 tsp dried fenugreek leaves (kasuri methi)
-1/4 tsp turmeric powder (haldi)
-3/4 cup chopped mint leaves (phudina) , washed and drained
-1 tsp roughly chopped ginger (adrak)
-2 tsp roughly chopped green chillies
-1/2 tsp lemon juice
-</t>
-  </si>
-  <si>
-    <t>15 mins</t>
-  </si>
-  <si>
-    <t>23 mins</t>
-  </si>
-  <si>
-    <t>For masala chawli
-To make masala chawli, first prepare the mint paste by putting in a mixer, mint leaves, ginger, green chillies, lemon juice and 2 tbsp water. Grind to a smooth paste.
-Combine the soaked chawli, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 2 whistles.
-Allow the steam to escape before opening the lid. Do not discard the water. Keep aside.
-Heat the coconut oil or oil in a deep non-stick pan, add the onions and sauté on a medium flame for 1 to 2 minutes.
-Add the fresh tomato pulp, the dried fenugreek leaves, turmeric powder, a little salt, cooked chawli along with the water, mint paste and mix well.
-Cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
-Serve masala chawli hot with bajra roti or roti.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 122 cal
-Protein 5.8 g
-Carbohydrates 15.2 g
-</t>
-  </si>
-  <si>
     <t>39683</t>
   </si>
   <si>
@@ -143,6 +54,12 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/cabbage-masala---healthy-sabzi-39683r</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Veg</t>
   </si>
   <si>
     <t xml:space="preserve">4 cups shredded cabbage
@@ -161,6 +78,9 @@
 </t>
   </si>
   <si>
+    <t>10 mins</t>
+  </si>
+  <si>
     <t>12 mins</t>
   </si>
   <si>
@@ -175,6 +95,9 @@
 Protein 3.2 g
 Carbohydrates 9.3 g
 </t>
+  </si>
+  <si>
+    <t>PCOS</t>
   </si>
   <si>
     <t>40185</t>
@@ -233,6 +156,9 @@
 </t>
   </si>
   <si>
+    <t>15 mins</t>
+  </si>
+  <si>
     <t>For healthy garlic oats and vegetable soup
 To make healthy garlic oats and vegetable soup, heat the oil in a deep non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
 Add the mixed vegetables, 3 cups of water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
@@ -246,91 +172,6 @@
 </t>
   </si>
   <si>
-    <t>39681</t>
-  </si>
-  <si>
-    <t>baingan ki sukhi sabzi recipe | brinjal methi sabzi | baingan tamatar sabzi | healthy eggplant Indian vegetable |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/baingan-methi-ki-sabzi-39681r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 cups brinjal (baingan / eggplant) cubes
-2 cups chopped fenugreek leaves (methi)
-1 cup finely chopped tomatoes
-2 tsp oil
-1 tsp mustard seeds ( rai / sarson)
-1/2 cup finely chopped onions
-1 tbsp finely chopped garlic (lehsun)
-1 tsp grated ginger (adrak)
-3/4 tsp turmeric powder (haldi)
-salt to taste
-2 tsp dried mango powder (amchur)
-1 tsp lemon juice
-6 whole dry kashmiri red chillies , broken into pieces
-2 tsp coriander (dhania) seeds
-2 tbsp urad dal (split black lentils)
-2 tsp poppy seeds (khus-khus)
-1 tbsp sesame seeds (til)
-</t>
-  </si>
-  <si>
-    <t>20 mins</t>
-  </si>
-  <si>
-    <t>17 mins</t>
-  </si>
-  <si>
-    <t>For baingan methi ki sabzi
-To make baingan methi sabzi first prepare the roasted and ground masala powder
-Heat the oil in a non-stick kadhai and add the mustard seeds.
-When the seeds crackle, add the onions, garlic, ginger and sauté on medium heat for 2 minutes till onions are translucent.
-Add the brinjals, fenugreek leaves , tomatoes and cook on medium heat for 5 minutes.
-Add turmeric powder, salt and ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
-Add the prepared masala powder and dried mango powder, mix well and cook on a medium flame for another 1 to 2 minutes, while stirring occasionally.
-Add the lemon juice and mix well.
-Serve baingan methi sabzi hot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 96 cal
-Protein 4.3 g
-Carbohydrates 10.4 g
-</t>
-  </si>
-  <si>
-    <t>40603</t>
-  </si>
-  <si>
-    <t>baingan bhaja recipe | Bengali begun bhaja | healthy eggplant snack | how to make healthy begun bhaja |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/baingan-bhaja-bengali-begun-bhaja-40603r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 big brinjal (baingan / eggplant) slices
-2 tsp chilli powder
-1/2 tsp turmeric powder (haldi)
-1 tbsp lemon juice
-1/4 cup besan (bengal gram flour)
-salt to taste
-2 tsp oil for greasing and cooking
-</t>
-  </si>
-  <si>
-    <t>For baingan bhaja
-To make baingan bhaja, combine the chilli powder, turmeric powder, lemon juice, besan, salt and 2 tbsp of water in a deep bowl and mix well.
-Add the baingan slices and mix well. Keep aside.
-Heat a non-stick tava (griddle), grease it with ½ tsp of oil, arrange half the baingan slices and cook using ½ tsp of oil on both the sides till golden brown in colour.
-Repeat step 3 to make 1 more batch.
-Serve the baingan bhaja immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 43 cal
-Protein 1.5 g
-Carbohydrates 4.6 g
-</t>
-  </si>
-  <si>
     <t>42785</t>
   </si>
   <si>
@@ -338,6 +179,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/methi-bajra-paratha-42785r</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
   </si>
   <si>
     <t xml:space="preserve">1/2 cup bajra (black millet) flour
@@ -378,6 +222,9 @@
     <t>https://www.tarladalal.com/how-to-sprout-moong-mung-beans-40323r</t>
   </si>
   <si>
+    <t>Snack</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 cup moong (whole green gram) , washed and drained
 salt to taste
 1/4 tsp turmeric powder (haldi)
@@ -395,109 +242,6 @@
     <t xml:space="preserve">Energy 256 cal
 Protein 18.4 g
 Carbohydrates 43.5 g
-</t>
-  </si>
-  <si>
-    <t>22444</t>
-  </si>
-  <si>
-    <t>spinach tahini wrap recipe | healthy spinach wrap Indian style | spinach wrap with tahini spread | healthy spinach roll | healthy recipe for pregnancy |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/spinach-tahini-wraps--nutritious-recipe-for-pregnancy-22444r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups whole wheat flour (gehun ka atta)
-1/4 cup spinach (palak) puree
-2 tsp oil
-1/2 tsp salt
-1 cup grated and boiled mixed vegetables (carrots , french bean and potatoes)
-1/2 cup finely chopped onions
-2 green chillies , finely chopped
-2 tbsp chopped coriander (dhania)
-2 tsp oil
-salt to taste
-1/2 cup sesame seeds (til)
-1/3 cup chana dal (split bengal gram)
-2 tsp vinegar
-2 tbsp fresh curd (dahi)
-1 garlic clove , chopped
-1 green chilli , chopped
-salt to taste
-4 whole dry red chillies (pandi) , soaked
-3 to 4 garlic (lehsun) cloves
-1 tsp lemon juice
-1 tbsp water
-salt to taste
-1 cup lettuce , torn into pieces
-</t>
-  </si>
-  <si>
-    <t>25 mins</t>
-  </si>
-  <si>
-    <t>For the roti
-Combine all the ingredients and knead to a soft dough adding enough water. Keep aside for ½ hour.
-Divide the dough into 6 equal portions and roll out each portion into 150 mm. (6") diameter roti.
-Cook each roti lightly on both sides on a tava (griddle) and keep aside.
-For the filling
-Heat the oil in a pan, add the onions and sauté till they turn translucent.
-Add the mixed vegetables, green chillies, coriander and salt and sauté for another minute.
-Divide into 6 equal portions and keep aside.
-For the spicy tahini paste
-Roast the sesame seeds and chana dal separately on a tava (griddle). Grind them together in a mixer to a fine powder.
-Remove the powder in a bowl, add all the remaining ingredients and mix well.
-Keep refrigerated for atleast an hour.
-How to proceed
-Place one roti on a clean dry surface.
-Put an even layer of lettuce on it.
-Spread a thin layer of the spicy tahini paste on the lettuce and then a portion of the filling.
-Spread a little chilli-garlic paste on top of the filling and roll up tightly.
-Repeat with the remaining ingredients to make 5 more wraps. Serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 305 cal
-Protein 10.5 g
-Carbohydrates 45.6 g
-</t>
-  </si>
-  <si>
-    <t>22312</t>
-  </si>
-  <si>
-    <t>one meal soup recipe | healthy Indian dal vegetable soup | low salt yellow dal vegetable soup |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/one-meal-soup-healthy-indian-dal-vegetable-soup-22312r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 cup yellow moong dal (split yellow gram) , washed and drained
-2 tsp oil
-1 tsp finely chopped garlic (lehsun)
-1 tsp finely chopped ginger (adrak)
-1/4 tsp green chilli paste
-1/2 cup finely chopped onions
-1 1/2 cups blanched chopped mixed vegetables
-salt and to taste
-1 tbsp finely chopped dill leaves
-2 tsp lemon juice
-</t>
-  </si>
-  <si>
-    <t>For one meal soup
-To make one meal soup, in a pressure cooker combine moong dal along with 1½ cups of water and pressure cook for 2 whistles.
-Allow the steam to escape before opening the lid. Keep aside.
-Heat the oil in a deep pan, add the garlic, ginger, green chilli paste and onions and sauté on a medium flame for 2 minutes.
-Add the blanched mixed vegetables and sauté on medium flame for 1 minute.
-Add the moong dal mixture, salt and pepper to taste along with 1½ cups of water.
-Mix well and cook on medium flame for 3 to 4 minutes.
-Garnish with the dill leaves and lemon juice and mix well.
-Serve the one meal soup hot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 102 cal
-Protein 4.9 g
-Carbohydrates 14.2 g
 </t>
   </si>
   <si>
@@ -527,6 +271,9 @@
 </t>
   </si>
   <si>
+    <t>25 mins</t>
+  </si>
+  <si>
     <t>For oats moong dal tikki
 To make oats moong dal tikki, clean, wash and boil the yellow moong dal in 1 cup of water in a deep pan till the dal is soft and cooked and all the water has evaporated.
 Drain and blend the dal in a mixer to a coarse paste.
@@ -543,37 +290,6 @@
 </t>
   </si>
   <si>
-    <t>3394</t>
-  </si>
-  <si>
-    <t>fresh turmeric and ginger pickle recipe | kachi haldi ka achar | haldi adrak ka achar | Indian style ginger turmeric pickle |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/fresh-turmeric-and-ginger-pickle-3394r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 cup peeled and sliced tender ginger (adrak)
-1/4 cup peeled and sliced fresh turmeric (amba halad)
-2 tbsp lemon juice
-1 tsp salt
-</t>
-  </si>
-  <si>
-    <t>0 mins</t>
-  </si>
-  <si>
-    <t>For fresh turmeric and ginger pickle
-To make the fresh turmeric and ginger pickle, combine all the ingredients in a deep bowl and mix well.
-Transfer it to an air-tight glass jar, close the lid and set it aside in a cool, dry place for 4 to 5 hours for the flavours to blend well.
-Serve or store the fresh turmeric and ginger pickle refrigerated in the same glass jar. It stays fresh upto 6 to 8 months when refrigerated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 34 cal
-Protein 0.6 g
-Carbohydrates 6.7 g
-</t>
-  </si>
-  <si>
     <t>42374</t>
   </si>
   <si>
@@ -604,50 +320,16 @@
 </t>
   </si>
   <si>
-    <t>6224</t>
-  </si>
-  <si>
-    <t>carrot, spinach and parsley juice recipe | Indian carrot parsley juice | spinach carrot celery juice for detox |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/carrot-spinach-and-parsley-vegetabe-juice-6224r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 cups carrot cubes , peeled
-1/4 cup roughly chopped spinach (palak)
-1/4 cup roughly chopped parsley stems with leaves
-2 tbsp roughly chopped celery (ajmoda) sticks
-1 tbsp lemon juice
-12 ice-cubes
-</t>
+    <t>5535</t>
+  </si>
+  <si>
+    <t>garlic vegetable soup recipe | easy healthy clear vegetable soup | mix vegetable garlic soup | mix vegetable soup for weight loss |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/garlic-vegetable-soup---healthy-heart-5535r</t>
   </si>
   <si>
     <t>5 mins</t>
-  </si>
-  <si>
-    <t>Carrot, spinach and parsley juice in vitamix
-To make carrot, spinach and parsley juice in vitamix, combine the carrots, spinach, parsley, celery, lemon juice and 2½ cups of water and ice cubes in a high quality blender jar (like vitamix) and blend well till smooth and frothy.
-Serve immediately.
-Carrot, spinach and parsley juice in juicer
-Add the carrot cubes, chopped spinach, chopped parsley and chopped celery sticks a few at a time in the juicer.
-Add lemon juice and mix well.
-Add 3 ice-cubes in each of the 4 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
-Serve carrot, spinach and parsley juice immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 28 cal
-Protein 0.7 g
-Carbohydrates 5.9 g
-</t>
-  </si>
-  <si>
-    <t>5535</t>
-  </si>
-  <si>
-    <t>garlic vegetable soup recipe | easy healthy clear vegetable soup | mix vegetable garlic soup | mix vegetable soup for weight loss |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/garlic-vegetable-soup---healthy-heart-5535r</t>
   </si>
   <si>
     <t>For garlic vegetable soup
@@ -739,6 +421,9 @@
     <t>https://www.tarladalal.com/bajra-roti-3892r</t>
   </si>
   <si>
+    <t>Lunch</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 cups bajra (black millet) flour
 1/4 cup whole wheat flour (gehun ka atta)
 salt to taste
@@ -746,6 +431,9 @@
 4 tsp ghee for smearing
 white butter
 </t>
+  </si>
+  <si>
+    <t>20 mins</t>
   </si>
   <si>
     <t>For bajra roti
@@ -766,73 +454,6 @@
 </t>
   </si>
   <si>
-    <t>35094</t>
-  </si>
-  <si>
-    <t>multiseed mukhwas | multi seed mukhwas | 4 seed healthy mukhwas | how to make multiseed mukhwas |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/multiseed-mukhwas--omega-3-fatty-acids-and-fibre-rich-recipe--35094r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 cup flax seeds
-1/4 cup black sesame seeds (kala til)
-1/4 cup white sesame seeds (til)
-1/4 cup fennel seeds (saunf)
-1 tbsp lemon juice
-1/2 tsp salt
-1/2 tsp powdered sugar
-</t>
-  </si>
-  <si>
-    <t>3 mins</t>
-  </si>
-  <si>
-    <t>Combine all the ingredients in a bowl, add the lemon juice and salt and mix well. Cover and keep aside for 1 hour.
-Dry roast it on a broad non-stick pan for 2 to 3 minutes till it starts giving a good aroma.
-Cool slightly, add the sugar and mix well.
-Cool completely and store in an air-tight container.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 43 cal
-Protein 1.4 g
-Carbohydrates 2.4 g
-</t>
-  </si>
-  <si>
-    <t>36139</t>
-  </si>
-  <si>
-    <t>walnut and cherry tomato salad recipe | 10 minute tomato walnut salad | healthy Indian cherry tomato salad with walnuts |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/walnut-and-cherry-tomato-salad-quick-cherry-tomato-salad-36139r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups cherry tomatoes , cut into halves
-1/4 cup roughly chopped walnuts (akhrot)
-1/4 cup chopped capsicum
-1/2 cup basil leaves , torn into pieces
-2 tsp roasted sesame seeds (til)
-2 tsp olive oil
-2 tsp honey
-1 tsp lemon juice
-salt to taste
-</t>
-  </si>
-  <si>
-    <t>For walnut and cherry tomato salad
-To make walnut and cherry tomato salad, combine the cherry tomatoes, walnuts, capsicum, basil leaves and sesame seeds in a bowl.
-Add the dressing and toss well.
-Serve the walnut and cherry tomato salad immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 113 cal
-Protein 2.3 g
-Carbohydrates 7.5 g
-</t>
-  </si>
-  <si>
     <t>763</t>
   </si>
   <si>
@@ -840,6 +461,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t>Jain</t>
   </si>
   <si>
     <t xml:space="preserve">2 tbsp sprouted moong (whole green gram)
@@ -856,6 +480,9 @@
 </t>
   </si>
   <si>
+    <t>0 mins</t>
+  </si>
+  <si>
     <t>For anti- aging breakfast platter
 To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
 Arrange all the ingredients on a platter and serve immediately.</t>
@@ -864,85 +491,6 @@
     <t xml:space="preserve">Energy 324 cal
 Protein 15 g
 Carbohydrates 46.1 g
-</t>
-  </si>
-  <si>
-    <t>41719</t>
-  </si>
-  <si>
-    <t>Kokum and Chia Seed Drink</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/kokum-and-chia-seed-drink-41719r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup semi dried kokum
-1 1/2 tsp chia seeds or falooda seeds (subza)
-2 tbsp powdered sugar
-</t>
-  </si>
-  <si>
-    <t>Combine the chia seeds and ¼ cup water in a small bowl, mix well and keep aside for 30 minutes.
-Combine the semi-dried kokum and ½ cup of water in a deep bowl, mix well and keep aside for 30 minutes.
-Blend the soaked kokum in a mixer along with the kokum water and blend till smooth.
-Transfer the kokum mixture and 2½ cups of cold water in a deep bowl and mix well.
-Strain the mixture using a strainer.
-Add the powdered sugar and the chia seeds and mix well.
-Pour equal quantities of the drink into 4 individual glasses.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 31 cal
-Protein 0.3 g
-Carbohydrates 6 g
-</t>
-  </si>
-  <si>
-    <t>42265</t>
-  </si>
-  <si>
-    <t>quinoa upma recipe | vegetable quinoa upma | veg Indian upma | how to make quinoa upma |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/quinoa-veg-upma-vegan-breakfast-42265r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup quinoa , washed and drained
-2 tsp oil
-1/2 tsp mustard seeds ( rai / sarson)
-1/4 tsp asafoetida (hing)
-1 tsp finely chopped green chillies
-1/2 tsp finely chopped ginger (adrak)
-4 curry leaves (kadi patta)
-2 tbsp raw peanuts
-1/2 cup finely chopped onions
-1/2 cup green peas
-1/4 cup finely chopped carrot
-1/4 tsp chilli powder
-salt to taste
-1/4 cup finely chopped coriander (dhania)
-1 tsp lemon juice
-</t>
-  </si>
-  <si>
-    <t>28 mins</t>
-  </si>
-  <si>
-    <t>For quinoa veg upma
-To make quinoa veg upma, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for a few seconds.
-Add the green chillies, ginger and curry leaves and sauté on a medium flame for a few seconds.
-Add the peanuts and sauté on a medium flame for 1 minute.
-Add the onions and sauté on a medium flame for 2 minutes.
-Add the green peas and carrot and sauté on a medium flame for 2 minutes.
-Add the quinoa and sauté on a medium flame for 1 minute.
-Add the chilli powder, salt and 2¼ cups of hot water, mix well cover with a lid and cook on a medium flame for 20 to 22 minutes, while stirring occasionally.
-Switch off the flame, add the coriander and lemon juice and mix well.
-Serve the quinoa veg upma immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 150 cal
-Protein 5.3 g
-Carbohydrates 22.8 g
 </t>
   </si>
   <si>
@@ -985,33 +533,6 @@
 </t>
   </si>
   <si>
-    <t>41707</t>
-  </si>
-  <si>
-    <t>honey lemon water recipe | lemon honey water | madh ka paani | Indian honey lemon water |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/honey-lemon-water-for-weight-loss-41707r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 tsp lemon juice
-1 tsp honey , optional
-2 cups warm water
-</t>
-  </si>
-  <si>
-    <t>For honey lemon water
-To make honey lemon water, combine all ingredients in a deep bowl and mix well.
-Pour equal quantities of the drink into 2 individual glasses.
-Serve the honey lemon water immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 16 cal
-Protein 0.1 g
-Carbohydrates 4 g
-</t>
-  </si>
-  <si>
     <t>38028</t>
   </si>
   <si>
@@ -1061,6 +582,9 @@
     <t>https://www.tarladalal.com/usal--healthy-subzi-6420r</t>
   </si>
   <si>
+    <t>Vegetarian, Veg</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 cup mixed sprouts (moong , chana , matki etc.)
 2 tsp oil
 1 tsp cumin seeds (jeera)
@@ -1088,100 +612,6 @@
     <t xml:space="preserve">Energy 98 cal
 Protein 3.2 g
 Carbohydrates 10.4 g
-</t>
-  </si>
-  <si>
-    <t>39749</t>
-  </si>
-  <si>
-    <t>jowar upma recipe | vegetable jowar upma | homemade jowar rava upma | jowar atta upma |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/jowar-upma-39749r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup jowar (white millet) flour
-2 tsp oil
-1 tsp mustard seeds ( rai / sarson)
-1 tsp urad dal (split black lentils)
-1/4 tsp asafoetida (hing)
-5 to 6 curry leaves (kadi patta)
-1/2 cup finely chopped onions
-1/2 cup semolina (rava / sooji)
-1/2 cup boiled green peas
-2 tsp green chilli paste
-2 tbsp finely chopped coriander (dhania)
-salt to taste
-1 1/2 tbsp lemon juice
-</t>
-  </si>
-  <si>
-    <t>9 mins</t>
-  </si>
-  <si>
-    <t>Heat the oil in a deep non-stick pan, add the mustard seeds and urad dal.
-When the mustard seeds crackle, add the asafoetida and curry leaves and sauté on a medium flame for a few seconds.
-Add the onions and sauté on a medium flame for 1 minute.
-Add the semolina and sauté on a medium flame for another 2 minutes.
-Add the jowar flour and sauté on a medium flame for 2 more minutes.
-Add the green peas, green chilli paste, coriander and salt and mix well.
-Add 3 cups of hot water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring continuously.
-Add the lemon juice and mix well.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 206 cal
-Protein 6.3 g
-Carbohydrates 37.8 g
-</t>
-  </si>
-  <si>
-    <t>22308</t>
-  </si>
-  <si>
-    <t>poha nachni handvo recipe | nachni handvo | snacks for hypertension | Indian snack for high blood pressure |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/poha-nachni-handvo-22308r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup thick beaten rice (jada poha) , washed and drained
-1/2 cup ragi (nachni / red millet) flour
-1/2 cup curd (dahi)
-1/2 cup grated bottle gourd (doodhi / lauki)
-1/2 cup grated carrot
-1/4 cup boiled green peas
-2 tsp ginger-green chilli paste
-1 tsp sugar
-1/8 tsp turmeric powder (haldi)
-1/8 tsp chilli powder
-1/4 tsp salt
-1 tsp oil
-1 tsp mustard seeds ( rai / sarson)
-2 tsp sesame seeds (til)
-1/8 tsp asafoetida (hing)
-1 tsp oil for greasing
-</t>
-  </si>
-  <si>
-    <t>60 mins</t>
-  </si>
-  <si>
-    <t>Combine the curds and 1½ cups of water in a deep bowl and whisk well.
-Add the poha, mix well and keep aside for 20 minutes.
-Add the bottle gourd, carrot, green peas, ginger-green chilli paste, sugar, turmeric powder, chilli powder and salt and mix well. Keep aside.
-Heat the oil in a small non-stick pan, add the mustard seeds, sesame seeds and asafoetida and sauté on a medium flame for 30 seconds.
-Add this tempering to the poha- curd-vegetable mixture and mix well.
-Add the nachni flour and mix well.
-Divide the batter into 6 equal portions.
-Heat a 100 mm. (4”) diameter non-stick pan and grease it with ¼ tsp of oil. Pour a portion of the batter on it and spread it evenly, cover with a lid and cook on a medium flame for 10 to 12 minutes or till both the sides turn golden brown in colour.
-Repeat step 8 to make 5 more handvos.
-Cut each handvo into 4 equal portions and serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 125 cal
-Protein 2.9 g
-Carbohydrates 20.1 g
 </t>
   </si>
   <si>
@@ -1282,51 +712,6 @@
 </t>
   </si>
   <si>
-    <t>7440</t>
-  </si>
-  <si>
-    <t>oats and vegetable broth recipe | vegetable oats soup | Indian vegetable soup with oats | healthy oats soup |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/oats-and-vegetable-broth-7440r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup quick cooking rolled oats
-2 tbsp finely chopped tomatoes
-2 tbsp finely chopped capsicum
-2 tbsp finely chopped cauliflower
-2 tbsp finely chopped carrot
-2 tbsp finely chopped cabbage
-2 tsp oil
-1/4 cup finely chopped onions
-2 tsp finely chopped garlic (lehsun)
-1 tsp finely chopped green chillies
-salt and to taste
-2 tbsp finely chopped coriander (dhania)
-1/4 cup finely chopped parsley
-2 tsp lemon juice
-</t>
-  </si>
-  <si>
-    <t>7 mins</t>
-  </si>
-  <si>
-    <t>For oats and vegetable broth
-To make oats and vegetable broth, heat the oil in a deep non-stick pan, add the onions, garlic and green chillies and sauté on a medium flame for 1 minute.
-Add all the vegetables and sauté on a medium flame for another 2 minutes.
-Add the oats and sauté on a medium flame for 1 more minute.
-Add 3 cups of hot water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
-Add the coriander and parsley, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Add the lemon juice and mix well.
-Serve the oats and vegetable broth immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 90 cal
-Protein 2.4 g
-Carbohydrates 12.7 g
-</t>
-  </si>
-  <si>
     <t>41017</t>
   </si>
   <si>
@@ -1334,6 +719,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/spinach-dosa-41017r</t>
+  </si>
+  <si>
+    <t>Breakfast, Snack</t>
   </si>
   <si>
     <t xml:space="preserve">1/2 cup spinach (palak) puree , refer handy tip
@@ -1720,6 +1108,9 @@
     <t>https://www.tarladalal.com/cabbage-carrot-and-lettuce-salad-7442r</t>
   </si>
   <si>
+    <t>Vegan, Veg</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 cup shredded cabbage
 1 cup coarsely grated carrot
 1/2 cup shredded lettuce
@@ -1797,89 +1188,6 @@
     <t xml:space="preserve">Energy 42 cal
 Protein 0.7 g
 Carbohydrates 4.2 g
-</t>
-  </si>
-  <si>
-    <t>38987</t>
-  </si>
-  <si>
-    <t>oats upma | oats upma with vegetables |healthy Indian oats upma | quick oats upma |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/oats-upma---breakfast-recipes-38987r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups quick cooking rolled oats
-3 tsp olive oil or oil
-1 tsp turmeric powder (haldi)
-1 tsp mustard seeds ( rai / sarson)
-1 tsp urad dal (split black lentils)
-5 to 6 curry leaves (kadi patta)
-1 whole dry kashmiri red chilli , broken into pieces
-2 green chillies , slit
-1/2 cup finely chopped onions
-1/4 cup finely chopped carrot
-1/4 cup green peas
-1 tsp sugar , optional
-salt to taste
-2 tbsp finely chopped coriander (dhania)
-</t>
-  </si>
-  <si>
-    <t>For oats upma
-To make oats upma, heat 1 tsp of olive oil in a non-stick pan, add the oats and ½ tsp of turmeric powder and sauté on a medium flame for 3 to 4 minutes or till it turns light brown in colour, stirring occasionally. Keep aside.
-Heat the remaining 2 tsp of olive oil in a broad non-stick pan and add the mustard seeds.
-When the seeds crackle, add the urad dal, curry leaves, red chillies and green chillies and sauté on a medium flame for 1 minute.
-Add the onions and sauté on a medium flame for 1 minute or till the onions turn translucent.
-Add the carrots and green peas and sauté on a medium flame for 2 minutes.
-Add the oats mixture, sugar, salt and remaining ½ tsp of turmeric powder, mix well and cook on a medium flame for 1 minute, stirring continuously.
-Add 1½ cups of hot water, cover and cook on a slow flame for 2 minutes, stirring occasionally.
-Serve the oats upma immediately garnished with coriander.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 207 cal
-Protein 7.4 g
-Carbohydrates 30.6 g
-</t>
-  </si>
-  <si>
-    <t>22446</t>
-  </si>
-  <si>
-    <t>chawli masoor dal recipe | amaranth leaves dal with lentil | Indian chaulai dal |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/healthy-chawli-masoor-dal-indian-chaulai-dal-22446r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup chopped green chawli (amaranth) leaves
-1/2 cup masoor (split red lentil) dal , washed and drained
-1/4 tsp turmeric powder (haldi)
-salt to taste
-2 tsp ghee
-1 tsp cumin seeds (jeera)
-1 tsp lemon juice
-1 tbsp coriander (dhania) seeds
-1/2 tbsp cumin seeds (jeera)
-1 tsp chopped garlic (lehsun)
-1 tsp chopped ginger (adrak)
-2 whole dry kashmiri red chillies , broken into pieces
-</t>
-  </si>
-  <si>
-    <t>For chawli masoor dal
-To make healthy chawli masoor dal, combine the masoor dal, turmeric powder, salt and 1½ cups of water in a pressure cooker, mix well and pressure cook for 2 whistles.
-Allow the steam to escape before opening the lid. Keep aside.
-Heat the ghee in a deep non-stick pan and add the cumin seeds.
-When the seeds crackle, add the chawli leaves, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Add the cooked masoor dal, prepared paste, a little salt and 3/4 cup of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
-Switch off the flame, add the lemon juice and mix well.
-Serve the healthy chawli masoor dal hot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 125 cal
-Protein 6.9 g
-Carbohydrates 16.2 g
 </t>
   </si>
   <si>
@@ -1960,41 +1268,6 @@
 </t>
   </si>
   <si>
-    <t>22575</t>
-  </si>
-  <si>
-    <t>tahini dip recipe | Indian style tahini sauce | how to make tahini | tahini yoghurt dip |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/tahini-dip-lebanese-tahini-sauce-22575r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup thick fresh curd (dahi) , whisked
-2 tbsp sesame seeds (til)
-2 tsp lemon juice
-2 tbsp olive oil
-1 tsp roughly chopped garlic (lehsun)
-salt to taste
-pita bread
-lavash
-</t>
-  </si>
-  <si>
-    <t>For the tahini paste
-Roast the sesame seeds in a non-stick tava (griddle) on a medium flame for a few seconds.
-Allow it to cool completely, transfer to a bowl and add the olive oil, lemon juice, garlic and salt.
-Blend to a coarse paste. Keep aside.
-How to proceed to make tahini dip
-To make tahini dip, combine the curds and the prepared tahini paste in a bowl and mix well using a whisk.
-Serve the tahini dip chilled with pita bread or lavash.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 46 cal
-Protein 0.9 g
-Carbohydrates 1.4 g
-</t>
-  </si>
-  <si>
     <t>39024</t>
   </si>
   <si>
@@ -2030,6 +1303,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/sprouts-pancakes-31058r</t>
+  </si>
+  <si>
+    <t>Breakfast, Lunch, Snack</t>
   </si>
   <si>
     <t xml:space="preserve">1 cup sprouted moong (whole green gram)
@@ -2170,37 +1446,6 @@
     <t xml:space="preserve">Energy 88 cal
 Protein 3.2 g
 Carbohydrates 14.1 g
-</t>
-  </si>
-  <si>
-    <t>39015</t>
-  </si>
-  <si>
-    <t>carrot melon orange juice recipe | detox cantaloupe carrot orange juice | immunity boosting cantaloupe carrot juice | kharbuja gajar santre ka juice |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/carrot-melon-orange-juice-kharbuja-gajar-santre-ka-juice-39015r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 1/2 cups chilled and roughly chopped muskmelon (kharbooja)
-1 cup chilled and roughly chopped orange
-1 cup chilled carrot juliennes
-1 tsp lemon juice
-1 tsp sugar , optional
-8 ice-cubes
-</t>
-  </si>
-  <si>
-    <t>For carrot melon orange juice
-To make carrot melon orange juice, add the muskmelon, orange and carrots a few at a time in a hopper.
-Add the lemon juice and sugar to the juice and mix well.
-Pour equal quantities of the juice into 4 individual glasses.
-Serve the carrot melon orange juice, immediately topped with 2 ice-cubes in each glass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 49 cal
-Protein 0.8 g
-Carbohydrates 10.6 g
 </t>
   </si>
   <si>
@@ -2317,46 +1562,6 @@
     <t xml:space="preserve">Energy 30 cal
 Protein 1.6 g
 Carbohydrates 5 g
-</t>
-  </si>
-  <si>
-    <t>22453</t>
-  </si>
-  <si>
-    <t>palak urad dal sabzi recipe | urad dal with spinach | healthy urad dal palak sukha sabzi |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/urad-dal-and-palak-sabzi-22453r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup urad dal (split black lentils) , soaked for 1 hour and drained
-1 cup finely chopped spinach (palak)
-salt to taste
-1/4 tsp turmeric powder (haldi)
-1 tbsp oil
-1/2 tsp caraway seeds (shahjeera)
-1/2 cup finely chopped onions
-1/2 cup finely chopped tomatoes
-2 tsp finely chopped green chillies
-1/2 tsp chilli powder
-2 tsp lemon juice
-</t>
-  </si>
-  <si>
-    <t>For urad dal and palak sabzi
-To make urad dal and palak sabzi, combine the urad dal with approx. 1 cup of water, salt and turmeric powder in a deep non-stick kadhai, mix well and cook on a medium flame for 10 to 12 minutes, till the dal is cooked and soft. Keep aside.
-Heat the oil in a broad non-stick pan, add the caraway seeds and sauté on a medium flame for a few seconds.
-Add the onions and sauté on a medium flame for 1 minute.
-Add the tomatoes, green chillies and chilli powder, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
-Add the spinach and 1 tbsp of water, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Add the salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Add the cooked urad dal and lemon juice, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Serve the urad dal and palak sabzi hot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 289 cal
-Protein 14.1 g
-Carbohydrates 38.5 g
 </t>
   </si>
   <si>
@@ -2495,36 +1700,6 @@
 </t>
   </si>
   <si>
-    <t>40748</t>
-  </si>
-  <si>
-    <t>Zucchini, Bell Pepper and Sprouted Moong Salad</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/zucchini-bell-pepper-and-sprouted-moong-salad-40748r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 cup finely chopped zucchini (unpeeled)
-1/4 cup finely chopped red capsicum
-1/4 cup finely chopped yellow capsicum
-1/4 cup finely chopped green capsicum
-2 cups parboiled sprouted moong (whole green gram)
-3/4 cup chopped apple (unpeeled and deseeded)
-1 tbsp olive oil
-2 tsp lemon juice
-salt and to taste
-</t>
-  </si>
-  <si>
-    <t>Combine all the ingredients in a deep bowl and toss well. Serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 161 cal
-Protein 8 g
-Carbohydrates 22.6 g
-</t>
-  </si>
-  <si>
     <t>1694</t>
   </si>
   <si>
@@ -2599,84 +1774,6 @@
     <t xml:space="preserve">Energy 65 cal
 Protein 2.1 g
 Carbohydrates 12 g
-</t>
-  </si>
-  <si>
-    <t>4631</t>
-  </si>
-  <si>
-    <t>masoor dal and paneer soup recipe | masoor dal soup for weight loss | healthy dal paneer soup |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/masoor-dal-and-paneer-soup-4631r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 cup masoor (split red lentil) dal , washed and drained
-1/4 cup low fat paneer (cottage cheese) cubes
-2 tsp oil
-1/2 cup sliced onions
-1/2 tsp crushed garlic (lehsun)
-1/4 tsp chilli powder
-3/4 cup chopped tomatoes
-salt to taste
-2 tsp lemon juice
-</t>
-  </si>
-  <si>
-    <t>For masoor dal and paneer soup
-To make masoor dal and paneer soup, heat 1 tsp of oil in a pressure cooker, add the onions and sauté on a medium flame for 1 to 2 minutes.
-Add the garlic and chilli powder and sauté on a medium flame for a few seconds.
-Add the masoor dal, tomatoes and 2½ cups of water, mix well and pressure cook for 3 whistles.
-Allow the steam to escape before opening the lid. Cool slightly and blend in a mixer to a smooth purée.
-Transfer the purée into a deep non-stick pan, add the salt and mix well.
-Bring to a boil and simmer for 2 minutes.
-Meanwhile, heat the remaining 1 tsp of oil in a small broad pan.
-Add the paneer cubes and saute on a medium flame for 1 minute.
-Add the sauteed paneer cubes and lemon juice to the soup and mix gently.
-Serve the masoor dal and paneer soup immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 89 cal
-Protein 4.9 g
-Carbohydrates 11.1 g
-</t>
-  </si>
-  <si>
-    <t>41565</t>
-  </si>
-  <si>
-    <t>Matki Sabzi</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/matki-sabzi-41565r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 cups boiled sprouted matki (moath beans)
-2 tsp oil
-1 tsp mustard seeds ( rai / sarson)
-1/4 tsp asafoetida (hing)
-1 1/2 tsp chilli powder
-1/4 tsp turmeric powder (haldi)
-2 tsp coriander (dhania) powder
-salt to taste
-1 tsp sugar
-2 tbsp finely chopped coriander (dhania)
-1 tsp lemon juice
-phulkas
-</t>
-  </si>
-  <si>
-    <t>For matki sabzi
-To make matki sabzi, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for few seconds.
-Add the matki, chilli powder, turmeric powder, coriander powder, salt and sugar, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
-Add the coriander and mix well.
-Switch off the flame, add the lemon juice and mix well.
-Serve the matki sabzi hot with phulkas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 205 cal
-Protein 12.6 g
-Carbohydrates 31.7 g
 </t>
   </si>
   <si>
@@ -2776,39 +1873,6 @@
 </t>
   </si>
   <si>
-    <t>5613</t>
-  </si>
-  <si>
-    <t>Avocado Salad ( Recipe for Shiny Hair)</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-salad--recipe-for-shiny-hair-5613r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup roughly chopped avocado
-1/2 cup sliced capsicum
-1/2 cup tomato strips , deseeded
-1 cup sliced and blanched baby corn
-1/2 cup cucumber strips
-2 tsp honey
-3/4 tbsp lemon juice
-2 tsp finely chopped mint leaves (phudina)
-salt and freshly ground black pepper (kalimirch) to taste
-</t>
-  </si>
-  <si>
-    <t>For avocado salad
-Combine the all the ingredients in a deep bowl and mix well.
-Add the dressing and toss well.
-Serve the avocado salad immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 95 cal
-Protein 1.6 g
-Carbohydrates 13.3 g
-</t>
-  </si>
-  <si>
     <t>3546</t>
   </si>
   <si>
@@ -3048,35 +2112,6 @@
 </t>
   </si>
   <si>
-    <t>32705</t>
-  </si>
-  <si>
-    <t>hare lehsun ki chutney recipe | dhaniya lahsun ki chutney | healthy green garlic chutney |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/hare-lehsun-ki-chutney-32705r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup chopped coriander (dhania)
-1/2 cup chopped fresh green garlic (hara lehsun) , including the greens
-1 tbsp roasted chana dal (daria)
-1 tsp lemon juice
-1 tbsp roughly chopped green chillies
-salt to taste
-</t>
-  </si>
-  <si>
-    <t>For hare lehsun ki chutney
-To make hare lehsun ki chutney, combine all the ingredients along with 5 tbsp of water in a mixer and blend till smooth.
-Store the hare lehsun ki chutney in an air-tight container, refrigerate and use as required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 3 cal
-Protein 0.2 g
-Carbohydrates 0.4 g
-</t>
-  </si>
-  <si>
     <t>3458</t>
   </si>
   <si>
@@ -3235,6 +2270,9 @@
     <t>https://www.tarladalal.com/gavarfali-ki-subzi--healthy-subzi-6406r</t>
   </si>
   <si>
+    <t>Jain, Veg</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 cups cluster beans (gavarfali)
 salt to taste
 1 cup fresh low-fat curds (dahi)
@@ -3251,6 +2289,9 @@
 </t>
   </si>
   <si>
+    <t>17 mins</t>
+  </si>
+  <si>
     <t>Clean the cluster beans by removing the ends and string them and cut them into 25 mm. (1”) pieces.
 Combine the cluster beans, salt and 1 cup of water in a pressure cooker, mix well and pressure cook for 2 whistles.
 Allow the steam to escape before opening the lid and keep aside.
@@ -3268,34 +2309,6 @@
 </t>
   </si>
   <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>Orange, Grapefruit and Mint Salad</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/orange-grapefruit-and-mint-salad-365r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 tbsp readymade orange juice
-1 1/2 cups orange segments
-1 1/2 cups grapefruit segments
-2 tbsp finely chopped mint leaves (phudina)
-1 tbsp sugar
-</t>
-  </si>
-  <si>
-    <t>Combine the orange juice and sugar in a small non-stick pan, mix well and cook on a medium flame for 5 minutes, while stirring occasionally. Keep aside.
-Combine the orange segments, grapefruit segments and mint leaves along with the prepared orange-sugar mixture in a deep bowl, mix well and refrigerate for 1 hour.
-Serve chilled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 105 cal
-Protein 1.5 g
-Carbohydrates 24 g
-</t>
-  </si>
-  <si>
     <t>22339</t>
   </si>
   <si>
@@ -3326,84 +2339,6 @@
 </t>
   </si>
   <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>moong soup with paneer recipe | mung bean soup with cottage cheese | paneer moong soup | Indian style moong soup |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/moong-soup-with-paneer-how-to-make-moong-soup-358r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup moong (whole green gram) , soaked and drained
-2 tsp ghee
-1 tsp cumin seeds (jeera)
-1/4 tsp asafoetida (hing)
-1 tsp lemon juice
-1/4 tsp sugar , optional
-salt to taste
-1/4 tsp freshly ground black pepper (kalimirch)
-2 tbsp finely chopped paneer (cottage cheese)
-</t>
-  </si>
-  <si>
-    <t>For moong soup with paneer
-To make moong soup with paneer, combine the moong and 6 cups of water in a pressure cook and pressure cook for 3 to 4 whistles.
-Allow the steam to escape before opening the lid.
-Blend the cooked moong using a hand blender to a smooth mixture. Strain it using a strainer and keep aside.
-Heat the ghee in a deep non-stick pan and add the cumin seeds and asafoetida.
-When the seeds crackle, add the moong mixture, lemon juice, sugar, salt and pepper, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
-Add the paneer, mix gently and cook on a medium flame for 2 minutes.
-Serve the moong soup with paneer hot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 90 cal
-Protein 5.1 g
-Carbohydrates 11.3 g
-</t>
-  </si>
-  <si>
-    <t>1439</t>
-  </si>
-  <si>
-    <t>bajra carrot onion uttapa recipe | bajra uttapam | bajra onion uttapam breakfast recipe | healthy bajra uttapam |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/bajra-carrot-onion-uttapam-healthy-bajra-onion-uttapam-breakfast-recipe-1439r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 cup whole bajra (black millet) , soaked for 8 hours and drained
-1 1/4 cups bajra (black millet) flour
-salt to taste
-1/2 cup grated carrot
-1/2 cup finely chopped onions
-1 tsp finely chopped green chillies
-1 tsp garlic (lehsun) paste
-1/4 cup finely chopped coriander (dhania)
-1 1/2 tbsp lemon juice
-1/4 tsp turmeric powder (haldi)
-1 tsp chilli powder
-1 1/2 tsp oil for greasing and cooking
-healthy green chutney
-</t>
-  </si>
-  <si>
-    <t>For bajra carrot onion uttapa
-To make bajra carrot onion uttapa, combine the whole bajra, ½ cup of water and salt in a pressure cooker, mix well and pressure cook for 5 whistles.
-Allow the steam to escape before opening the lid. Drain the water and keep the cooked whole bajra aside.
-Combine all the ingredients, along with whole bajra and 1½ cups of water, in a deep bowl and mix well.
-Heat a non-stick tava (griddle) and grease it lightly with ¼ tsp of oil.
-Pour ¼ cup of batter over it and tilt the tava (griddle) lightly to spread the batter evenly to form a 125 mm. (5”) diameter circle. Cook on a medium flame, using one-eighth tsp of oil, till it turns golden brown in colour from both the sides.
-Repeat step 5 to make 9 more uttapas.
-Serve the bajra carrot onion uttapa immediately with healthy green chutney.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 73 cal
-Protein 2 g
-Carbohydrates 12.5 g
-</t>
-  </si>
-  <si>
     <t>42227</t>
   </si>
   <si>
@@ -3435,43 +2370,6 @@
     <t xml:space="preserve">Energy 154 cal
 Protein 1.8 g
 Carbohydrates 2.9 g
-</t>
-  </si>
-  <si>
-    <t>5582</t>
-  </si>
-  <si>
-    <t>bajra kaddu ki roti recipe | bajra kaddu ka paratha | healthy lehsun bajra bhopla paratha | black millet pumpkin Indian roti |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/bajra-kaddu-ki-roti-lehsun-bajra-bhopla-paratha-5582r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 tsp garlic (lehsun) paste
-1/2 cup bajra (black millet) flour
-1 cup grated red pumpkin (bhopla/ kaddu)
-1/2 cup whole wheat flour (gehun ka atta)
-1 tsp ginger-green chilli paste
-a pinch of turmeric powder (haldi)
-1/4 tsp asafoetida (hing)
-1 tsp lemon juice
-2 tbsp chopped coriander (dhania)
-salt to taste
-whole wheat flour (gehun ka atta) for rolling
-1 1/2 tsp oil for cooking
-</t>
-  </si>
-  <si>
-    <t>For bajra kaddu ki roti
-To make bajra kaddu ki roti, combine all the ingredients together, except the oil and make a semi-soft dough without using any water.
-Divide the dough into 6 equal portions and roll out each portion into 125 mm. (5") diameter circle using a little whole wheat flour for rolling.
-Heat a non-stick tava (griddle) and cook each roti, using ¼ tsp of oil, till both sides are golden brown in colour.
-Serve the bajra kaddu ki roti immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 86 cal
-Protein 2.7 g
-Carbohydrates 14.7 g
 </t>
   </si>
   <si>
@@ -3511,42 +2409,6 @@
 </t>
   </si>
   <si>
-    <t>22448</t>
-  </si>
-  <si>
-    <t>peanut tikki recipe | groundnut tikkis | healthy peanut veg tikki |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/peanut-tikki-groundnut-tikkis-22448r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup roasted and powdered peanuts
-1/2 cup besan (bengal gram flour)
-1/2 cup chopped spinach (palak)
-5 tbsp whole wheat flour (gehun ka atta)
-1 1/2 tsp finely chopped green chillies
-1 tbsp lemon juice
-salt to taste
-1 tsp warm oil for kneading
-2 1/2 tsp oil for greasing and cooking
-2 tsp green chutney
-</t>
-  </si>
-  <si>
-    <t>For peanut tikki
-To make peanut tikki, combine all the ingredients in a deep bowl, mix well and knead into a soft dough using ¼ cup water.
-Add 1 tsp of warm oil and again knead well.
-Divide the dough into 8 equal portions and shape each portion into 50 mm. (2”) diameter thin round flat tikkis.
-Heat a non-stick tava (griddle) and grease it using ½ tsp of oil. Cook each tikki on it using ¼ tsp of oil till they turn golden brown in colour from both the sides.
-Serve peanut tikki immediately with green chutney.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 128 cal
-Protein 5.1 g
-Carbohydrates 12.1 g
-</t>
-  </si>
-  <si>
     <t>38985</t>
   </si>
   <si>
@@ -3578,39 +2440,6 @@
     <t xml:space="preserve">Energy 161 cal
 Protein 5.4 g
 Carbohydrates 17.5 g
-</t>
-  </si>
-  <si>
-    <t>38448</t>
-  </si>
-  <si>
-    <t>chawli and sprouted moong salad recipe | chawli vegetable salad with sprouts | healthy Indian cow peas salad with sprouts |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/chawli-and-sprouted-moong-salad-healthy-chawli-vegetable-salad-38448r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup soaked and boiled chawli (cow pea / lobhia)
-1/4 cup boiled sprouted moong (whole green gram)
-1/4 cup chopped tomatoes
-1/4 cup chopped spring onions whites and greens
-1/4 cup chopped cabbage
-1 tsp lemon juice
-1/4 tsp chilli powder
-1/4 tsp cumin seeds (jeera) powder
-1/4 tsp dried mango powder (amchur)
-1/8 tsp salt
-</t>
-  </si>
-  <si>
-    <t>For chawli and sprouted moong salad
-To make chawli and sprouted moong salad, combine all the ingredients in a deep bowl and mix well.
-Serve the chawli and sprouted moong salad immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 112 cal
-Protein 8.1 g
-Carbohydrates 18.9 g
 </t>
   </si>
   <si>
@@ -3689,6 +2518,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/oats-vegetable-and-brown-rice-khichdi-41019r</t>
+  </si>
+  <si>
+    <t>Dinner</t>
   </si>
   <si>
     <t xml:space="preserve">1/2 cup quick cooking rolled oats
@@ -3720,35 +2552,6 @@
     <t xml:space="preserve">Energy 300 cal
 Protein 9.1 g
 Carbohydrates 53.2 g
-</t>
-  </si>
-  <si>
-    <t>22301</t>
-  </si>
-  <si>
-    <t>mint and onion chutney recipe | pyaz pudina chutney | onion mint chutney for Indian snacks | how to make pudina chutney with onions |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/mint-and-onion-chutney-22301r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups chopped mint leaves (phudina)
-1 cup chopped coriander (dhania)
-3/4 cup sliced onions
-1 tbsp lemon juice
-1 tbsp roughly chopped green chillies
-salt to taste
-</t>
-  </si>
-  <si>
-    <t>For mint and onion chutney
-To make mint and onion chutney, combine all the ingredients in a mixer and blend to a smooth paste using very little water.
-Store the mint and onion chutney refrigerated in an air-tight container and use as required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 6 cal
-Protein 0.3 g
-Carbohydrates 1 g
 </t>
   </si>
   <si>
@@ -3836,35 +2639,6 @@
 </t>
   </si>
   <si>
-    <t>36414</t>
-  </si>
-  <si>
-    <t>bean sprouts dill salad recipe | bean sprouts and suva tossed salad | healthy bean sprouts with dill salad | Indian style sprouts dill salad |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/bean-sprouts-and-suva-tossed-salad-36414r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups bean sprouts
-1/4 cup finely chopped dill leaves
-1/2 cup chopped tomatoes
-1 tbsp lemon juice
-1/4 cup chopped basil
-salt to taste
-</t>
-  </si>
-  <si>
-    <t>For bean sprouts and suva tossed salad
-To make bean sprouts and suva tossed salad, combine all the ingredients in a deep bowl and toss well.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 21 cal
-Protein 1.5 g
-Carbohydrates 4 g
-</t>
-  </si>
-  <si>
     <t>7463</t>
   </si>
   <si>
@@ -3921,9 +2695,6 @@
   <si>
     <t>Combine all the ingredients and blend in a mixer till smooth and frothy.
 Pour equal quantities of the smoothie into 5 individual glasses and serve immediately.</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>39690</t>
@@ -4016,83 +2787,6 @@
     <t xml:space="preserve">Energy 72 cal
 Protein 4.4 g
 Carbohydrates 11 g
-</t>
-  </si>
-  <si>
-    <t>36832</t>
-  </si>
-  <si>
-    <t>Cucumber Cooler , Muskmelon and Cucumber Juice</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/cucumber-cooler--muskmelon-and-cucumber-juice-36832r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups muskmelon (kharbooja) cubes (deseeded)
-1 cup cucumber cubes (unpeeled)
-1/2 tsp lemon juice
-2 tbsp finely chopped mint leaves (phudina)
-salt to taste
-crushed ice for serving
-2 cups muskmelon (kharbooja) cubes
-1 cup cucumber cubes (unpeeled)
-1/2 tsp lemon juice
-2 tbsp finely chopped mint leaves (phudina)
-salt to taste
-crushed ice for serving
-</t>
-  </si>
-  <si>
-    <t>Hopper method
-Add the muskmelon cubes and cucumber cubes a few at a time in the hopper.
-Add the lemon juice, mint leaves and salt and mix well.
-Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
-Serve immediately.
-Juicer method
-Combine the muskmelon cubes and cucumber cubes along with ¼ cup of water and blend in a juicer till smooth.
-Strain the juice using a strainer.
-Add the lemon juice, mint leaves and salt and mix well.
-Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
-Serve immediately.
-Handy tip:
-This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 74 cal
-Protein 1.8 g
-Carbohydrates 14.6 g
-</t>
-  </si>
-  <si>
-    <t>6213</t>
-  </si>
-  <si>
-    <t>Apple Magic, Lemony Apple Juice</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/apple-magic-lemony-apple-juice-6213r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 cups apple cubes
-2 tsp lemon juice
-crushed ice for serving , optional
-</t>
-  </si>
-  <si>
-    <t>Juicer method
-Add the apple cubes a few at a time in the juicer.
-Add the lemon juice and mix well.
-Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
-Serve the lemony apple juice immediately.
-Mixer method
-This recipe doesn’t turn out good in a mixer because the texture of ingredients like apple is very hard.
-Handy tip:
-This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 108 cal
-Protein 0.4 g
-Carbohydrates 24.4 g
 </t>
   </si>
   <si>
@@ -4167,88 +2861,6 @@
 </t>
   </si>
   <si>
-    <t>37676</t>
-  </si>
-  <si>
-    <t>chickpea paneer salad | kabuli chana paneer vegetable salad | healthy Indian chickpeas salad with cottage cheese |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/chickpea-and-paneer-salad-37676r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup soaked and boiled kabuli chana (white chick peas)
-3/4 cup paneer (cottage cheese) cubes
-1/2 cup tomato cubes
-2 tbsp thinly sliced black olives
-2 tbsp finely chopped parsley
-1/4 cup finely chopped spring onion greens and whites
-salt and to taste
-1 cup lettuce , torn into pieces
-1 1/2 tsp olive oil
-1 tbsp lemon juice
-1 tsp powdered sugar
-salt and freshly ground black pepper (kalimirch) to taste
-1 tbsp dry red chilli flakes (paprika)
-2 tsp finely chopped garlic (lehsun)
-</t>
-  </si>
-  <si>
-    <t>For chickpea and paneer salad
-To make chickpea and paneer salad, combine the chickpeas, paneer, tomatoes, black olives, parsley, spring onions and lettuce in a bowl.
-Cover with a cling wrap and chill in the fridge for 30 minutes to 1 hour.
-Add the dressing, salt and pepper and mix well.
-Serve the chickpea and paneer salad chilled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 194 cal
-Protein 8 g
-Carbohydrates 17.9 g
-</t>
-  </si>
-  <si>
-    <t>5701</t>
-  </si>
-  <si>
-    <t>Sprouted Masala Matki</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/sprouted-masala-matki-5701r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups boiled sprouted matki (moath beans)
-1 cup fresh tomato pulp
-salt to taste
-2 tsp lemon juice
-2 tsp oil
-5 to 6 whole dry kashmiri red chillies , broken into pieces
-1/2 cup sliced onions
-1 tbsp poppy seeds (khus-khus) , optional
-3 to 4 black peppercorns (kalimirch)
-3 small sticks cinnamon (dalchini)
-3 cloves (laung / lavang)
-1 tsp coriander (dhania) seeds
-2 garlic (lehsun) cloves
-2 tbsp chopped tomatoes
-2 tbsp chopped onions
-2 tbsp chopped capsicum or cucumber
-</t>
-  </si>
-  <si>
-    <t>For the paste
-Heat the oil in a broad non-stick pan, add all the ingredients and sauté on a medium flame for 2 to 3 minutes.
-Allow the mixture to cool and blend in a mixer to a smooth paste using little water. Keep aside.
-How to proceed
-Heat a broad non-stick pan, add the prepared paste and fresh tomato pulp, mix well and cook on a medium flame for 1 to 2 minutes.
-Add the sprouted matki, salt and lemon juice, mix well and cook on a medium flame for another 1 minute or till the mixture dries up a little.
-Serve hot topped with tomatoes, onions and capsicum or cucumber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 164 cal
-Protein 9.3 g
-Carbohydrates 24.8 g
-</t>
-  </si>
-  <si>
     <t>39688</t>
   </si>
   <si>
@@ -4317,41 +2929,6 @@
     <t xml:space="preserve">Energy 73 cal
 Protein 1.6 g
 Carbohydrates 9.2 g
-</t>
-  </si>
-  <si>
-    <t>35086</t>
-  </si>
-  <si>
-    <t>Apple and Lettuce Salad with Melon Dressing ( Iron Rich Recipe )</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/apple-and-lettuce-salad-with-melon-dressing--iron-rich-recipe--35086r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup apple cubes
-1 cup iceberg lettuce , torn into pieces
-1/2 cup shredded cabbage
-1/4 cup thickly grated carrot
-1/4 cup capsicum cubes (red and yellow)
-1/2 cup bean sprouts
-1/4 cup green grapes
-1 tsp lemon juice
-salt to taste
-1/2 cup muskmelon purée
-1/2 tsp roasted and crushed cumin seeds (jeera)
-1/4 cup chopped coriander (dhania)
-salt and freshly ground black pepper (kalimirch) to taste
-</t>
-  </si>
-  <si>
-    <t>Combine all the ingredients along with the dressing in deep bowl and toss well.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 36 cal
-Protein 1.3 g
-Carbohydrates 7.2 g
 </t>
   </si>
   <si>
@@ -4470,83 +3047,6 @@
 </t>
   </si>
   <si>
-    <t>6431</t>
-  </si>
-  <si>
-    <t>hariyali mutter recipe | North Indian hariyali matar  | healthy hariyali mutter paneer in coriander paste |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/hariyali-mutter-6431r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup boiled green peas
-2 tsp coconut oil or oil
-1 tsp cumin seeds (jeera)
-1/2 tsp nigella seeds (kalonji)
-a pinch of asafoetida (hing)
-1/4 cup low fat milk , 99.7% fat-free
-salt to taste
-1/4 cup chopped low fat paneer (cottage cheese)
-2 cups chopped coriander (dhania)
-3 green chillies , roughly chopped
-1 tsp chopped ginger (adrak)
-4 garlic (lehsun) cloves
-1 tbsp lemon juice
-phulkas
-</t>
-  </si>
-  <si>
-    <t>For hariyali mutter
-To make hariyali mutter sabzi prepare the coriander paste first.
-Heat the coconut oil or oil in a non-stick kadhai and add the cumin seeds.
-When the seeds crackle, add the nigella seeds and sauté on a medium flame for a few seconds.
-Add the asafoetida and the prepared coriander paste, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.
-Add the milk, green peas, paneer, 2 tablespoons water, salt to taste and mix well.
-Cook on a medium flame for 3 minutes, while stirring continuously.
-Serve hariyali mutter sabzi recipe | north indian hariyali matar | healthy hariyali mutter paneer in coriander paste | immediately with bajra roti or phulkas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 145 cal
-Protein 7.5 g
-Carbohydrates 16.5 g
-</t>
-  </si>
-  <si>
-    <t>40968</t>
-  </si>
-  <si>
-    <t>Water Chestnuts and Purple Cabbage Stir Fry</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/water-chestnuts-and-purple-cabbage-stir-fry-40968r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups peeled fresh water chestnut (singhada)
-1 cup shredded red cabbage
-2 tsp olive oil
-1 tbsp finely chopped garlic (lehsun)
-salt and to taste
-1 1/2 tbsp honey
-1 1/2 tsp dry red chilli flakes (paprika)
-1 tsp lemon juice
-2 tbsp roasted peanuts
-</t>
-  </si>
-  <si>
-    <t>Boil enough water in a deep non-stick pan, add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
-Drain well and keep aside.
-Heat the olive oil in a broad non-stick pan, add the garlic and sauté on a medium flame for 30 seconds.
-Add the water chestnuts, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
-Add the cabbage, prepared dressing, salt and pepper, mix gently and cook on a medium flame for 1 minute, while stirring occasionally.
-Serve immediately garnished with peanuts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 137 cal
-Protein 3.9 g
-Carbohydrates 24.6 g
-</t>
-  </si>
-  <si>
     <t>6209</t>
   </si>
   <si>
@@ -4570,36 +3070,6 @@
     <t xml:space="preserve">Energy 24 cal
 Protein 0.6 g
 Carbohydrates 4.9 g
-</t>
-  </si>
-  <si>
-    <t>36097</t>
-  </si>
-  <si>
-    <t>Lettuce and Bean Sprouts Salad in Lemon Dressing</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/lettuce-and-bean-sprouts-salad-in-lemon-dressing-36097r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 cup iceberg lettuce , torn into pieces
-1 cup bean sprouts
-1/2 cup deseeded tomato cubes
-1/4 cup sliced spring onion greens
-1 tbsp lemon juice
-2 tsp olive oil
-salt and to taste
-</t>
-  </si>
-  <si>
-    <t>Combine all the ingredients in a deep bowl and mix well.
-Add the lemon dressing and toss well.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 55 cal
-Protein 1.7 g
-Carbohydrates 4.4 g
 </t>
   </si>
   <si>
@@ -4666,53 +3136,6 @@
     <t xml:space="preserve">Energy 250 cal
 Protein 11.3 g
 Carbohydrates 28 g
-</t>
-  </si>
-  <si>
-    <t>33007</t>
-  </si>
-  <si>
-    <t>low calorie apple crumble recipe | low calorie baked apple crisp | Indian style baked apple crumble | easy apple crumble |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/low-calorie-apple-crumble-33007r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups sliced apples
-1 tbsp brown sugar
-2 small sticks cinnamon (dalchini)
-1/2 tsp lemon juice
-1/4 cup quick cooking rolled oats
-1 tbsp wheat bran
-2 tbsp chopped walnuts (akhrot)
-1 tbsp chopped almonds (badam)
-2 tbsp raisins (kismis)
-1/4 tsp cinnamon (dalchini) powder
-vanilla essence
-low fat butter for greasing
-</t>
-  </si>
-  <si>
-    <t>11 mins</t>
-  </si>
-  <si>
-    <t>For the stewed apples
-Combine ½ cup of water, brown sugar, cinnamon sticks and lemon juice in a broad non-stick pan, mix well and cook on a medium flame for 30 seconds or till the brown sugar dissolves completely.
-Add the apples, mix well and cook on a medium flame for 7 to 8 minutes or till the apples turn soft, while stirring once in between.
-Discard the cinnamon and keep aside to cool slightly.
-For the muesli
-Combine all the ingredients in a broad non-stick pan and lightly roast them on a slow flame for 2 minutes. Keep aside to cool slightly.
-Transfer the mixture into a bowl and keep aside to cool slightly.
-How to proceed
-Grease a baking dish lightly using low-fat butter.
-Spread the stewed apples at the base of a baking dish and spread the muesli evenly over it.
-Bake in a pre-heated oven at 200°c (400°f) for 10 minutes or till the muesli turns golden brown in colour.
-Serve the low calorie apple crumble immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 129 cal
-Protein 2.6 g
-Carbohydrates 15.9 g
 </t>
   </si>
   <si>
@@ -4870,77 +3293,6 @@
 </t>
   </si>
   <si>
-    <t>22289</t>
-  </si>
-  <si>
-    <t>Cous Cous Salad, Healthy Cous Cous Salad</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/cous-cous-salad-healthy-cous-cous-salad-22289r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup broken wheat (dalia)
-1/2 tsp oil for cooking
-salt to taste
-1 cup cucumber cubes
-1 cup chopped tomatoes
-1 cup blanched broccoli florets
-1 cup sliced and blanched mushrooms (khumbh)
-1 cup lettuce , torn into small pieces
-1/4 cup finely chopped mint leaves (phudina)
-1 1/2 tbsp lemon juice
-freshly ground black pepper (kalimirch) to taste
-</t>
-  </si>
-  <si>
-    <t>Boil enough water in a deep non-stick pan, add the salt and oil and mix well.
-Add the broken wheat, mix well and cook on a medium flame for 7 minutes, while stirring ocassinally.
-Drain well and refresh with cold water.
-Combine all the ingredients, along with the cooked broken wheat in a deep bowl and toss well.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 68 cal
-Protein 2.3 g
-Carbohydrates 13.2 g
-</t>
-  </si>
-  <si>
-    <t>4812</t>
-  </si>
-  <si>
-    <t>Sprouts Misal</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/sprouts-misal-4812r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cups mixed sprouts , boiled
-2 tsp cumin seeds (jeera)
-1 tsp ginger-green chilli paste
-1/4 tsp cloves (laung / lavang) powder
-1/4 tsp cinnamon (dalchini) powder
-a pinch of sugar (optional)
-1 tsp oil
-salt to taste
-1 cup curds (dahi) , whisked
-1/4 cup chopped onions
-1/4 cup chopped tomatoes
-2 tbsp chopped coriander (dhania)
-</t>
-  </si>
-  <si>
-    <t>Heat the oil, add the cumin seeds, ginger-green chilli paste and cook for 1 minute.
-Add the mixed sprouts, clove powder, cinnamon powder, sugar and salt and cook for 2 minutes.
-Serve the sprouts mixture topped with the curds, onions, tomatoes and coriander.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 196 cal
-Protein 10.9 g
-Carbohydrates 24.3 g
-</t>
-  </si>
-  <si>
     <t>3495</t>
   </si>
   <si>
@@ -4948,6 +3300,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/bajra-methi-and-paneer-parathas-3495r</t>
+  </si>
+  <si>
+    <t>Breakfast, Lunch</t>
   </si>
   <si>
     <t xml:space="preserve">1 cup bajra (black millet) flour
@@ -5059,45 +3414,6 @@
 </t>
   </si>
   <si>
-    <t>4781</t>
-  </si>
-  <si>
-    <t>chana dal with cucumber recipe | cucumber chana dal subzi | healthy chana dal sabzi | khira aur chana dal ki sabji |</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/chana-dal-with-cucumber-healthy-chana-dal-sabzi-4781r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/4 cup chana dal (split bengal gram)
-1 tbsp oil
-1 tsp cumin seeds (jeera)
-1/2 cup roughly chopped cucumber
-a pinch turmeric powder (haldi)
-1 tsp ginger-green chilli paste
-salt to taste
-1/2 tsp chilli powder
-a pinch of sugar
-1 tbsp finely chopped coriander (dhania)
-</t>
-  </si>
-  <si>
-    <t>For chana dal with cucumber
-To make chana dal with cucumber, wash and soak the chana dal in water for at least an hour and drain well.
-Combine the chana dal with 2 cups of water in a pressure cooker and pressure cook for 2 whistles or till the dal is soft.
-Allow the steam to escape before opening the lid.
-Mash the dal lightly with the back of the spoon and keep aside.
-Heat the oil in a broad non-stick pan, add the cumin seeds.
-When the seeds crackle, add the cooked dal, cucumber, turmeric powder, ginger-green chilli paste, salt and chilli powder, mix well and cook on a medium flame for 5 to 7 minutes, while stirring occasionally.
-Add the sugar, mix well and cook on a medium flame for 1 minute.
-Serve the chana dal with cucumber hot garnished with coriander.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 175 cal
-Protein 7.9 g
-Carbohydrates 22.8 g
-</t>
-  </si>
-  <si>
     <t>22221</t>
   </si>
   <si>
@@ -5131,43 +3447,6 @@
     <t xml:space="preserve">Energy 60 cal
 Protein 2.3 g
 Carbohydrates 12.2 g
-</t>
-  </si>
-  <si>
-    <t>42784</t>
-  </si>
-  <si>
-    <t>Bajra Jhalmuri, Healthy Bengali Jhalmuri</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/bajra-jhalmuri-healthy-bengali-jhalmuri-42784r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 cup whole bajra (black millet)
-1/4 cup finely chopped tomatoes
-1/4 cup finely chopped cucumber
-1/4 cup finely chopped onions
-2 tbsp finely chopped coriander (dhania)
-1 tsp lemon juice
-1/2 tsp garam masala
-1/2 tsp roasted cumin seeds (jeera) powder
-1/4 tsp chilli powder
-1 tsp mustard (rai / sarson) oil
-salt to taste
-</t>
-  </si>
-  <si>
-    <t>For bajra jhalmuri
-To make bajra jhalmuri, soak the whole bajra in enough water for 8 hours. Drain well.
-Combine the soaked bajra and enough water in a pressure cooker and pressure cook for 7 whistles.
-Allow the steam to escape before opening the lid. Drain.
-Transfer into a deep bowl, add the tomatoes, cucumber, onions, coriander, lemon juice and finally the masala paste and mix very well using your hands.
-Serve bajra jhalmuri immediately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy 94 cal
-Protein 2.6 g
-Carbohydrates 15.5 g
 </t>
   </si>
   <si>
@@ -5266,6 +3545,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/cabbage-paratha-15154r</t>
+  </si>
+  <si>
+    <t>Breakfast, Dinner</t>
   </si>
   <si>
     <t xml:space="preserve">3/4 cup finely chopped cabbage
@@ -5336,7 +3618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5387,4334 +3669,3249 @@
       <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F3" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F5" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
+        <v>45</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F6" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+        <v>52</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F7" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
+        <v>59</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F8" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+        <v>66</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F9" t="s" s="0">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
+        <v>71</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F10" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+        <v>78</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F11" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+        <v>85</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F12" t="s" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+        <v>93</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>94</v>
+      </c>
       <c r="F13" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+        <v>101</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F14" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+        <v>107</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F15" t="s" s="0">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
+        <v>113</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="F16" t="s" s="0">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+        <v>120</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F17" t="s" s="0">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+        <v>127</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F18" t="s" s="0">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
+        <v>133</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F19" t="s" s="0">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
+        <v>140</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F20" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
+        <v>146</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F21" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
+        <v>152</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F22" t="s" s="0">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+        <v>159</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F23" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
+        <v>165</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F24" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
+        <v>172</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F25" t="s" s="0">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>172</v>
-      </c>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
+        <v>178</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F26" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>178</v>
-      </c>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
+        <v>184</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F27" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
+        <v>190</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>191</v>
+      </c>
       <c r="F28" t="s" s="0">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
+        <v>197</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F29" t="s" s="0">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
+        <v>203</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F30" t="s" s="0">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
+        <v>209</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F31" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>210</v>
-      </c>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
+        <v>215</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F32" t="s" s="0">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
+        <v>221</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F33" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>223</v>
-      </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
+        <v>227</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F34" t="s" s="0">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>230</v>
-      </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
+        <v>234</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F35" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
+        <v>241</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F36" t="s" s="0">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>242</v>
-      </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
+        <v>247</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="F37" t="s" s="0">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>248</v>
-      </c>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
+        <v>253</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F38" t="s" s="0">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
+        <v>259</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F39" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
+        <v>265</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F40" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>268</v>
-      </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
+        <v>271</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F41" t="s" s="0">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
+        <v>278</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F42" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>280</v>
-      </c>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
+        <v>285</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F43" t="s" s="0">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
+        <v>291</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F44" t="s" s="0">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>292</v>
-      </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
+        <v>297</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F45" t="s" s="0">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
+        <v>304</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F46" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
+        <v>311</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F47" t="s" s="0">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
+        <v>317</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F48" t="s" s="0">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>316</v>
-      </c>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
+        <v>323</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F49" t="s" s="0">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
+        <v>329</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F50" t="s" s="0">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>328</v>
-      </c>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
+        <v>335</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F51" t="s" s="0">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K51" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>334</v>
-      </c>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
+        <v>341</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F52" t="s" s="0">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>97</v>
+        <v>343</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>340</v>
-      </c>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
+        <v>348</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F53" t="s" s="0">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>346</v>
-      </c>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
+        <v>354</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F54" t="s" s="0">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>348</v>
+        <v>54</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>353</v>
-      </c>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
+        <v>360</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="F55" t="s" s="0">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>359</v>
-      </c>
-      <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
+        <v>366</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F56" t="s" s="0">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="I56" t="s" s="0">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K56" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>365</v>
-      </c>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
+        <v>372</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F57" t="s" s="0">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="I57" t="s" s="0">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K57" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>371</v>
-      </c>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
+        <v>378</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>379</v>
+      </c>
       <c r="F58" t="s" s="0">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G58" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="I58" t="s" s="0">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J58" t="s" s="0">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
+        <v>386</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>191</v>
+      </c>
       <c r="F59" t="s" s="0">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G59" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I59" t="s" s="0">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="J59" t="s" s="0">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="K59" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>383</v>
-      </c>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
+        <v>392</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F60" t="s" s="0">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s" s="0">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>389</v>
-      </c>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
+        <v>398</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F61" t="s" s="0">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>395</v>
-      </c>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
+        <v>404</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F62" t="s" s="0">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="G62" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>397</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s" s="0">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>402</v>
-      </c>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
+        <v>410</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="F63" t="s" s="0">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>404</v>
+        <v>122</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>409</v>
-      </c>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
+        <v>416</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F64" t="s" s="0">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="J64" t="s" s="0">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K64" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>415</v>
-      </c>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
+        <v>422</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F65" t="s" s="0">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I65" t="s" s="0">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="J65" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K65" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>421</v>
-      </c>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
+        <v>429</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="F66" t="s" s="0">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s" s="0">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="J66" t="s" s="0">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K66" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>427</v>
-      </c>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
+        <v>435</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F67" t="s" s="0">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="I67" t="s" s="0">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="J67" t="s" s="0">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="K67" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>434</v>
-      </c>
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
+        <v>441</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F68" t="s" s="0">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I68" t="s" s="0">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="J68" t="s" s="0">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K68" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>440</v>
-      </c>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
+        <v>447</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F69" t="s" s="0">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="I69" t="s" s="0">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="J69" t="s" s="0">
-        <v>443</v>
+        <v>14</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>446</v>
-      </c>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
+        <v>452</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>379</v>
+      </c>
       <c r="F70" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>448</v>
+        <v>154</v>
       </c>
       <c r="I70" t="s" s="0">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="J70" t="s" s="0">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K70" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>453</v>
-      </c>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
+        <v>458</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F71" t="s" s="0">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="I71" t="s" s="0">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="J71" t="s" s="0">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>459</v>
-      </c>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
+        <v>464</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="F72" t="s" s="0">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s" s="0">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="J72" t="s" s="0">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K72" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>465</v>
-      </c>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
+        <v>470</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F73" t="s" s="0">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="J73" t="s" s="0">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K73" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>471</v>
-      </c>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
+        <v>476</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F74" t="s" s="0">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G74" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s" s="0">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="J74" t="s" s="0">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K74" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>477</v>
-      </c>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
+        <v>482</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F75" t="s" s="0">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G75" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s" s="0">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="J75" t="s" s="0">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>483</v>
-      </c>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
+        <v>488</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F76" t="s" s="0">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G76" t="s" s="0">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>32</v>
+        <v>490</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="J76" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>489</v>
-      </c>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
+        <v>495</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F77" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>491</v>
+        <v>33</v>
       </c>
       <c r="I77" t="s" s="0">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="J77" t="s" s="0">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>496</v>
-      </c>
-      <c r="D78" s="0"/>
-      <c r="E78" s="0"/>
+        <v>501</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F78" t="s" s="0">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G78" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="I78" t="s" s="0">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="J78" t="s" s="0">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K78" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>502</v>
-      </c>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
+        <v>507</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F79" t="s" s="0">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="I79" t="s" s="0">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K79" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>508</v>
-      </c>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
+        <v>513</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F80" t="s" s="0">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I80" t="s" s="0">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K80" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>514</v>
-      </c>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
+        <v>519</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F81" t="s" s="0">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H81" t="s" s="0">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="J81" t="s" s="0">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K81" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>520</v>
-      </c>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
+        <v>525</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="F82" t="s" s="0">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G82" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I82" t="s" s="0">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="J82" t="s" s="0">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K82" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>526</v>
-      </c>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
+        <v>531</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F83" t="s" s="0">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H83" t="s" s="0">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="I83" t="s" s="0">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="J83" t="s" s="0">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K83" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>532</v>
-      </c>
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
+        <v>537</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F84" t="s" s="0">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G84" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s" s="0">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I84" t="s" s="0">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="J84" t="s" s="0">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K84" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>538</v>
-      </c>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
+        <v>543</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F85" t="s" s="0">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G85" t="s" s="0">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H85" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I85" t="s" s="0">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="J85" t="s" s="0">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K85" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>544</v>
-      </c>
-      <c r="D86" s="0"/>
-      <c r="E86" s="0"/>
+        <v>549</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F86" t="s" s="0">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G86" t="s" s="0">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H86" t="s" s="0">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="0">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="J86" t="s" s="0">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>550</v>
-      </c>
-      <c r="D87" s="0"/>
-      <c r="E87" s="0"/>
+        <v>555</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="F87" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G87" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s" s="0">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="J87" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="K87" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>556</v>
-      </c>
-      <c r="D88" s="0"/>
-      <c r="E88" s="0"/>
+        <v>562</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F88" t="s" s="0">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G88" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I88" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K88" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>562</v>
-      </c>
-      <c r="D89" s="0"/>
-      <c r="E89" s="0"/>
+        <v>568</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F89" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I89" t="s" s="0">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K89" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>568</v>
-      </c>
-      <c r="D90" s="0"/>
-      <c r="E90" s="0"/>
+        <v>574</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F90" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G90" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I90" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="J90" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K90" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>574</v>
-      </c>
-      <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
+        <v>580</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F91" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s" s="0">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I91" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J91" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K91" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>580</v>
-      </c>
-      <c r="D92" s="0"/>
-      <c r="E92" s="0"/>
+        <v>586</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F92" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="G92" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H92" t="s" s="0">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="I92" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="J92" t="s" s="0">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="K92" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>586</v>
-      </c>
-      <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
+        <v>592</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F93" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="G93" t="s" s="0">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H93" t="s" s="0">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="J93" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="K93" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>592</v>
-      </c>
-      <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
+        <v>598</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F94" t="s" s="0">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="G94" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s" s="0">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I94" t="s" s="0">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="J94" t="s" s="0">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="K94" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="0">
-        <v>596</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>597</v>
-      </c>
-      <c r="C95" t="s" s="0">
-        <v>598</v>
-      </c>
-      <c r="D95" s="0"/>
-      <c r="E95" s="0"/>
-      <c r="F95" t="s" s="0">
-        <v>599</v>
-      </c>
-      <c r="G95" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H95" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="I95" t="s" s="0">
-        <v>600</v>
-      </c>
-      <c r="J95" t="s" s="0">
-        <v>601</v>
-      </c>
-      <c r="K95" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="0">
-        <v>602</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>603</v>
-      </c>
-      <c r="C96" t="s" s="0">
-        <v>604</v>
-      </c>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" t="s" s="0">
-        <v>605</v>
-      </c>
-      <c r="G96" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H96" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I96" t="s" s="0">
-        <v>606</v>
-      </c>
-      <c r="J96" t="s" s="0">
-        <v>607</v>
-      </c>
-      <c r="K96" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="0">
-        <v>608</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>609</v>
-      </c>
-      <c r="C97" t="s" s="0">
-        <v>610</v>
-      </c>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" t="s" s="0">
-        <v>611</v>
-      </c>
-      <c r="G97" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="H97" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I97" t="s" s="0">
-        <v>612</v>
-      </c>
-      <c r="J97" t="s" s="0">
-        <v>613</v>
-      </c>
-      <c r="K97" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="0">
-        <v>614</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>615</v>
-      </c>
-      <c r="C98" t="s" s="0">
-        <v>616</v>
-      </c>
-      <c r="D98" s="0"/>
-      <c r="E98" s="0"/>
-      <c r="F98" t="s" s="0">
-        <v>617</v>
-      </c>
-      <c r="G98" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H98" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I98" t="s" s="0">
-        <v>618</v>
-      </c>
-      <c r="J98" t="s" s="0">
-        <v>619</v>
-      </c>
-      <c r="K98" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="0">
-        <v>620</v>
-      </c>
-      <c r="B99" t="s" s="0">
-        <v>621</v>
-      </c>
-      <c r="C99" t="s" s="0">
-        <v>622</v>
-      </c>
-      <c r="D99" s="0"/>
-      <c r="E99" s="0"/>
-      <c r="F99" t="s" s="0">
-        <v>623</v>
-      </c>
-      <c r="G99" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H99" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I99" t="s" s="0">
-        <v>624</v>
-      </c>
-      <c r="J99" t="s" s="0">
-        <v>625</v>
-      </c>
-      <c r="K99" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="0">
-        <v>626</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>627</v>
-      </c>
-      <c r="C100" t="s" s="0">
-        <v>628</v>
-      </c>
-      <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
-      <c r="F100" t="s" s="0">
-        <v>629</v>
-      </c>
-      <c r="G100" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="H100" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="I100" t="s" s="0">
-        <v>630</v>
-      </c>
-      <c r="J100" t="s" s="0">
-        <v>631</v>
-      </c>
-      <c r="K100" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="0">
-        <v>632</v>
-      </c>
-      <c r="B101" t="s" s="0">
-        <v>633</v>
-      </c>
-      <c r="C101" t="s" s="0">
-        <v>634</v>
-      </c>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" t="s" s="0">
-        <v>635</v>
-      </c>
-      <c r="G101" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H101" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I101" t="s" s="0">
-        <v>636</v>
-      </c>
-      <c r="J101" t="s" s="0">
-        <v>637</v>
-      </c>
-      <c r="K101" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="0">
-        <v>638</v>
-      </c>
-      <c r="B102" t="s" s="0">
-        <v>639</v>
-      </c>
-      <c r="C102" t="s" s="0">
-        <v>640</v>
-      </c>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" t="s" s="0">
-        <v>641</v>
-      </c>
-      <c r="G102" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H102" t="s" s="0">
-        <v>250</v>
-      </c>
-      <c r="I102" t="s" s="0">
-        <v>642</v>
-      </c>
-      <c r="J102" t="s" s="0">
-        <v>643</v>
-      </c>
-      <c r="K102" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="0">
-        <v>644</v>
-      </c>
-      <c r="B103" t="s" s="0">
-        <v>645</v>
-      </c>
-      <c r="C103" t="s" s="0">
-        <v>646</v>
-      </c>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" t="s" s="0">
-        <v>647</v>
-      </c>
-      <c r="G103" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H103" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I103" t="s" s="0">
-        <v>648</v>
-      </c>
-      <c r="J103" t="s" s="0">
-        <v>649</v>
-      </c>
-      <c r="K103" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="0">
-        <v>650</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>651</v>
-      </c>
-      <c r="C104" t="s" s="0">
-        <v>652</v>
-      </c>
-      <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
-      <c r="F104" t="s" s="0">
-        <v>653</v>
-      </c>
-      <c r="G104" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="H104" t="s" s="0">
-        <v>250</v>
-      </c>
-      <c r="I104" t="s" s="0">
-        <v>654</v>
-      </c>
-      <c r="J104" t="s" s="0">
-        <v>655</v>
-      </c>
-      <c r="K104" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="0">
-        <v>656</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>657</v>
-      </c>
-      <c r="C105" t="s" s="0">
-        <v>658</v>
-      </c>
-      <c r="D105" s="0"/>
-      <c r="E105" s="0"/>
-      <c r="F105" t="s" s="0">
-        <v>659</v>
-      </c>
-      <c r="G105" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="H105" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I105" t="s" s="0">
-        <v>660</v>
-      </c>
-      <c r="J105" t="s" s="0">
-        <v>661</v>
-      </c>
-      <c r="K105" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="0">
-        <v>662</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>663</v>
-      </c>
-      <c r="C106" t="s" s="0">
-        <v>664</v>
-      </c>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" t="s" s="0">
-        <v>665</v>
-      </c>
-      <c r="G106" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H106" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I106" t="s" s="0">
-        <v>666</v>
-      </c>
-      <c r="J106" t="s" s="0">
-        <v>667</v>
-      </c>
-      <c r="K106" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="0">
-        <v>668</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>669</v>
-      </c>
-      <c r="C107" t="s" s="0">
-        <v>670</v>
-      </c>
-      <c r="D107" s="0"/>
-      <c r="E107" s="0"/>
-      <c r="F107" t="s" s="0">
-        <v>671</v>
-      </c>
-      <c r="G107" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H107" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I107" t="s" s="0">
-        <v>672</v>
-      </c>
-      <c r="J107" t="s" s="0">
-        <v>673</v>
-      </c>
-      <c r="K107" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="0">
-        <v>674</v>
-      </c>
-      <c r="B108" t="s" s="0">
-        <v>675</v>
-      </c>
-      <c r="C108" t="s" s="0">
-        <v>676</v>
-      </c>
-      <c r="D108" s="0"/>
-      <c r="E108" s="0"/>
-      <c r="F108" t="s" s="0">
-        <v>677</v>
-      </c>
-      <c r="G108" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H108" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I108" t="s" s="0">
-        <v>678</v>
-      </c>
-      <c r="J108" t="s" s="0">
-        <v>679</v>
-      </c>
-      <c r="K108" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="0">
-        <v>680</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>681</v>
-      </c>
-      <c r="C109" t="s" s="0">
-        <v>682</v>
-      </c>
-      <c r="D109" s="0"/>
-      <c r="E109" s="0"/>
-      <c r="F109" t="s" s="0">
-        <v>683</v>
-      </c>
-      <c r="G109" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H109" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I109" t="s" s="0">
-        <v>684</v>
-      </c>
-      <c r="J109" t="s" s="0">
-        <v>685</v>
-      </c>
-      <c r="K109" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="0">
-        <v>686</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>687</v>
-      </c>
-      <c r="C110" t="s" s="0">
-        <v>688</v>
-      </c>
-      <c r="D110" s="0"/>
-      <c r="E110" s="0"/>
-      <c r="F110" t="s" s="0">
-        <v>689</v>
-      </c>
-      <c r="G110" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H110" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I110" t="s" s="0">
-        <v>690</v>
-      </c>
-      <c r="J110" t="s" s="0">
-        <v>691</v>
-      </c>
-      <c r="K110" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="0">
-        <v>692</v>
-      </c>
-      <c r="B111" t="s" s="0">
-        <v>693</v>
-      </c>
-      <c r="C111" t="s" s="0">
-        <v>694</v>
-      </c>
-      <c r="D111" s="0"/>
-      <c r="E111" s="0"/>
-      <c r="F111" t="s" s="0">
-        <v>695</v>
-      </c>
-      <c r="G111" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H111" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I111" t="s" s="0">
-        <v>696</v>
-      </c>
-      <c r="J111" t="s" s="0">
-        <v>697</v>
-      </c>
-      <c r="K111" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="0">
-        <v>698</v>
-      </c>
-      <c r="B112" t="s" s="0">
-        <v>699</v>
-      </c>
-      <c r="C112" t="s" s="0">
-        <v>700</v>
-      </c>
-      <c r="D112" s="0"/>
-      <c r="E112" s="0"/>
-      <c r="F112" t="s" s="0">
-        <v>701</v>
-      </c>
-      <c r="G112" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="H112" t="s" s="0">
-        <v>348</v>
-      </c>
-      <c r="I112" t="s" s="0">
-        <v>702</v>
-      </c>
-      <c r="J112" t="s" s="0">
-        <v>703</v>
-      </c>
-      <c r="K112" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="0">
-        <v>704</v>
-      </c>
-      <c r="B113" t="s" s="0">
-        <v>705</v>
-      </c>
-      <c r="C113" t="s" s="0">
-        <v>706</v>
-      </c>
-      <c r="D113" s="0"/>
-      <c r="E113" s="0"/>
-      <c r="F113" t="s" s="0">
-        <v>707</v>
-      </c>
-      <c r="G113" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H113" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I113" t="s" s="0">
-        <v>708</v>
-      </c>
-      <c r="J113" t="s" s="0">
-        <v>709</v>
-      </c>
-      <c r="K113" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="0">
-        <v>710</v>
-      </c>
-      <c r="B114" t="s" s="0">
-        <v>711</v>
-      </c>
-      <c r="C114" t="s" s="0">
-        <v>712</v>
-      </c>
-      <c r="D114" s="0"/>
-      <c r="E114" s="0"/>
-      <c r="F114" t="s" s="0">
-        <v>713</v>
-      </c>
-      <c r="G114" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H114" t="s" s="0">
-        <v>714</v>
-      </c>
-      <c r="I114" t="s" s="0">
-        <v>715</v>
-      </c>
-      <c r="J114" t="s" s="0">
-        <v>716</v>
-      </c>
-      <c r="K114" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="0">
-        <v>717</v>
-      </c>
-      <c r="B115" t="s" s="0">
-        <v>718</v>
-      </c>
-      <c r="C115" t="s" s="0">
-        <v>719</v>
-      </c>
-      <c r="D115" s="0"/>
-      <c r="E115" s="0"/>
-      <c r="F115" t="s" s="0">
-        <v>720</v>
-      </c>
-      <c r="G115" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H115" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I115" t="s" s="0">
-        <v>721</v>
-      </c>
-      <c r="J115" t="s" s="0">
-        <v>722</v>
-      </c>
-      <c r="K115" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="0">
-        <v>723</v>
-      </c>
-      <c r="B116" t="s" s="0">
-        <v>724</v>
-      </c>
-      <c r="C116" t="s" s="0">
-        <v>725</v>
-      </c>
-      <c r="D116" s="0"/>
-      <c r="E116" s="0"/>
-      <c r="F116" t="s" s="0">
-        <v>726</v>
-      </c>
-      <c r="G116" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H116" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I116" t="s" s="0">
-        <v>727</v>
-      </c>
-      <c r="J116" t="s" s="0">
-        <v>728</v>
-      </c>
-      <c r="K116" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="0">
-        <v>729</v>
-      </c>
-      <c r="B117" t="s" s="0">
-        <v>730</v>
-      </c>
-      <c r="C117" t="s" s="0">
-        <v>731</v>
-      </c>
-      <c r="D117" s="0"/>
-      <c r="E117" s="0"/>
-      <c r="F117" t="s" s="0">
-        <v>732</v>
-      </c>
-      <c r="G117" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H117" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="0">
-        <v>733</v>
-      </c>
-      <c r="J117" t="s" s="0">
-        <v>734</v>
-      </c>
-      <c r="K117" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="0">
-        <v>735</v>
-      </c>
-      <c r="B118" t="s" s="0">
-        <v>736</v>
-      </c>
-      <c r="C118" t="s" s="0">
-        <v>737</v>
-      </c>
-      <c r="D118" s="0"/>
-      <c r="E118" s="0"/>
-      <c r="F118" t="s" s="0">
-        <v>738</v>
-      </c>
-      <c r="G118" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H118" t="s" s="0">
-        <v>404</v>
-      </c>
-      <c r="I118" t="s" s="0">
-        <v>739</v>
-      </c>
-      <c r="J118" t="s" s="0">
-        <v>740</v>
-      </c>
-      <c r="K118" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="0">
-        <v>741</v>
-      </c>
-      <c r="B119" t="s" s="0">
-        <v>742</v>
-      </c>
-      <c r="C119" t="s" s="0">
-        <v>743</v>
-      </c>
-      <c r="D119" s="0"/>
-      <c r="E119" s="0"/>
-      <c r="F119" t="s" s="0">
-        <v>744</v>
-      </c>
-      <c r="G119" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H119" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="I119" t="s" s="0">
-        <v>745</v>
-      </c>
-      <c r="J119" t="s" s="0">
-        <v>746</v>
-      </c>
-      <c r="K119" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="0">
-        <v>747</v>
-      </c>
-      <c r="B120" t="s" s="0">
-        <v>748</v>
-      </c>
-      <c r="C120" t="s" s="0">
-        <v>749</v>
-      </c>
-      <c r="D120" s="0"/>
-      <c r="E120" s="0"/>
-      <c r="F120" t="s" s="0">
-        <v>750</v>
-      </c>
-      <c r="G120" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="H120" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="I120" t="s" s="0">
-        <v>751</v>
-      </c>
-      <c r="J120" t="s" s="0">
-        <v>752</v>
-      </c>
-      <c r="K120" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="0">
-        <v>753</v>
-      </c>
-      <c r="B121" t="s" s="0">
-        <v>754</v>
-      </c>
-      <c r="C121" t="s" s="0">
-        <v>755</v>
-      </c>
-      <c r="D121" s="0"/>
-      <c r="E121" s="0"/>
-      <c r="F121" t="s" s="0">
-        <v>756</v>
-      </c>
-      <c r="G121" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H121" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I121" t="s" s="0">
-        <v>757</v>
-      </c>
-      <c r="J121" t="s" s="0">
-        <v>758</v>
-      </c>
-      <c r="K121" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="0">
-        <v>759</v>
-      </c>
-      <c r="B122" t="s" s="0">
-        <v>760</v>
-      </c>
-      <c r="C122" t="s" s="0">
-        <v>761</v>
-      </c>
-      <c r="D122" s="0"/>
-      <c r="E122" s="0"/>
-      <c r="F122" t="s" s="0">
-        <v>762</v>
-      </c>
-      <c r="G122" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H122" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I122" t="s" s="0">
-        <v>763</v>
-      </c>
-      <c r="J122" t="s" s="0">
-        <v>764</v>
-      </c>
-      <c r="K122" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="0">
-        <v>765</v>
-      </c>
-      <c r="B123" t="s" s="0">
-        <v>766</v>
-      </c>
-      <c r="C123" t="s" s="0">
-        <v>767</v>
-      </c>
-      <c r="D123" s="0"/>
-      <c r="E123" s="0"/>
-      <c r="F123" t="s" s="0">
-        <v>768</v>
-      </c>
-      <c r="G123" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H123" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I123" t="s" s="0">
-        <v>769</v>
-      </c>
-      <c r="J123" t="s" s="0">
-        <v>770</v>
-      </c>
-      <c r="K123" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="0">
-        <v>771</v>
-      </c>
-      <c r="B124" t="s" s="0">
-        <v>772</v>
-      </c>
-      <c r="C124" t="s" s="0">
-        <v>773</v>
-      </c>
-      <c r="D124" s="0"/>
-      <c r="E124" s="0"/>
-      <c r="F124" t="s" s="0">
-        <v>774</v>
-      </c>
-      <c r="G124" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H124" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="I124" t="s" s="0">
-        <v>775</v>
-      </c>
-      <c r="J124" t="s" s="0">
-        <v>776</v>
-      </c>
-      <c r="K124" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="0">
-        <v>777</v>
-      </c>
-      <c r="B125" t="s" s="0">
-        <v>778</v>
-      </c>
-      <c r="C125" t="s" s="0">
-        <v>779</v>
-      </c>
-      <c r="D125" s="0"/>
-      <c r="E125" s="0"/>
-      <c r="F125" t="s" s="0">
-        <v>780</v>
-      </c>
-      <c r="G125" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H125" t="s" s="0">
-        <v>781</v>
-      </c>
-      <c r="I125" t="s" s="0">
-        <v>782</v>
-      </c>
-      <c r="J125" t="s" s="0">
-        <v>783</v>
-      </c>
-      <c r="K125" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="0">
-        <v>784</v>
-      </c>
-      <c r="B126" t="s" s="0">
-        <v>785</v>
-      </c>
-      <c r="C126" t="s" s="0">
-        <v>786</v>
-      </c>
-      <c r="D126" s="0"/>
-      <c r="E126" s="0"/>
-      <c r="F126" t="s" s="0">
-        <v>787</v>
-      </c>
-      <c r="G126" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H126" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I126" t="s" s="0">
-        <v>788</v>
-      </c>
-      <c r="J126" t="s" s="0">
-        <v>789</v>
-      </c>
-      <c r="K126" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="0">
-        <v>790</v>
-      </c>
-      <c r="B127" t="s" s="0">
-        <v>791</v>
-      </c>
-      <c r="C127" t="s" s="0">
-        <v>792</v>
-      </c>
-      <c r="D127" s="0"/>
-      <c r="E127" s="0"/>
-      <c r="F127" t="s" s="0">
-        <v>793</v>
-      </c>
-      <c r="G127" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H127" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I127" t="s" s="0">
-        <v>794</v>
-      </c>
-      <c r="J127" t="s" s="0">
-        <v>795</v>
-      </c>
-      <c r="K127" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="0">
-        <v>796</v>
-      </c>
-      <c r="B128" t="s" s="0">
-        <v>797</v>
-      </c>
-      <c r="C128" t="s" s="0">
-        <v>798</v>
-      </c>
-      <c r="D128" s="0"/>
-      <c r="E128" s="0"/>
-      <c r="F128" t="s" s="0">
-        <v>799</v>
-      </c>
-      <c r="G128" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H128" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I128" t="s" s="0">
-        <v>800</v>
-      </c>
-      <c r="J128" t="s" s="0">
-        <v>801</v>
-      </c>
-      <c r="K128" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="0">
-        <v>802</v>
-      </c>
-      <c r="B129" t="s" s="0">
-        <v>803</v>
-      </c>
-      <c r="C129" t="s" s="0">
-        <v>804</v>
-      </c>
-      <c r="D129" s="0"/>
-      <c r="E129" s="0"/>
-      <c r="F129" t="s" s="0">
-        <v>805</v>
-      </c>
-      <c r="G129" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="H129" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I129" t="s" s="0">
-        <v>806</v>
-      </c>
-      <c r="J129" t="s" s="0">
-        <v>807</v>
-      </c>
-      <c r="K129" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="0">
-        <v>808</v>
-      </c>
-      <c r="B130" t="s" s="0">
-        <v>809</v>
-      </c>
-      <c r="C130" t="s" s="0">
-        <v>810</v>
-      </c>
-      <c r="D130" s="0"/>
-      <c r="E130" s="0"/>
-      <c r="F130" t="s" s="0">
-        <v>811</v>
-      </c>
-      <c r="G130" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I130" t="s" s="0">
-        <v>812</v>
-      </c>
-      <c r="J130" t="s" s="0">
-        <v>813</v>
-      </c>
-      <c r="K130" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="0">
-        <v>814</v>
-      </c>
-      <c r="B131" t="s" s="0">
-        <v>815</v>
-      </c>
-      <c r="C131" t="s" s="0">
-        <v>816</v>
-      </c>
-      <c r="D131" s="0"/>
-      <c r="E131" s="0"/>
-      <c r="F131" t="s" s="0">
-        <v>817</v>
-      </c>
-      <c r="G131" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H131" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="I131" t="s" s="0">
-        <v>818</v>
-      </c>
-      <c r="J131" t="s" s="0">
-        <v>819</v>
-      </c>
-      <c r="K131" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="0">
-        <v>820</v>
-      </c>
-      <c r="B132" t="s" s="0">
-        <v>821</v>
-      </c>
-      <c r="C132" t="s" s="0">
-        <v>822</v>
-      </c>
-      <c r="D132" s="0"/>
-      <c r="E132" s="0"/>
-      <c r="F132" t="s" s="0">
-        <v>823</v>
-      </c>
-      <c r="G132" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H132" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I132" t="s" s="0">
-        <v>824</v>
-      </c>
-      <c r="J132" t="s" s="0">
-        <v>825</v>
-      </c>
-      <c r="K132" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="0">
-        <v>826</v>
-      </c>
-      <c r="B133" t="s" s="0">
-        <v>827</v>
-      </c>
-      <c r="C133" t="s" s="0">
-        <v>828</v>
-      </c>
-      <c r="D133" s="0"/>
-      <c r="E133" s="0"/>
-      <c r="F133" t="s" s="0">
-        <v>829</v>
-      </c>
-      <c r="G133" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H133" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="0">
-        <v>830</v>
-      </c>
-      <c r="J133" t="s" s="0">
-        <v>831</v>
-      </c>
-      <c r="K133" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="0">
-        <v>832</v>
-      </c>
-      <c r="B134" t="s" s="0">
-        <v>833</v>
-      </c>
-      <c r="C134" t="s" s="0">
-        <v>834</v>
-      </c>
-      <c r="D134" s="0"/>
-      <c r="E134" s="0"/>
-      <c r="F134" t="s" s="0">
-        <v>835</v>
-      </c>
-      <c r="G134" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H134" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I134" t="s" s="0">
-        <v>836</v>
-      </c>
-      <c r="J134" t="s" s="0">
-        <v>837</v>
-      </c>
-      <c r="K134" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="0">
-        <v>838</v>
-      </c>
-      <c r="B135" t="s" s="0">
-        <v>839</v>
-      </c>
-      <c r="C135" t="s" s="0">
-        <v>840</v>
-      </c>
-      <c r="D135" s="0"/>
-      <c r="E135" s="0"/>
-      <c r="F135" t="s" s="0">
-        <v>841</v>
-      </c>
-      <c r="G135" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H135" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="0">
-        <v>842</v>
-      </c>
-      <c r="J135" t="s" s="0">
-        <v>843</v>
-      </c>
-      <c r="K135" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="0">
-        <v>844</v>
-      </c>
-      <c r="B136" t="s" s="0">
-        <v>845</v>
-      </c>
-      <c r="C136" t="s" s="0">
-        <v>846</v>
-      </c>
-      <c r="D136" s="0"/>
-      <c r="E136" s="0"/>
-      <c r="F136" t="s" s="0">
-        <v>847</v>
-      </c>
-      <c r="G136" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H136" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I136" t="s" s="0">
-        <v>848</v>
-      </c>
-      <c r="J136" t="s" s="0">
-        <v>849</v>
-      </c>
-      <c r="K136" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="0">
-        <v>850</v>
-      </c>
-      <c r="B137" t="s" s="0">
-        <v>851</v>
-      </c>
-      <c r="C137" t="s" s="0">
-        <v>852</v>
-      </c>
-      <c r="D137" s="0"/>
-      <c r="E137" s="0"/>
-      <c r="F137" t="s" s="0">
-        <v>853</v>
-      </c>
-      <c r="G137" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H137" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I137" t="s" s="0">
-        <v>854</v>
-      </c>
-      <c r="J137" t="s" s="0">
-        <v>855</v>
-      </c>
-      <c r="K137" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="0">
-        <v>856</v>
-      </c>
-      <c r="B138" t="s" s="0">
-        <v>857</v>
-      </c>
-      <c r="C138" t="s" s="0">
-        <v>858</v>
-      </c>
-      <c r="D138" s="0"/>
-      <c r="E138" s="0"/>
-      <c r="F138" t="s" s="0">
-        <v>859</v>
-      </c>
-      <c r="G138" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H138" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I138" t="s" s="0">
-        <v>860</v>
-      </c>
-      <c r="J138" t="s" s="0">
-        <v>861</v>
-      </c>
-      <c r="K138" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="0">
-        <v>862</v>
-      </c>
-      <c r="B139" t="s" s="0">
-        <v>863</v>
-      </c>
-      <c r="C139" t="s" s="0">
-        <v>864</v>
-      </c>
-      <c r="D139" s="0"/>
-      <c r="E139" s="0"/>
-      <c r="F139" t="s" s="0">
-        <v>865</v>
-      </c>
-      <c r="G139" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="H139" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I139" t="s" s="0">
-        <v>866</v>
-      </c>
-      <c r="J139" t="s" s="0">
-        <v>867</v>
-      </c>
-      <c r="K139" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="0">
-        <v>868</v>
-      </c>
-      <c r="B140" t="s" s="0">
-        <v>869</v>
-      </c>
-      <c r="C140" t="s" s="0">
-        <v>870</v>
-      </c>
-      <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
-      <c r="F140" t="s" s="0">
-        <v>871</v>
-      </c>
-      <c r="G140" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="H140" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="I140" t="s" s="0">
-        <v>872</v>
-      </c>
-      <c r="J140" t="s" s="0">
-        <v>873</v>
-      </c>
-      <c r="K140" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="0">
-        <v>874</v>
-      </c>
-      <c r="B141" t="s" s="0">
-        <v>875</v>
-      </c>
-      <c r="C141" t="s" s="0">
-        <v>876</v>
-      </c>
-      <c r="D141" s="0"/>
-      <c r="E141" s="0"/>
-      <c r="F141" t="s" s="0">
-        <v>877</v>
-      </c>
-      <c r="G141" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H141" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="0">
-        <v>878</v>
-      </c>
-      <c r="J141" t="s" s="0">
-        <v>879</v>
-      </c>
-      <c r="K141" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
